--- a/Downscaleddata/pdfs/surface o2_pdf.xlsx
+++ b/Downscaleddata/pdfs/surface o2_pdf.xlsx
@@ -490,34 +490,34 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5.097745223765251</v>
+        <v>4.813156836379726</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0002533944941709155</v>
+        <v>0.0002533945016470683</v>
       </c>
       <c r="D2" t="n">
-        <v>5.408581713515981</v>
+        <v>4.959402184148225</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0002687396404609922</v>
+        <v>0.0003763386653173205</v>
       </c>
       <c r="F2" t="n">
-        <v>5.408581713515981</v>
+        <v>4.959402184148225</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0004422299672848165</v>
+        <v>0.0002916507993008325</v>
       </c>
       <c r="H2" t="n">
-        <v>5.097745223765251</v>
+        <v>4.813156836379726</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0003149966085547353</v>
+        <v>0.000337287563958393</v>
       </c>
       <c r="J2" t="n">
-        <v>5.097745223765251</v>
+        <v>4.813156836379726</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0004532070185584505</v>
+        <v>0.0002778665915316458</v>
       </c>
     </row>
     <row r="3">
@@ -525,34 +525,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5.110209795500865</v>
+        <v>4.827055324109716</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0002533944941709155</v>
+        <v>0.0002533945016470683</v>
       </c>
       <c r="D3" t="n">
-        <v>5.419484292840788</v>
+        <v>4.973011280276886</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0002687396404609922</v>
+        <v>0.0003763386653173205</v>
       </c>
       <c r="F3" t="n">
-        <v>5.419484292840788</v>
+        <v>4.973011280276886</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0004643490251043525</v>
+        <v>0.000307663673681035</v>
       </c>
       <c r="H3" t="n">
-        <v>5.110209795500865</v>
+        <v>4.827055324109716</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0003149966085547353</v>
+        <v>0.000337287563958393</v>
       </c>
       <c r="J3" t="n">
-        <v>5.110209795500865</v>
+        <v>4.827055324109716</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0004875289478808792</v>
+        <v>0.0002897283924382885</v>
       </c>
     </row>
     <row r="4">
@@ -560,34 +560,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5.122674367236479</v>
+        <v>4.840953811839706</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0002533944941709155</v>
+        <v>0.0002533945016470683</v>
       </c>
       <c r="D4" t="n">
-        <v>5.430386872165593</v>
+        <v>4.986620376405546</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0002687396404609922</v>
+        <v>0.0003763386653173205</v>
       </c>
       <c r="F4" t="n">
-        <v>5.430386872165593</v>
+        <v>4.986620376405546</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0004970137682113093</v>
+        <v>0.0003302329430331138</v>
       </c>
       <c r="H4" t="n">
-        <v>5.122674367236479</v>
+        <v>4.840953811839706</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0003149966085547353</v>
+        <v>0.000337287563958393</v>
       </c>
       <c r="J4" t="n">
-        <v>5.122674367236479</v>
+        <v>4.840953811839706</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0005344812830651728</v>
+        <v>0.000306604954170894</v>
       </c>
     </row>
     <row r="5">
@@ -595,34 +595,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5.135138938972093</v>
+        <v>4.854852299569695</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0002533944941709155</v>
+        <v>0.0002533945016470683</v>
       </c>
       <c r="D5" t="n">
-        <v>5.4412894514904</v>
+        <v>5.000229472534206</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0002687396404609922</v>
+        <v>0.0003763386653173205</v>
       </c>
       <c r="F5" t="n">
-        <v>5.4412894514904</v>
+        <v>5.000229472534206</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0005600101890347613</v>
+        <v>0.0003613115212107662</v>
       </c>
       <c r="H5" t="n">
-        <v>5.135138938972093</v>
+        <v>4.854852299569695</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0003149966085547353</v>
+        <v>0.000337287563958393</v>
       </c>
       <c r="J5" t="n">
-        <v>5.135138938972093</v>
+        <v>4.854852299569695</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0005976408759850702</v>
+        <v>0.0003417649437075777</v>
       </c>
     </row>
     <row r="6">
@@ -630,34 +630,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5.147603510707706</v>
+        <v>4.868750787299684</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0002533944941709155</v>
+        <v>0.0002533945016470683</v>
       </c>
       <c r="D6" t="n">
-        <v>5.452192030815207</v>
+        <v>5.013838568662867</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0002687396404609922</v>
+        <v>0.0003763386653173205</v>
       </c>
       <c r="F6" t="n">
-        <v>5.452192030815207</v>
+        <v>5.013838568662867</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0006455842304824757</v>
+        <v>0.0004031627326275843</v>
       </c>
       <c r="H6" t="n">
-        <v>5.147603510707706</v>
+        <v>4.868750787299684</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0003149966085547353</v>
+        <v>0.000337287563958393</v>
       </c>
       <c r="J6" t="n">
-        <v>5.147603510707706</v>
+        <v>4.868750787299684</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0006812369377278799</v>
+        <v>0.000389061296322848</v>
       </c>
     </row>
     <row r="7">
@@ -665,34 +665,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5.16006808244332</v>
+        <v>4.882649275029674</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0002533944941709155</v>
+        <v>0.0002533945016470683</v>
       </c>
       <c r="D7" t="n">
-        <v>5.463094610140012</v>
+        <v>5.027447664791526</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0002687396404609922</v>
+        <v>0.0003763386653173205</v>
       </c>
       <c r="F7" t="n">
-        <v>5.463094610140012</v>
+        <v>5.027447664791526</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0007614283418987301</v>
+        <v>0.0004598650513153286</v>
       </c>
       <c r="H7" t="n">
-        <v>5.16006808244332</v>
+        <v>4.882649275029674</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0003149966085547353</v>
+        <v>0.000337287563958393</v>
       </c>
       <c r="J7" t="n">
-        <v>5.16006808244332</v>
+        <v>4.882649275029674</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0007901580178251149</v>
+        <v>0.0004519815694296028</v>
       </c>
     </row>
     <row r="8">
@@ -700,34 +700,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>5.172532654178934</v>
+        <v>4.896547762759664</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0002533944941709155</v>
+        <v>0.0002533945016470683</v>
       </c>
       <c r="D8" t="n">
-        <v>5.473997189464819</v>
+        <v>5.041056760920187</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0002687396404609922</v>
+        <v>0.0003763386653173205</v>
       </c>
       <c r="F8" t="n">
-        <v>5.473997189464819</v>
+        <v>5.041056760920187</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0009496211152394681</v>
+        <v>0.0005341526654459714</v>
       </c>
       <c r="H8" t="n">
-        <v>5.172532654178934</v>
+        <v>4.896547762759664</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0003149966085547353</v>
+        <v>0.000337287563958393</v>
       </c>
       <c r="J8" t="n">
-        <v>5.172532654178934</v>
+        <v>4.896547762759664</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0009349125490767961</v>
+        <v>0.0005347903983868289</v>
       </c>
     </row>
     <row r="9">
@@ -735,34 +735,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>5.184997225914548</v>
+        <v>4.910446250489654</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0002533944941709155</v>
+        <v>0.0002533945016470683</v>
       </c>
       <c r="D9" t="n">
-        <v>5.484899768789625</v>
+        <v>5.054665857048847</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0002687396404609922</v>
+        <v>0.0003763386653173205</v>
       </c>
       <c r="F9" t="n">
-        <v>5.484899768789625</v>
+        <v>5.054665857048847</v>
       </c>
       <c r="G9" t="n">
-        <v>0.001259857684867013</v>
+        <v>0.000627907287416283</v>
       </c>
       <c r="H9" t="n">
-        <v>5.184997225914548</v>
+        <v>4.910446250489654</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0003149966085547353</v>
+        <v>0.000337287563958393</v>
       </c>
       <c r="J9" t="n">
-        <v>5.184997225914548</v>
+        <v>4.910446250489654</v>
       </c>
       <c r="K9" t="n">
-        <v>0.001118405545227645</v>
+        <v>0.0006426411392842163</v>
       </c>
     </row>
     <row r="10">
@@ -770,34 +770,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>5.197461797650162</v>
+        <v>4.924344738219643</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0002533944941709155</v>
+        <v>0.0002533945016470683</v>
       </c>
       <c r="D10" t="n">
-        <v>5.495802348114431</v>
+        <v>5.068274953177507</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0002783828272131696</v>
+        <v>0.0003763386653173205</v>
       </c>
       <c r="F10" t="n">
-        <v>5.495802348114431</v>
+        <v>5.068274953177507</v>
       </c>
       <c r="G10" t="n">
-        <v>0.001679839151966269</v>
+        <v>0.0007436365478996383</v>
       </c>
       <c r="H10" t="n">
-        <v>5.197461797650162</v>
+        <v>4.924344738219643</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0003149966085547353</v>
+        <v>0.000337287563958393</v>
       </c>
       <c r="J10" t="n">
-        <v>5.197461797650162</v>
+        <v>4.924344738219643</v>
       </c>
       <c r="K10" t="n">
-        <v>0.00134699624074462</v>
+        <v>0.0007816897910709781</v>
       </c>
     </row>
     <row r="11">
@@ -805,34 +805,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>5.209926369385776</v>
+        <v>4.938243225949633</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0002533944941709155</v>
+        <v>0.0002533945016470683</v>
       </c>
       <c r="D11" t="n">
-        <v>5.506704927439237</v>
+        <v>5.081884049306168</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0002973514328986591</v>
+        <v>0.0003763386653173205</v>
       </c>
       <c r="F11" t="n">
-        <v>5.506704927439237</v>
+        <v>5.081884049306168</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0022341346335104</v>
+        <v>0.0008843336677829785</v>
       </c>
       <c r="H11" t="n">
-        <v>5.209926369385776</v>
+        <v>4.938243225949633</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0003149966085547353</v>
+        <v>0.000337287563958393</v>
       </c>
       <c r="J11" t="n">
-        <v>5.209926369385776</v>
+        <v>4.938243225949633</v>
       </c>
       <c r="K11" t="n">
-        <v>0.001627406255279727</v>
+        <v>0.000960805359272698</v>
       </c>
     </row>
     <row r="12">
@@ -840,34 +840,34 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5.22239094112139</v>
+        <v>4.952141713679623</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0002533944941709155</v>
+        <v>0.0002533945016470683</v>
       </c>
       <c r="D12" t="n">
-        <v>5.517607506764043</v>
+        <v>5.095493145434828</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0003237703510620146</v>
+        <v>0.0003763386653173205</v>
       </c>
       <c r="F12" t="n">
-        <v>5.517607506764043</v>
+        <v>5.095493145434828</v>
       </c>
       <c r="G12" t="n">
-        <v>0.002966616035546638</v>
+        <v>0.001053706066199983</v>
       </c>
       <c r="H12" t="n">
-        <v>5.22239094112139</v>
+        <v>4.952141713679623</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0003149966085547353</v>
+        <v>0.000337287563958393</v>
       </c>
       <c r="J12" t="n">
-        <v>5.22239094112139</v>
+        <v>4.952141713679623</v>
       </c>
       <c r="K12" t="n">
-        <v>0.001966249545677776</v>
+        <v>0.00118861450636422</v>
       </c>
     </row>
     <row r="13">
@@ -875,34 +875,34 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>5.234855512857004</v>
+        <v>4.966040201409613</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0002533944941709155</v>
+        <v>0.0002533945016470683</v>
       </c>
       <c r="D13" t="n">
-        <v>5.52851008608885</v>
+        <v>5.109102241563488</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0003598450646246904</v>
+        <v>0.0003763386653173205</v>
       </c>
       <c r="F13" t="n">
-        <v>5.52851008608885</v>
+        <v>5.109102241563488</v>
       </c>
       <c r="G13" t="n">
-        <v>0.004003953222647059</v>
+        <v>0.001249005359991819</v>
       </c>
       <c r="H13" t="n">
-        <v>5.234855512857004</v>
+        <v>4.966040201409613</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0003149966085547353</v>
+        <v>0.000337287563958393</v>
       </c>
       <c r="J13" t="n">
-        <v>5.234855512857004</v>
+        <v>4.966040201409613</v>
       </c>
       <c r="K13" t="n">
-        <v>0.002378747067774169</v>
+        <v>0.001474447132923796</v>
       </c>
     </row>
     <row r="14">
@@ -910,34 +910,34 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>5.247320084592618</v>
+        <v>4.979938689139603</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0002533944941709155</v>
+        <v>0.0002533945016470683</v>
       </c>
       <c r="D14" t="n">
-        <v>5.539412665413656</v>
+        <v>5.122711337692149</v>
       </c>
       <c r="E14" t="n">
-        <v>0.000407349309521803</v>
+        <v>0.0003763386653173205</v>
       </c>
       <c r="F14" t="n">
-        <v>5.539412665413656</v>
+        <v>5.122711337692149</v>
       </c>
       <c r="G14" t="n">
-        <v>0.005360948783389959</v>
+        <v>0.001473589326528771</v>
       </c>
       <c r="H14" t="n">
-        <v>5.247320084592618</v>
+        <v>4.979938689139603</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0003149966085547353</v>
+        <v>0.000337287563958393</v>
       </c>
       <c r="J14" t="n">
-        <v>5.247320084592618</v>
+        <v>4.979938689139603</v>
       </c>
       <c r="K14" t="n">
-        <v>0.002863404935553993</v>
+        <v>0.001829811837649351</v>
       </c>
     </row>
     <row r="15">
@@ -945,34 +945,34 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>5.259784656328232</v>
+        <v>4.993837176869592</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0002533944941709155</v>
+        <v>0.0002533945016470683</v>
       </c>
       <c r="D15" t="n">
-        <v>5.550315244738462</v>
+        <v>5.136320433820808</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0004687179083053741</v>
+        <v>0.0003763386653173205</v>
       </c>
       <c r="F15" t="n">
-        <v>5.550315244738462</v>
+        <v>5.136320433820808</v>
       </c>
       <c r="G15" t="n">
-        <v>0.007102728407586856</v>
+        <v>0.001751487778320333</v>
       </c>
       <c r="H15" t="n">
-        <v>5.259784656328232</v>
+        <v>4.993837176869592</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0003149966085547353</v>
+        <v>0.000337287563958393</v>
       </c>
       <c r="J15" t="n">
-        <v>5.259784656328232</v>
+        <v>4.993837176869592</v>
       </c>
       <c r="K15" t="n">
-        <v>0.003423386348064709</v>
+        <v>0.002267748717749295</v>
       </c>
     </row>
     <row r="16">
@@ -980,34 +980,34 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>5.272249228063846</v>
+        <v>5.007735664599582</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0002533944941709155</v>
+        <v>0.0002533945016470683</v>
       </c>
       <c r="D16" t="n">
-        <v>5.561217824063268</v>
+        <v>5.149929529949469</v>
       </c>
       <c r="E16" t="n">
-        <v>0.000552010573498793</v>
+        <v>0.0003763386653173205</v>
       </c>
       <c r="F16" t="n">
-        <v>5.561217824063268</v>
+        <v>5.149929529949469</v>
       </c>
       <c r="G16" t="n">
-        <v>0.009328226740781279</v>
+        <v>0.002076373482186698</v>
       </c>
       <c r="H16" t="n">
-        <v>5.272249228063846</v>
+        <v>5.007735664599582</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0003149966085547353</v>
+        <v>0.000337287563958393</v>
       </c>
       <c r="J16" t="n">
-        <v>5.272249228063846</v>
+        <v>5.007735664599582</v>
       </c>
       <c r="K16" t="n">
-        <v>0.004061367050441133</v>
+        <v>0.002802895200565373</v>
       </c>
     </row>
     <row r="17">
@@ -1015,34 +1015,34 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>5.28471379979946</v>
+        <v>5.021634152329572</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0002533944941709155</v>
+        <v>0.0002533945016470683</v>
       </c>
       <c r="D17" t="n">
-        <v>5.572120403388075</v>
+        <v>5.163538626078129</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0006663071970926739</v>
+        <v>0.0003763386653173205</v>
       </c>
       <c r="F17" t="n">
-        <v>5.572120403388075</v>
+        <v>5.163538626078129</v>
       </c>
       <c r="G17" t="n">
-        <v>0.01216802543097206</v>
+        <v>0.002451219734883284</v>
       </c>
       <c r="H17" t="n">
-        <v>5.28471379979946</v>
+        <v>5.021634152329572</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0003149966085547353</v>
+        <v>0.000337287563958393</v>
       </c>
       <c r="J17" t="n">
-        <v>5.28471379979946</v>
+        <v>5.021634152329572</v>
       </c>
       <c r="K17" t="n">
-        <v>0.004819062049564403</v>
+        <v>0.003477834816725102</v>
       </c>
     </row>
     <row r="18">
@@ -1050,34 +1050,34 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>5.297178371535074</v>
+        <v>5.035532640059562</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0002533944941709155</v>
+        <v>0.0002533945016470683</v>
       </c>
       <c r="D18" t="n">
-        <v>5.583022982712881</v>
+        <v>5.177147722206789</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0008103272451899151</v>
+        <v>0.0003763386653173205</v>
       </c>
       <c r="F18" t="n">
-        <v>5.583022982712881</v>
+        <v>5.177147722206789</v>
       </c>
       <c r="G18" t="n">
-        <v>0.01572300324208365</v>
+        <v>0.002884408722116481</v>
       </c>
       <c r="H18" t="n">
-        <v>5.297178371535074</v>
+        <v>5.035532640059562</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0003149966085547353</v>
+        <v>0.000337287563958393</v>
       </c>
       <c r="J18" t="n">
-        <v>5.297178371535074</v>
+        <v>5.035532640059562</v>
       </c>
       <c r="K18" t="n">
-        <v>0.00570451510742834</v>
+        <v>0.004313779503931272</v>
       </c>
     </row>
     <row r="19">
@@ -1085,34 +1085,34 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>5.309642943270688</v>
+        <v>5.049431127789552</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0002533944941709155</v>
+        <v>0.0002533945016470683</v>
       </c>
       <c r="D19" t="n">
-        <v>5.593925562037687</v>
+        <v>5.19075681833545</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0009884401419268745</v>
+        <v>0.0003763386653173205</v>
       </c>
       <c r="F19" t="n">
-        <v>5.593925562037687</v>
+        <v>5.19075681833545</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02012010778671924</v>
+        <v>0.00340007123686877</v>
       </c>
       <c r="H19" t="n">
-        <v>5.309642943270688</v>
+        <v>5.049431127789552</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0003149966085547353</v>
+        <v>0.000337287563958393</v>
       </c>
       <c r="J19" t="n">
-        <v>5.309642943270688</v>
+        <v>5.049431127789552</v>
       </c>
       <c r="K19" t="n">
-        <v>0.006700812009520935</v>
+        <v>0.00532487292249221</v>
       </c>
     </row>
     <row r="20">
@@ -1120,34 +1120,34 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>5.322107515006301</v>
+        <v>5.063329615519541</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0002533944941709155</v>
+        <v>0.0002533945016470683</v>
       </c>
       <c r="D20" t="n">
-        <v>5.604828141362494</v>
+        <v>5.20436591446411</v>
       </c>
       <c r="E20" t="n">
-        <v>0.001203844625094533</v>
+        <v>0.0003763386653173205</v>
       </c>
       <c r="F20" t="n">
-        <v>5.604828141362494</v>
+        <v>5.20436591446411</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02549263043280853</v>
+        <v>0.003994752278679989</v>
       </c>
       <c r="H20" t="n">
-        <v>5.322107515006301</v>
+        <v>5.063329615519541</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0003149966085547353</v>
+        <v>0.000337287563958393</v>
       </c>
       <c r="J20" t="n">
-        <v>5.322107515006301</v>
+        <v>5.063329615519541</v>
       </c>
       <c r="K20" t="n">
-        <v>0.007809970343532335</v>
+        <v>0.006536974835540233</v>
       </c>
     </row>
     <row r="21">
@@ -1155,34 +1155,34 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>5.334572086741915</v>
+        <v>5.077228103249531</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0002533944941709155</v>
+        <v>0.0002533945016470683</v>
       </c>
       <c r="D21" t="n">
-        <v>5.615730720687299</v>
+        <v>5.21797501059277</v>
       </c>
       <c r="E21" t="n">
-        <v>0.001459169546129113</v>
+        <v>0.0003763386653173205</v>
       </c>
       <c r="F21" t="n">
-        <v>5.615730720687299</v>
+        <v>5.21797501059277</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03205611785362927</v>
+        <v>0.00470802970172053</v>
       </c>
       <c r="H21" t="n">
-        <v>5.334572086741915</v>
+        <v>5.077228103249531</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0003149966085547353</v>
+        <v>0.000337287563958393</v>
       </c>
       <c r="J21" t="n">
-        <v>5.334572086741915</v>
+        <v>5.077228103249531</v>
       </c>
       <c r="K21" t="n">
-        <v>0.009041166360810576</v>
+        <v>0.007980887480848773</v>
       </c>
     </row>
     <row r="22">
@@ -1190,34 +1190,34 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>5.347036658477529</v>
+        <v>5.09112659097952</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0002533944941709155</v>
+        <v>0.0002533945016470683</v>
       </c>
       <c r="D22" t="n">
-        <v>5.626633300012106</v>
+        <v>5.231584106721431</v>
       </c>
       <c r="E22" t="n">
-        <v>0.00177092068583624</v>
+        <v>0.0003763386653173205</v>
       </c>
       <c r="F22" t="n">
-        <v>5.626633300012106</v>
+        <v>5.231584106721431</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03999836513045475</v>
+        <v>0.00557290782334948</v>
       </c>
       <c r="H22" t="n">
-        <v>5.347036658477529</v>
+        <v>5.09112659097952</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0003149966085547353</v>
+        <v>0.000337287563958393</v>
       </c>
       <c r="J22" t="n">
-        <v>5.347036658477529</v>
+        <v>5.09112659097952</v>
       </c>
       <c r="K22" t="n">
-        <v>0.01041114993363251</v>
+        <v>0.009697658178537448</v>
       </c>
     </row>
     <row r="23">
@@ -1225,34 +1225,34 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>5.359501230213143</v>
+        <v>5.10502507870951</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0002533944941709155</v>
+        <v>0.0002533945016470683</v>
       </c>
       <c r="D23" t="n">
-        <v>5.637535879336912</v>
+        <v>5.245193202850091</v>
       </c>
       <c r="E23" t="n">
-        <v>0.002144779840257566</v>
+        <v>0.0003763386653173205</v>
       </c>
       <c r="F23" t="n">
-        <v>5.637535879336912</v>
+        <v>5.245193202850091</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0494344673253987</v>
+        <v>0.006619766433723106</v>
       </c>
       <c r="H23" t="n">
-        <v>5.359501230213143</v>
+        <v>5.10502507870951</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0003149966085547353</v>
+        <v>0.000337287563958393</v>
       </c>
       <c r="J23" t="n">
-        <v>5.359501230213143</v>
+        <v>5.10502507870951</v>
       </c>
       <c r="K23" t="n">
-        <v>0.01193464279156456</v>
+        <v>0.01174955169642713</v>
       </c>
     </row>
     <row r="24">
@@ -1260,34 +1260,34 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>5.371965801948757</v>
+        <v>5.1189235664395</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0002533944941709155</v>
+        <v>0.0002533945016470683</v>
       </c>
       <c r="D24" t="n">
-        <v>5.648438458661718</v>
+        <v>5.25880229897875</v>
       </c>
       <c r="E24" t="n">
-        <v>0.002582893902884314</v>
+        <v>0.0003763386653173205</v>
       </c>
       <c r="F24" t="n">
-        <v>5.648438458661718</v>
+        <v>5.25880229897875</v>
       </c>
       <c r="G24" t="n">
-        <v>0.06062446435934884</v>
+        <v>0.007894877616472987</v>
       </c>
       <c r="H24" t="n">
-        <v>5.371965801948757</v>
+        <v>5.1189235664395</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0003149966085547353</v>
+        <v>0.000337287563958393</v>
       </c>
       <c r="J24" t="n">
-        <v>5.371965801948757</v>
+        <v>5.1189235664395</v>
       </c>
       <c r="K24" t="n">
-        <v>0.01363891311324826</v>
+        <v>0.01417236178781013</v>
       </c>
     </row>
     <row r="25">
@@ -1295,34 +1295,34 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>5.384430373684371</v>
+        <v>5.132822054169489</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0002533944941709155</v>
+        <v>0.0002533945016470683</v>
       </c>
       <c r="D25" t="n">
-        <v>5.659341037986525</v>
+        <v>5.272411395107411</v>
       </c>
       <c r="E25" t="n">
-        <v>0.003087376001712344</v>
+        <v>0.0003763386653173205</v>
       </c>
       <c r="F25" t="n">
-        <v>5.659341037986525</v>
+        <v>5.272411395107411</v>
       </c>
       <c r="G25" t="n">
-        <v>0.07369962661768274</v>
+        <v>0.009459908052807763</v>
       </c>
       <c r="H25" t="n">
-        <v>5.384430373684371</v>
+        <v>5.132822054169489</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0003149966085547353</v>
+        <v>0.000337287563958393</v>
       </c>
       <c r="J25" t="n">
-        <v>5.384430373684371</v>
+        <v>5.132822054169489</v>
       </c>
       <c r="K25" t="n">
-        <v>0.01560170533012608</v>
+        <v>0.01703746841882653</v>
       </c>
     </row>
     <row r="26">
@@ -1330,34 +1330,34 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>5.396894945419985</v>
+        <v>5.146720541899479</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0002533944941709155</v>
+        <v>0.0002533945016470683</v>
       </c>
       <c r="D26" t="n">
-        <v>5.670243617311331</v>
+        <v>5.286020491236071</v>
       </c>
       <c r="E26" t="n">
-        <v>0.003660489363816783</v>
+        <v>0.0003763386653173205</v>
       </c>
       <c r="F26" t="n">
-        <v>5.670243617311331</v>
+        <v>5.286020491236071</v>
       </c>
       <c r="G26" t="n">
-        <v>0.08886034040784048</v>
+        <v>0.01137769664318798</v>
       </c>
       <c r="H26" t="n">
-        <v>5.396894945419985</v>
+        <v>5.146720541899479</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0003149966085547353</v>
+        <v>0.000337287563958393</v>
       </c>
       <c r="J26" t="n">
-        <v>5.396894945419985</v>
+        <v>5.146720541899479</v>
       </c>
       <c r="K26" t="n">
-        <v>0.01784854039263779</v>
+        <v>0.02038805088853811</v>
       </c>
     </row>
     <row r="27">
@@ -1365,34 +1365,34 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>5.409359517155599</v>
+        <v>5.160619029629469</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0002533944941709155</v>
+        <v>0.0002533945016470683</v>
       </c>
       <c r="D27" t="n">
-        <v>5.681146196636137</v>
+        <v>5.299629587364731</v>
       </c>
       <c r="E27" t="n">
-        <v>0.004307827455851295</v>
+        <v>0.0003763386653173205</v>
       </c>
       <c r="F27" t="n">
-        <v>5.681146196636137</v>
+        <v>5.299629587364731</v>
       </c>
       <c r="G27" t="n">
-        <v>0.1064152148003494</v>
+        <v>0.01372116173628696</v>
       </c>
       <c r="H27" t="n">
-        <v>5.409359517155599</v>
+        <v>5.160619029629469</v>
       </c>
       <c r="I27" t="n">
-        <v>0.0003149966085547353</v>
+        <v>0.000337287563958393</v>
       </c>
       <c r="J27" t="n">
-        <v>5.409359517155599</v>
+        <v>5.160619029629469</v>
       </c>
       <c r="K27" t="n">
-        <v>0.02039952365546071</v>
+        <v>0.0242757234683286</v>
       </c>
     </row>
     <row r="28">
@@ -1400,34 +1400,34 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>5.421824088891213</v>
+        <v>5.174517517359459</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0002533944941709155</v>
+        <v>0.0002533945016470683</v>
       </c>
       <c r="D28" t="n">
-        <v>5.692048775960943</v>
+        <v>5.313238683493392</v>
       </c>
       <c r="E28" t="n">
-        <v>0.005038228273687169</v>
+        <v>0.0003763386653173205</v>
       </c>
       <c r="F28" t="n">
-        <v>5.692048775960943</v>
+        <v>5.313238683493392</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1263132043502088</v>
+        <v>0.01656748190971103</v>
       </c>
       <c r="H28" t="n">
-        <v>5.421824088891213</v>
+        <v>5.174517517359459</v>
       </c>
       <c r="I28" t="n">
-        <v>0.0003149966085547353</v>
+        <v>0.000337287563958393</v>
       </c>
       <c r="J28" t="n">
-        <v>5.421824088891213</v>
+        <v>5.174517517359459</v>
       </c>
       <c r="K28" t="n">
-        <v>0.02333291790734175</v>
+        <v>0.02874946491330434</v>
       </c>
     </row>
     <row r="29">
@@ -1435,34 +1435,34 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>5.434288660626827</v>
+        <v>5.188416005089449</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0002533944941709155</v>
+        <v>0.0002533945016470683</v>
       </c>
       <c r="D29" t="n">
-        <v>5.70295135528575</v>
+        <v>5.326847779622052</v>
       </c>
       <c r="E29" t="n">
-        <v>0.005868565766052233</v>
+        <v>0.0003763386653173205</v>
       </c>
       <c r="F29" t="n">
-        <v>5.70295135528575</v>
+        <v>5.326847779622052</v>
       </c>
       <c r="G29" t="n">
-        <v>0.1486793203857717</v>
+        <v>0.02000056073034835</v>
       </c>
       <c r="H29" t="n">
-        <v>5.434288660626827</v>
+        <v>5.188416005089449</v>
       </c>
       <c r="I29" t="n">
-        <v>0.0003149966085547353</v>
+        <v>0.000337287563958393</v>
       </c>
       <c r="J29" t="n">
-        <v>5.434288660626827</v>
+        <v>5.188416005089449</v>
       </c>
       <c r="K29" t="n">
-        <v>0.02669864272125685</v>
+        <v>0.03389622050779404</v>
       </c>
     </row>
     <row r="30">
@@ -1470,34 +1470,34 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>5.446753232362441</v>
+        <v>5.202314492819438</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0002533944941709155</v>
+        <v>0.0002533945016470683</v>
       </c>
       <c r="D30" t="n">
-        <v>5.713853934610555</v>
+        <v>5.340456875750712</v>
       </c>
       <c r="E30" t="n">
-        <v>0.006804881849592321</v>
+        <v>0.0003763386653173205</v>
       </c>
       <c r="F30" t="n">
-        <v>5.713853934610555</v>
+        <v>5.340456875750712</v>
       </c>
       <c r="G30" t="n">
-        <v>0.1739008434717528</v>
+        <v>0.02410240339249383</v>
       </c>
       <c r="H30" t="n">
-        <v>5.446753232362441</v>
+        <v>5.202314492819438</v>
       </c>
       <c r="I30" t="n">
-        <v>0.0003149966085547353</v>
+        <v>0.000337287563958393</v>
       </c>
       <c r="J30" t="n">
-        <v>5.446753232362441</v>
+        <v>5.202314492819438</v>
       </c>
       <c r="K30" t="n">
-        <v>0.03058989398924357</v>
+        <v>0.03976712755635235</v>
       </c>
     </row>
     <row r="31">
@@ -1505,34 +1505,34 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>5.459217804098055</v>
+        <v>5.216212980549428</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0002533944941709155</v>
+        <v>0.0002533945016470683</v>
       </c>
       <c r="D31" t="n">
-        <v>5.724756513935362</v>
+        <v>5.354065971879373</v>
       </c>
       <c r="E31" t="n">
-        <v>0.007931169925662408</v>
+        <v>0.0003763386653173205</v>
       </c>
       <c r="F31" t="n">
-        <v>5.724756513935362</v>
+        <v>5.354065971879373</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2017858459382582</v>
+        <v>0.02895900739935916</v>
       </c>
       <c r="H31" t="n">
-        <v>5.459217804098055</v>
+        <v>5.216212980549428</v>
       </c>
       <c r="I31" t="n">
-        <v>0.0003149966085547353</v>
+        <v>0.000337287563958393</v>
       </c>
       <c r="J31" t="n">
-        <v>5.459217804098055</v>
+        <v>5.216212980549428</v>
       </c>
       <c r="K31" t="n">
-        <v>0.0351262439971302</v>
+        <v>0.04644227275464507</v>
       </c>
     </row>
     <row r="32">
@@ -1540,34 +1540,34 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>5.471682375833668</v>
+        <v>5.230111468279418</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0002533944941709155</v>
+        <v>0.0002533945016470683</v>
       </c>
       <c r="D32" t="n">
-        <v>5.735659093260168</v>
+        <v>5.367675068008033</v>
       </c>
       <c r="E32" t="n">
-        <v>0.009237303909864212</v>
+        <v>0.0003763386653173205</v>
       </c>
       <c r="F32" t="n">
-        <v>5.735659093260168</v>
+        <v>5.367675068008033</v>
       </c>
       <c r="G32" t="n">
-        <v>0.2323487451458624</v>
+        <v>0.03465641542261029</v>
       </c>
       <c r="H32" t="n">
-        <v>5.471682375833668</v>
+        <v>5.230111468279418</v>
       </c>
       <c r="I32" t="n">
-        <v>0.0003149966085547353</v>
+        <v>0.000337287563958393</v>
       </c>
       <c r="J32" t="n">
-        <v>5.471682375833668</v>
+        <v>5.230111468279418</v>
       </c>
       <c r="K32" t="n">
-        <v>0.04033668444640943</v>
+        <v>0.05397610275085377</v>
       </c>
     </row>
     <row r="33">
@@ -1575,34 +1575,34 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>5.484146947569282</v>
+        <v>5.244009956009408</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0002533944941709155</v>
+        <v>0.0002533945016470683</v>
       </c>
       <c r="D33" t="n">
-        <v>5.746561672584974</v>
+        <v>5.381284164136693</v>
       </c>
       <c r="E33" t="n">
-        <v>0.01076793344858371</v>
+        <v>0.0003763386653173205</v>
       </c>
       <c r="F33" t="n">
-        <v>5.746561672584974</v>
+        <v>5.381284164136693</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2656667291702872</v>
+        <v>0.04130111637184478</v>
       </c>
       <c r="H33" t="n">
-        <v>5.484146947569282</v>
+        <v>5.244009956009408</v>
       </c>
       <c r="I33" t="n">
-        <v>0.0003149966085547353</v>
+        <v>0.000337287563958393</v>
       </c>
       <c r="J33" t="n">
-        <v>5.484146947569282</v>
+        <v>5.244009956009408</v>
       </c>
       <c r="K33" t="n">
-        <v>0.04638859139999141</v>
+        <v>0.06246634885945893</v>
       </c>
     </row>
     <row r="34">
@@ -1610,34 +1610,34 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>5.496611519304896</v>
+        <v>5.257908443739398</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0002533944941709155</v>
+        <v>0.0002533945016470683</v>
       </c>
       <c r="D34" t="n">
-        <v>5.757464251909781</v>
+        <v>5.394893260265353</v>
       </c>
       <c r="E34" t="n">
-        <v>0.01256451707971553</v>
+        <v>0.0003763386653173205</v>
       </c>
       <c r="F34" t="n">
-        <v>5.757464251909781</v>
+        <v>5.394893260265353</v>
       </c>
       <c r="G34" t="n">
-        <v>0.3016216237179135</v>
+        <v>0.04899438188128143</v>
       </c>
       <c r="H34" t="n">
-        <v>5.496611519304896</v>
+        <v>5.257908443739398</v>
       </c>
       <c r="I34" t="n">
-        <v>0.0003149966085547353</v>
+        <v>0.000337287563958393</v>
       </c>
       <c r="J34" t="n">
-        <v>5.496611519304896</v>
+        <v>5.257908443739398</v>
       </c>
       <c r="K34" t="n">
-        <v>0.05337467656379111</v>
+        <v>0.07191237606225735</v>
       </c>
     </row>
     <row r="35">
@@ -1645,34 +1645,34 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>5.50907609104051</v>
+        <v>5.271806931469388</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0002533944941709155</v>
+        <v>0.0002533945016470683</v>
       </c>
       <c r="D35" t="n">
-        <v>5.768366831234586</v>
+        <v>5.408502356394013</v>
       </c>
       <c r="E35" t="n">
-        <v>0.01468316585014861</v>
+        <v>0.0003763386653173205</v>
       </c>
       <c r="F35" t="n">
-        <v>5.768366831234586</v>
+        <v>5.408502356394013</v>
       </c>
       <c r="G35" t="n">
-        <v>0.339977854339916</v>
+        <v>0.05776560864680341</v>
       </c>
       <c r="H35" t="n">
-        <v>5.50907609104051</v>
+        <v>5.271806931469388</v>
       </c>
       <c r="I35" t="n">
-        <v>0.0003155908908600074</v>
+        <v>0.000337287563958393</v>
       </c>
       <c r="J35" t="n">
-        <v>5.50907609104051</v>
+        <v>5.271806931469388</v>
       </c>
       <c r="K35" t="n">
-        <v>0.06141423352309037</v>
+        <v>0.08241990256742728</v>
       </c>
     </row>
     <row r="36">
@@ -1680,34 +1680,34 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>5.521540662776124</v>
+        <v>5.285705419199377</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0002533944941709155</v>
+        <v>0.0002533945016470683</v>
       </c>
       <c r="D36" t="n">
-        <v>5.779269410559393</v>
+        <v>5.422111452522674</v>
       </c>
       <c r="E36" t="n">
-        <v>0.01720116228299554</v>
+        <v>0.0003763386653173205</v>
       </c>
       <c r="F36" t="n">
-        <v>5.779269410559393</v>
+        <v>5.422111452522674</v>
       </c>
       <c r="G36" t="n">
-        <v>0.3806521651592651</v>
+        <v>0.06775188990412413</v>
       </c>
       <c r="H36" t="n">
-        <v>5.521540662776124</v>
+        <v>5.285705419199377</v>
       </c>
       <c r="I36" t="n">
-        <v>0.0003287772774560065</v>
+        <v>0.000337287563958393</v>
       </c>
       <c r="J36" t="n">
-        <v>5.521540662776124</v>
+        <v>5.285705419199377</v>
       </c>
       <c r="K36" t="n">
-        <v>0.07058805435666801</v>
+        <v>0.09396401663460206</v>
       </c>
     </row>
     <row r="37">
@@ -1715,34 +1715,34 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>5.534005234511738</v>
+        <v>5.299603906929367</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0002533944941709155</v>
+        <v>0.0002533945016470683</v>
       </c>
       <c r="D37" t="n">
-        <v>5.790171989884199</v>
+        <v>5.435720548651334</v>
       </c>
       <c r="E37" t="n">
-        <v>0.02020531138857322</v>
+        <v>0.0003763386653173205</v>
       </c>
       <c r="F37" t="n">
-        <v>5.790171989884199</v>
+        <v>5.435720548651334</v>
       </c>
       <c r="G37" t="n">
-        <v>0.4233186545756748</v>
+        <v>0.07911739787244626</v>
       </c>
       <c r="H37" t="n">
-        <v>5.534005234511738</v>
+        <v>5.299603906929367</v>
       </c>
       <c r="I37" t="n">
-        <v>0.0003473845249484388</v>
+        <v>0.000337287563958393</v>
       </c>
       <c r="J37" t="n">
-        <v>5.534005234511738</v>
+        <v>5.299603906929367</v>
       </c>
       <c r="K37" t="n">
-        <v>0.08108680458978282</v>
+        <v>0.1066809375497233</v>
       </c>
     </row>
     <row r="38">
@@ -1750,34 +1750,34 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>5.546469806247352</v>
+        <v>5.313502394659356</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0002533944941709155</v>
+        <v>0.0002533945016470683</v>
       </c>
       <c r="D38" t="n">
-        <v>5.801074569209005</v>
+        <v>5.449329644779994</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0238171104170366</v>
+        <v>0.0003763386653173205</v>
       </c>
       <c r="F38" t="n">
-        <v>5.801074569209005</v>
+        <v>5.449329644779994</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4677625268542577</v>
+        <v>0.09186591776145005</v>
       </c>
       <c r="H38" t="n">
-        <v>5.546469806247352</v>
+        <v>5.313502394659356</v>
       </c>
       <c r="I38" t="n">
-        <v>0.0003737267389250715</v>
+        <v>0.000337287563958393</v>
       </c>
       <c r="J38" t="n">
-        <v>5.546469806247352</v>
+        <v>5.313502394659356</v>
       </c>
       <c r="K38" t="n">
-        <v>0.09307764641506074</v>
+        <v>0.1205355661464</v>
       </c>
     </row>
     <row r="39">
@@ -1785,34 +1785,34 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>5.558934377982966</v>
+        <v>5.327400882389346</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0002533944941709155</v>
+        <v>0.0002533945016470683</v>
       </c>
       <c r="D39" t="n">
-        <v>5.811977148533812</v>
+        <v>5.462938740908655</v>
       </c>
       <c r="E39" t="n">
-        <v>0.02813419423315621</v>
+        <v>0.0003763386653173205</v>
       </c>
       <c r="F39" t="n">
-        <v>5.811977148533812</v>
+        <v>5.462938740908655</v>
       </c>
       <c r="G39" t="n">
-        <v>0.5136666588871208</v>
+        <v>0.1060424904812254</v>
       </c>
       <c r="H39" t="n">
-        <v>5.558934377982966</v>
+        <v>5.327400882389346</v>
       </c>
       <c r="I39" t="n">
-        <v>0.0004187167768854033</v>
+        <v>0.000337287563958393</v>
       </c>
       <c r="J39" t="n">
-        <v>5.558934377982966</v>
+        <v>5.327400882389346</v>
       </c>
       <c r="K39" t="n">
-        <v>0.1066548597354528</v>
+        <v>0.1355770372768893</v>
       </c>
     </row>
     <row r="40">
@@ -1820,34 +1820,34 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>5.57139894971858</v>
+        <v>5.341299370119336</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0002533944941709155</v>
+        <v>0.0002533945016470683</v>
       </c>
       <c r="D40" t="n">
-        <v>5.822879727858618</v>
+        <v>5.476547837037315</v>
       </c>
       <c r="E40" t="n">
-        <v>0.03325897577740843</v>
+        <v>0.0003763386653173205</v>
       </c>
       <c r="F40" t="n">
-        <v>5.822879727858618</v>
+        <v>5.476547837037315</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5606973189729834</v>
+        <v>0.1217948562506349</v>
       </c>
       <c r="H40" t="n">
-        <v>5.57139894971858</v>
+        <v>5.341299370119336</v>
       </c>
       <c r="I40" t="n">
-        <v>0.0004843409148889481</v>
+        <v>0.000337287563958393</v>
       </c>
       <c r="J40" t="n">
-        <v>5.57139894971858</v>
+        <v>5.341299370119336</v>
       </c>
       <c r="K40" t="n">
-        <v>0.1220496956960689</v>
+        <v>0.1517343070966439</v>
       </c>
     </row>
     <row r="41">
@@ -1855,34 +1855,34 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>5.583863521454194</v>
+        <v>5.355197857849325</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0002533944941709155</v>
+        <v>0.0002533945016470683</v>
       </c>
       <c r="D41" t="n">
-        <v>5.833782307183424</v>
+        <v>5.490156933165975</v>
       </c>
       <c r="E41" t="n">
-        <v>0.03936431701243699</v>
+        <v>0.0003763386653173205</v>
       </c>
       <c r="F41" t="n">
-        <v>5.833782307183424</v>
+        <v>5.490156933165975</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6084274095128117</v>
+        <v>0.1392044545475018</v>
       </c>
       <c r="H41" t="n">
-        <v>5.583863521454194</v>
+        <v>5.355197857849325</v>
       </c>
       <c r="I41" t="n">
-        <v>0.0005727038312035242</v>
+        <v>0.000337287563958393</v>
       </c>
       <c r="J41" t="n">
-        <v>5.583863521454194</v>
+        <v>5.355197857849325</v>
       </c>
       <c r="K41" t="n">
-        <v>0.1393918374041912</v>
+        <v>0.1690856314839588</v>
       </c>
     </row>
     <row r="42">
@@ -1890,34 +1890,34 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>5.596328093189808</v>
+        <v>5.369096345579315</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0002533944941709155</v>
+        <v>0.0002533945016470683</v>
       </c>
       <c r="D42" t="n">
-        <v>5.84468488650823</v>
+        <v>5.503766029294635</v>
       </c>
       <c r="E42" t="n">
-        <v>0.04666702418605086</v>
+        <v>0.0003763386653173205</v>
       </c>
       <c r="F42" t="n">
-        <v>5.84468488650823</v>
+        <v>5.503766029294635</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6565330885014923</v>
+        <v>0.1581515566040671</v>
       </c>
       <c r="H42" t="n">
-        <v>5.596328093189808</v>
+        <v>5.369096345579315</v>
       </c>
       <c r="I42" t="n">
-        <v>0.0006897937397741617</v>
+        <v>0.000337287563958393</v>
       </c>
       <c r="J42" t="n">
-        <v>5.596328093189808</v>
+        <v>5.369096345579315</v>
       </c>
       <c r="K42" t="n">
-        <v>0.1589611694489897</v>
+        <v>0.1875287370937214</v>
       </c>
     </row>
     <row r="43">
@@ -1925,34 +1925,34 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>5.608792664925421</v>
+        <v>5.382994833309305</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0002533944941709155</v>
+        <v>0.0002533945016470683</v>
       </c>
       <c r="D43" t="n">
-        <v>5.855587465833037</v>
+        <v>5.517375125423295</v>
       </c>
       <c r="E43" t="n">
-        <v>0.05529473948612715</v>
+        <v>0.0003763386653173205</v>
       </c>
       <c r="F43" t="n">
-        <v>5.855587465833037</v>
+        <v>5.517375125423295</v>
       </c>
       <c r="G43" t="n">
-        <v>0.7047447046015269</v>
+        <v>0.1786359773390757</v>
       </c>
       <c r="H43" t="n">
-        <v>5.608792664925421</v>
+        <v>5.382994833309305</v>
       </c>
       <c r="I43" t="n">
-        <v>0.0008384836448483066</v>
+        <v>0.000337287563958393</v>
       </c>
       <c r="J43" t="n">
-        <v>5.608792664925421</v>
+        <v>5.382994833309305</v>
       </c>
       <c r="K43" t="n">
-        <v>0.1808418649970227</v>
+        <v>0.2070436828678992</v>
       </c>
     </row>
     <row r="44">
@@ -1960,34 +1960,34 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>5.621257236661035</v>
+        <v>5.396893321039295</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0003694656306321098</v>
+        <v>0.0002533945016470683</v>
       </c>
       <c r="D44" t="n">
-        <v>5.866490045157843</v>
+        <v>5.530984221551956</v>
       </c>
       <c r="E44" t="n">
-        <v>0.06538813883451036</v>
+        <v>0.0003763386653173205</v>
       </c>
       <c r="F44" t="n">
-        <v>5.866490045157843</v>
+        <v>5.530984221551956</v>
       </c>
       <c r="G44" t="n">
-        <v>0.7525814568109732</v>
+        <v>0.2007089205457845</v>
       </c>
       <c r="H44" t="n">
-        <v>5.621257236661035</v>
+        <v>5.396893321039295</v>
       </c>
       <c r="I44" t="n">
-        <v>0.001045613079434788</v>
+        <v>0.000337287563958393</v>
       </c>
       <c r="J44" t="n">
-        <v>5.621257236661035</v>
+        <v>5.396893321039295</v>
       </c>
       <c r="K44" t="n">
-        <v>0.2053673661953263</v>
+        <v>0.2275981134644515</v>
       </c>
     </row>
     <row r="45">
@@ -1995,34 +1995,34 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>5.633721808396649</v>
+        <v>5.410791808769285</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0005765115877932497</v>
+        <v>0.0002533945016470683</v>
       </c>
       <c r="D45" t="n">
-        <v>5.877392624482649</v>
+        <v>5.544593317680616</v>
       </c>
       <c r="E45" t="n">
-        <v>0.07716923035536671</v>
+        <v>0.0003960050618224649</v>
       </c>
       <c r="F45" t="n">
-        <v>5.877392624482649</v>
+        <v>5.544593317680616</v>
       </c>
       <c r="G45" t="n">
-        <v>0.7997688819786357</v>
+        <v>0.2242000833477534</v>
       </c>
       <c r="H45" t="n">
-        <v>5.633721808396649</v>
+        <v>5.410791808769285</v>
       </c>
       <c r="I45" t="n">
-        <v>0.00134743815241666</v>
+        <v>0.000337287563958393</v>
       </c>
       <c r="J45" t="n">
-        <v>5.633721808396649</v>
+        <v>5.410791808769285</v>
       </c>
       <c r="K45" t="n">
-        <v>0.2326396705683371</v>
+        <v>0.2491812459528982</v>
       </c>
     </row>
     <row r="46">
@@ -2030,34 +2030,34 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>5.646186380132263</v>
+        <v>5.424690296499274</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0008752151586484433</v>
+        <v>0.0002533945016470683</v>
       </c>
       <c r="D46" t="n">
-        <v>5.888295203807456</v>
+        <v>5.558202413809276</v>
       </c>
       <c r="E46" t="n">
-        <v>0.09085984357187206</v>
+        <v>0.00044625128841778</v>
       </c>
       <c r="F46" t="n">
-        <v>5.888295203807456</v>
+        <v>5.558202413809276</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8460578182202021</v>
+        <v>0.2489360080923952</v>
       </c>
       <c r="H46" t="n">
-        <v>5.646186380132263</v>
+        <v>5.424690296499274</v>
       </c>
       <c r="I46" t="n">
-        <v>0.001739992754932096</v>
+        <v>0.000337287563958393</v>
       </c>
       <c r="J46" t="n">
-        <v>5.646186380132263</v>
+        <v>5.424690296499274</v>
       </c>
       <c r="K46" t="n">
-        <v>0.262860723002761</v>
+        <v>0.2717137046966693</v>
       </c>
     </row>
     <row r="47">
@@ -2065,34 +2065,34 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>5.658650951867877</v>
+        <v>5.438588784229264</v>
       </c>
       <c r="C47" t="n">
-        <v>0.001296839884347156</v>
+        <v>0.0002533945016470683</v>
       </c>
       <c r="D47" t="n">
-        <v>5.899197783132261</v>
+        <v>5.571811509937937</v>
       </c>
       <c r="E47" t="n">
-        <v>0.1065747394381154</v>
+        <v>0.0005595032300375831</v>
       </c>
       <c r="F47" t="n">
-        <v>5.899197783132261</v>
+        <v>5.571811509937937</v>
       </c>
       <c r="G47" t="n">
-        <v>0.8910291627765581</v>
+        <v>0.2748767987149999</v>
       </c>
       <c r="H47" t="n">
-        <v>5.658650951867877</v>
+        <v>5.438588784229264</v>
       </c>
       <c r="I47" t="n">
-        <v>0.002236878872703661</v>
+        <v>0.000337287563958393</v>
       </c>
       <c r="J47" t="n">
-        <v>5.658650951867877</v>
+        <v>5.438588784229264</v>
       </c>
       <c r="K47" t="n">
-        <v>0.2960892588823752</v>
+        <v>0.2951590529297402</v>
       </c>
     </row>
     <row r="48">
@@ -2100,34 +2100,34 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>5.671115523603491</v>
+        <v>5.452487271959254</v>
       </c>
       <c r="C48" t="n">
-        <v>0.001891786285890083</v>
+        <v>0.0002533945016470683</v>
       </c>
       <c r="D48" t="n">
-        <v>5.910100362457068</v>
+        <v>5.585420606066597</v>
       </c>
       <c r="E48" t="n">
-        <v>0.1246001262825789</v>
+        <v>0.0007233117744410372</v>
       </c>
       <c r="F48" t="n">
-        <v>5.910100362457068</v>
+        <v>5.585420606066597</v>
       </c>
       <c r="G48" t="n">
-        <v>0.9345548122720052</v>
+        <v>0.3017972539440446</v>
       </c>
       <c r="H48" t="n">
-        <v>5.671115523603491</v>
+        <v>5.452487271959254</v>
       </c>
       <c r="I48" t="n">
-        <v>0.002856573282201762</v>
+        <v>0.000337287563958393</v>
       </c>
       <c r="J48" t="n">
-        <v>5.671115523603491</v>
+        <v>5.452487271959254</v>
       </c>
       <c r="K48" t="n">
-        <v>0.3324693455493991</v>
+        <v>0.319517047105826</v>
       </c>
     </row>
     <row r="49">
@@ -2135,34 +2135,34 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>5.683580095339105</v>
+        <v>5.466385759689244</v>
       </c>
       <c r="C49" t="n">
-        <v>0.002729787322410944</v>
+        <v>0.0002533945016470683</v>
       </c>
       <c r="D49" t="n">
-        <v>5.921002941781873</v>
+        <v>5.599029702195257</v>
       </c>
       <c r="E49" t="n">
-        <v>0.1450252303537541</v>
+        <v>0.0009801495095780044</v>
       </c>
       <c r="F49" t="n">
-        <v>5.921002941781873</v>
+        <v>5.599029702195257</v>
       </c>
       <c r="G49" t="n">
-        <v>0.9764625751453035</v>
+        <v>0.3295077825673586</v>
       </c>
       <c r="H49" t="n">
-        <v>5.683580095339105</v>
+        <v>5.466385759689244</v>
       </c>
       <c r="I49" t="n">
-        <v>0.003671557380442802</v>
+        <v>0.000337287563958393</v>
       </c>
       <c r="J49" t="n">
-        <v>5.683580095339105</v>
+        <v>5.466385759689244</v>
       </c>
       <c r="K49" t="n">
-        <v>0.3719651329242745</v>
+        <v>0.3447976752929572</v>
       </c>
     </row>
     <row r="50">
@@ -2170,34 +2170,34 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>5.696044667074719</v>
+        <v>5.480284247419234</v>
       </c>
       <c r="C50" t="n">
-        <v>0.003848467969399908</v>
+        <v>0.0002533945016470683</v>
       </c>
       <c r="D50" t="n">
-        <v>5.93190552110668</v>
+        <v>5.612638798323918</v>
       </c>
       <c r="E50" t="n">
-        <v>0.167955314480751</v>
+        <v>0.001352955770787991</v>
       </c>
       <c r="F50" t="n">
-        <v>5.93190552110668</v>
+        <v>5.612638798323918</v>
       </c>
       <c r="G50" t="n">
-        <v>1.016373694251287</v>
+        <v>0.3578360543156721</v>
       </c>
       <c r="H50" t="n">
-        <v>5.696044667074719</v>
+        <v>5.480284247419234</v>
       </c>
       <c r="I50" t="n">
-        <v>0.004702967413812124</v>
+        <v>0.000337287563958393</v>
       </c>
       <c r="J50" t="n">
-        <v>5.696044667074719</v>
+        <v>5.480284247419234</v>
       </c>
       <c r="K50" t="n">
-        <v>0.4144772905675587</v>
+        <v>0.3709451490225784</v>
       </c>
     </row>
     <row r="51">
@@ -2205,34 +2205,34 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>5.708509238810333</v>
+        <v>5.494182735149223</v>
       </c>
       <c r="C51" t="n">
-        <v>0.005312869194598569</v>
+        <v>0.0002533945016470683</v>
       </c>
       <c r="D51" t="n">
-        <v>5.942808100431487</v>
+        <v>5.626247894452577</v>
       </c>
       <c r="E51" t="n">
-        <v>0.1935281193852469</v>
+        <v>0.00188529858457552</v>
       </c>
       <c r="F51" t="n">
-        <v>5.942808100431487</v>
+        <v>5.626247894452577</v>
       </c>
       <c r="G51" t="n">
-        <v>1.054087145857678</v>
+        <v>0.3867195569082673</v>
       </c>
       <c r="H51" t="n">
-        <v>5.708509238810333</v>
+        <v>5.494182735149223</v>
       </c>
       <c r="I51" t="n">
-        <v>0.006021283325456805</v>
+        <v>0.000337287563958393</v>
       </c>
       <c r="J51" t="n">
-        <v>5.708509238810333</v>
+        <v>5.494182735149223</v>
       </c>
       <c r="K51" t="n">
-        <v>0.4597387349491645</v>
+        <v>0.3979915990084659</v>
       </c>
     </row>
     <row r="52">
@@ -2240,34 +2240,34 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>5.720973810545947</v>
+        <v>5.508081222879213</v>
       </c>
       <c r="C52" t="n">
-        <v>0.007236884056389315</v>
+        <v>0.0002533945016470683</v>
       </c>
       <c r="D52" t="n">
-        <v>5.953710679756292</v>
+        <v>5.639856990581237</v>
       </c>
       <c r="E52" t="n">
-        <v>0.2219068480586677</v>
+        <v>0.00259546189121025</v>
       </c>
       <c r="F52" t="n">
-        <v>5.953710679756292</v>
+        <v>5.639856990581237</v>
       </c>
       <c r="G52" t="n">
-        <v>1.089635444720333</v>
+        <v>0.4159274288334737</v>
       </c>
       <c r="H52" t="n">
-        <v>5.720973810545947</v>
+        <v>5.508081222879213</v>
       </c>
       <c r="I52" t="n">
-        <v>0.007658225966470812</v>
+        <v>0.000340476593557516</v>
       </c>
       <c r="J52" t="n">
-        <v>5.720973810545947</v>
+        <v>5.508081222879213</v>
       </c>
       <c r="K52" t="n">
-        <v>0.5074615015619373</v>
+        <v>0.4259097564357379</v>
       </c>
     </row>
     <row r="53">
@@ -2275,34 +2275,34 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>5.733438382281561</v>
+        <v>5.521979710609203</v>
       </c>
       <c r="C53" t="n">
-        <v>0.009715987011433832</v>
+        <v>0.0002533945016470683</v>
       </c>
       <c r="D53" t="n">
-        <v>5.964613259081099</v>
+        <v>5.653466086709898</v>
       </c>
       <c r="E53" t="n">
-        <v>0.2530436602947139</v>
+        <v>0.003535010103881012</v>
       </c>
       <c r="F53" t="n">
-        <v>5.964613259081099</v>
+        <v>5.653466086709898</v>
       </c>
       <c r="G53" t="n">
-        <v>1.122850518294931</v>
+        <v>0.4454280729167939</v>
       </c>
       <c r="H53" t="n">
-        <v>5.733438382281561</v>
+        <v>5.521979710609203</v>
       </c>
       <c r="I53" t="n">
-        <v>0.009692072363341752</v>
+        <v>0.0003656912384004693</v>
       </c>
       <c r="J53" t="n">
-        <v>5.733438382281561</v>
+        <v>5.521979710609203</v>
       </c>
       <c r="K53" t="n">
-        <v>0.5573199689343464</v>
+        <v>0.4547071437436012</v>
       </c>
     </row>
     <row r="54">
@@ -2310,34 +2310,34 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>5.745902954017174</v>
+        <v>5.535878198339192</v>
       </c>
       <c r="C54" t="n">
-        <v>0.01279255787646802</v>
+        <v>0.0002533945016470683</v>
       </c>
       <c r="D54" t="n">
-        <v>5.975515838405905</v>
+        <v>5.667075182838558</v>
       </c>
       <c r="E54" t="n">
-        <v>0.2869143935060453</v>
+        <v>0.004782753144657387</v>
       </c>
       <c r="F54" t="n">
-        <v>5.975515838405905</v>
+        <v>5.667075182838558</v>
       </c>
       <c r="G54" t="n">
-        <v>1.153687602463343</v>
+        <v>0.4750258416702533</v>
       </c>
       <c r="H54" t="n">
-        <v>5.745902954017174</v>
+        <v>5.535878198339192</v>
       </c>
       <c r="I54" t="n">
-        <v>0.01221179563151553</v>
+        <v>0.0004017588313833423</v>
       </c>
       <c r="J54" t="n">
-        <v>5.745902954017174</v>
+        <v>5.535878198339192</v>
       </c>
       <c r="K54" t="n">
-        <v>0.6087144112775587</v>
+        <v>0.4843637679569079</v>
       </c>
     </row>
     <row r="55">
@@ -2345,34 +2345,34 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>5.758367525752789</v>
+        <v>5.549776686069182</v>
       </c>
       <c r="C55" t="n">
-        <v>0.01654598636699945</v>
+        <v>0.0002533945016470683</v>
       </c>
       <c r="D55" t="n">
-        <v>5.986418417730711</v>
+        <v>5.680684278967219</v>
       </c>
       <c r="E55" t="n">
-        <v>0.3235923296353712</v>
+        <v>0.006367874370143364</v>
       </c>
       <c r="F55" t="n">
-        <v>5.986418417730711</v>
+        <v>5.680684278967219</v>
       </c>
       <c r="G55" t="n">
-        <v>1.181786773437716</v>
+        <v>0.5048638379182254</v>
       </c>
       <c r="H55" t="n">
-        <v>5.758367525752789</v>
+        <v>5.549776686069182</v>
       </c>
       <c r="I55" t="n">
-        <v>0.01529675163506795</v>
+        <v>0.0004658147993397793</v>
       </c>
       <c r="J55" t="n">
-        <v>5.758367525752789</v>
+        <v>5.549776686069182</v>
       </c>
       <c r="K55" t="n">
-        <v>0.6611228327196791</v>
+        <v>0.5147284116447371</v>
       </c>
     </row>
     <row r="56">
@@ -2380,34 +2380,34 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>5.770832097488402</v>
+        <v>5.563675173799172</v>
       </c>
       <c r="C56" t="n">
-        <v>0.02114557495325417</v>
+        <v>0.0002533945016470683</v>
       </c>
       <c r="D56" t="n">
-        <v>5.997320997055517</v>
+        <v>5.694293375095879</v>
       </c>
       <c r="E56" t="n">
-        <v>0.3629202515733214</v>
+        <v>0.008392031830245554</v>
       </c>
       <c r="F56" t="n">
-        <v>5.997320997055517</v>
+        <v>5.694293375095879</v>
       </c>
       <c r="G56" t="n">
-        <v>1.207236680015636</v>
+        <v>0.5347630271063772</v>
       </c>
       <c r="H56" t="n">
-        <v>5.770832097488402</v>
+        <v>5.563675173799172</v>
       </c>
       <c r="I56" t="n">
-        <v>0.01910313670977545</v>
+        <v>0.0005888188643211339</v>
       </c>
       <c r="J56" t="n">
-        <v>5.770832097488402</v>
+        <v>5.563675173799172</v>
       </c>
       <c r="K56" t="n">
-        <v>0.7138567683572152</v>
+        <v>0.5458441922387146</v>
       </c>
     </row>
     <row r="57">
@@ -2415,34 +2415,34 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>5.783296669224016</v>
+        <v>5.577573661529161</v>
       </c>
       <c r="C57" t="n">
-        <v>0.02663070015694912</v>
+        <v>0.0002533945016470683</v>
       </c>
       <c r="D57" t="n">
-        <v>6.008223576380324</v>
+        <v>5.707902471224539</v>
       </c>
       <c r="E57" t="n">
-        <v>0.4047111659831451</v>
+        <v>0.01093750686164274</v>
       </c>
       <c r="F57" t="n">
-        <v>6.008223576380324</v>
+        <v>5.707902471224539</v>
       </c>
       <c r="G57" t="n">
-        <v>1.230112356456492</v>
+        <v>0.5648102332266136</v>
       </c>
       <c r="H57" t="n">
-        <v>5.783296669224016</v>
+        <v>5.577573661529161</v>
       </c>
       <c r="I57" t="n">
-        <v>0.02371092120560431</v>
+        <v>0.0007764903595187132</v>
       </c>
       <c r="J57" t="n">
-        <v>5.783296669224016</v>
+        <v>5.577573661529161</v>
       </c>
       <c r="K57" t="n">
-        <v>0.766424404938027</v>
+        <v>0.5774972117048595</v>
       </c>
     </row>
     <row r="58">
@@ -2450,34 +2450,34 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>5.79576124095963</v>
+        <v>5.591472149259151</v>
       </c>
       <c r="C58" t="n">
-        <v>0.03301412479219373</v>
+        <v>0.0002533945016470683</v>
       </c>
       <c r="D58" t="n">
-        <v>6.01912615570513</v>
+        <v>5.721511567353199</v>
       </c>
       <c r="E58" t="n">
-        <v>0.4487610775875209</v>
+        <v>0.01412241484718627</v>
       </c>
       <c r="F58" t="n">
-        <v>6.01912615570513</v>
+        <v>5.721511567353199</v>
       </c>
       <c r="G58" t="n">
-        <v>1.25038630477328</v>
+        <v>0.5949064265965874</v>
       </c>
       <c r="H58" t="n">
-        <v>5.79576124095963</v>
+        <v>5.591472149259151</v>
       </c>
       <c r="I58" t="n">
-        <v>0.02928097662177192</v>
+        <v>0.00103178274478923</v>
       </c>
       <c r="J58" t="n">
-        <v>5.79576124095963</v>
+        <v>5.591472149259151</v>
       </c>
       <c r="K58" t="n">
-        <v>0.8180248464433788</v>
+        <v>0.6094826165995003</v>
       </c>
     </row>
     <row r="59">
@@ -2485,34 +2485,34 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>5.808225812695244</v>
+        <v>5.605370636989141</v>
       </c>
       <c r="C59" t="n">
-        <v>0.04034307852914076</v>
+        <v>0.0002533945016470683</v>
       </c>
       <c r="D59" t="n">
-        <v>6.030028735029936</v>
+        <v>5.735120663481859</v>
       </c>
       <c r="E59" t="n">
-        <v>0.4949229199481985</v>
+        <v>0.01801150874698604</v>
       </c>
       <c r="F59" t="n">
-        <v>6.030028735029936</v>
+        <v>5.735120663481859</v>
       </c>
       <c r="G59" t="n">
-        <v>1.267762901187506</v>
+        <v>0.6251828903409877</v>
       </c>
       <c r="H59" t="n">
-        <v>5.808225812695244</v>
+        <v>5.605370636989141</v>
       </c>
       <c r="I59" t="n">
-        <v>0.0359683798602786</v>
+        <v>0.001433319201744475</v>
       </c>
       <c r="J59" t="n">
-        <v>5.808225812695244</v>
+        <v>5.605370636989141</v>
       </c>
       <c r="K59" t="n">
-        <v>0.8682542793340637</v>
+        <v>0.6416309878010524</v>
       </c>
     </row>
     <row r="60">
@@ -2520,34 +2520,34 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>5.820690384430858</v>
+        <v>5.619269124719131</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0487975654994069</v>
+        <v>0.0003456670606894998</v>
       </c>
       <c r="D60" t="n">
-        <v>6.040931314354743</v>
+        <v>5.748729759610519</v>
       </c>
       <c r="E60" t="n">
-        <v>0.5428760010640749</v>
+        <v>0.02269091178319227</v>
       </c>
       <c r="F60" t="n">
-        <v>6.040931314354743</v>
+        <v>5.748729759610519</v>
       </c>
       <c r="G60" t="n">
-        <v>1.282402523352999</v>
+        <v>0.6555370731952752</v>
       </c>
       <c r="H60" t="n">
-        <v>5.820690384430858</v>
+        <v>5.619269124719131</v>
       </c>
       <c r="I60" t="n">
-        <v>0.04388495871116858</v>
+        <v>0.001998309211055275</v>
       </c>
       <c r="J60" t="n">
-        <v>5.820690384430858</v>
+        <v>5.619269124719131</v>
       </c>
       <c r="K60" t="n">
-        <v>0.9163409291200865</v>
+        <v>0.6736398646545761</v>
       </c>
     </row>
     <row r="61">
@@ -2555,34 +2555,34 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>5.833154956166472</v>
+        <v>5.633167612449121</v>
       </c>
       <c r="C61" t="n">
-        <v>0.05829746658864077</v>
+        <v>0.0005649911997003263</v>
       </c>
       <c r="D61" t="n">
-        <v>6.051833893679548</v>
+        <v>5.76233885573918</v>
       </c>
       <c r="E61" t="n">
-        <v>0.5922333458504078</v>
+        <v>0.02828538548756249</v>
       </c>
       <c r="F61" t="n">
-        <v>6.051833893679548</v>
+        <v>5.76233885573918</v>
       </c>
       <c r="G61" t="n">
-        <v>1.294453732739489</v>
+        <v>0.6861039070731604</v>
       </c>
       <c r="H61" t="n">
-        <v>5.833154956166472</v>
+        <v>5.633167612449121</v>
       </c>
       <c r="I61" t="n">
-        <v>0.05326746083691029</v>
+        <v>0.00274818421971658</v>
       </c>
       <c r="J61" t="n">
-        <v>5.833154956166472</v>
+        <v>5.633167612449121</v>
       </c>
       <c r="K61" t="n">
-        <v>0.9620324723770111</v>
+        <v>0.7053063949725521</v>
       </c>
     </row>
     <row r="62">
@@ -2590,34 +2590,34 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>5.845619527902086</v>
+        <v>5.64706610017911</v>
       </c>
       <c r="C62" t="n">
-        <v>0.06883254589411918</v>
+        <v>0.000899758097465073</v>
       </c>
       <c r="D62" t="n">
-        <v>6.062736473004355</v>
+        <v>5.77594795186784</v>
       </c>
       <c r="E62" t="n">
-        <v>0.6426690965637486</v>
+        <v>0.0348744158211452</v>
       </c>
       <c r="F62" t="n">
-        <v>6.062736473004355</v>
+        <v>5.77594795186784</v>
       </c>
       <c r="G62" t="n">
-        <v>1.303777553648142</v>
+        <v>0.7168379043193657</v>
       </c>
       <c r="H62" t="n">
-        <v>5.845619527902086</v>
+        <v>5.64706610017911</v>
       </c>
       <c r="I62" t="n">
-        <v>0.06422761218954211</v>
+        <v>0.003759856105217404</v>
       </c>
       <c r="J62" t="n">
-        <v>5.845619527902086</v>
+        <v>5.64706610017911</v>
       </c>
       <c r="K62" t="n">
-        <v>1.004922302165699</v>
+        <v>0.7362473856962772</v>
       </c>
     </row>
     <row r="63">
@@ -2625,34 +2625,34 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>5.8580840996377</v>
+        <v>5.6609645879091</v>
       </c>
       <c r="C63" t="n">
-        <v>0.08042047500806548</v>
+        <v>0.001388925773390676</v>
       </c>
       <c r="D63" t="n">
-        <v>6.073639052329161</v>
+        <v>5.7895570479965</v>
       </c>
       <c r="E63" t="n">
-        <v>0.6938157016333087</v>
+        <v>0.04257099361698741</v>
       </c>
       <c r="F63" t="n">
-        <v>6.073639052329161</v>
+        <v>5.7895570479965</v>
       </c>
       <c r="G63" t="n">
-        <v>1.310451067530168</v>
+        <v>0.7476834992043987</v>
       </c>
       <c r="H63" t="n">
-        <v>5.8580840996377</v>
+        <v>5.6609645879091</v>
       </c>
       <c r="I63" t="n">
-        <v>0.07695506499797586</v>
+        <v>0.00505860015479488</v>
       </c>
       <c r="J63" t="n">
-        <v>5.8580840996377</v>
+        <v>5.6609645879091</v>
       </c>
       <c r="K63" t="n">
-        <v>1.044679869643794</v>
+        <v>0.7663593403148274</v>
       </c>
     </row>
     <row r="64">
@@ -2660,34 +2660,34 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>5.870548671373314</v>
+        <v>5.67486307563909</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0932701628676309</v>
+        <v>0.002125997438216042</v>
       </c>
       <c r="D64" t="n">
-        <v>6.084541631653967</v>
+        <v>5.803166144125161</v>
       </c>
       <c r="E64" t="n">
-        <v>0.7452121056265024</v>
+        <v>0.05148891974705166</v>
       </c>
       <c r="F64" t="n">
-        <v>6.084541631653967</v>
+        <v>5.803166144125161</v>
       </c>
       <c r="G64" t="n">
-        <v>1.314608991803569</v>
+        <v>0.7786873702177358</v>
       </c>
       <c r="H64" t="n">
-        <v>5.870548671373314</v>
+        <v>5.67486307563909</v>
       </c>
       <c r="I64" t="n">
-        <v>0.09166638595652862</v>
+        <v>0.006750939410088932</v>
       </c>
       <c r="J64" t="n">
-        <v>5.870548671373314</v>
+        <v>5.67486307563909</v>
       </c>
       <c r="K64" t="n">
-        <v>1.080980398149068</v>
+        <v>0.7951376324173726</v>
       </c>
     </row>
     <row r="65">
@@ -2695,34 +2695,34 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>5.883013243108928</v>
+        <v>5.68876156336908</v>
       </c>
       <c r="C65" t="n">
-        <v>0.1072374415391898</v>
+        <v>0.003143023276161978</v>
       </c>
       <c r="D65" t="n">
-        <v>6.095444210978774</v>
+        <v>5.816775240253821</v>
       </c>
       <c r="E65" t="n">
-        <v>0.7964711722171884</v>
+        <v>0.06171346742691539</v>
       </c>
       <c r="F65" t="n">
-        <v>6.095444210978774</v>
+        <v>5.816775240253821</v>
       </c>
       <c r="G65" t="n">
-        <v>1.316299560408942</v>
+        <v>0.8098947640729516</v>
       </c>
       <c r="H65" t="n">
-        <v>5.883013243108928</v>
+        <v>5.68876156336908</v>
       </c>
       <c r="I65" t="n">
-        <v>0.1085864449764059</v>
+        <v>0.008923134963934496</v>
       </c>
       <c r="J65" t="n">
-        <v>5.883013243108928</v>
+        <v>5.68876156336908</v>
       </c>
       <c r="K65" t="n">
-        <v>1.113768212475263</v>
+        <v>0.8225277918356148</v>
       </c>
     </row>
     <row r="66">
@@ -2730,34 +2730,34 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>5.895477814844542</v>
+        <v>5.70266005109907</v>
       </c>
       <c r="C66" t="n">
-        <v>0.1223724460715845</v>
+        <v>0.004580719475160926</v>
       </c>
       <c r="D66" t="n">
-        <v>6.106346790303579</v>
+        <v>5.830384336382481</v>
       </c>
       <c r="E66" t="n">
-        <v>0.8472079468652502</v>
+        <v>0.07336097482387591</v>
       </c>
       <c r="F66" t="n">
-        <v>6.106346790303579</v>
+        <v>5.830384336382481</v>
       </c>
       <c r="G66" t="n">
-        <v>1.315611031953237</v>
+        <v>0.8412162461573214</v>
       </c>
       <c r="H66" t="n">
-        <v>5.895477814844542</v>
+        <v>5.70266005109907</v>
       </c>
       <c r="I66" t="n">
-        <v>0.1277905191082937</v>
+        <v>0.01163445795408558</v>
       </c>
       <c r="J66" t="n">
-        <v>5.895477814844542</v>
+        <v>5.70266005109907</v>
       </c>
       <c r="K66" t="n">
-        <v>1.143068482455163</v>
+        <v>0.8483719713582288</v>
       </c>
     </row>
     <row r="67">
@@ -2765,34 +2765,34 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>5.907942386580155</v>
+        <v>5.716558538829059</v>
       </c>
       <c r="C67" t="n">
-        <v>0.1387854103869217</v>
+        <v>0.006514723298059377</v>
       </c>
       <c r="D67" t="n">
-        <v>6.117249369628386</v>
+        <v>5.843993432511141</v>
       </c>
       <c r="E67" t="n">
-        <v>0.8969915044484823</v>
+        <v>0.08655765260851968</v>
       </c>
       <c r="F67" t="n">
-        <v>6.117249369628386</v>
+        <v>5.843993432511141</v>
       </c>
       <c r="G67" t="n">
-        <v>1.312777111703209</v>
+        <v>0.8725421847338263</v>
       </c>
       <c r="H67" t="n">
-        <v>5.907942386580155</v>
+        <v>5.716558538829059</v>
       </c>
       <c r="I67" t="n">
-        <v>0.1497355084278935</v>
+        <v>0.01501343820167738</v>
       </c>
       <c r="J67" t="n">
-        <v>5.907942386580155</v>
+        <v>5.716558538829059</v>
       </c>
       <c r="K67" t="n">
-        <v>1.168681701396965</v>
+        <v>0.8724938887332389</v>
       </c>
     </row>
     <row r="68">
@@ -2800,34 +2800,34 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>5.920406958315769</v>
+        <v>5.730457026559049</v>
       </c>
       <c r="C68" t="n">
-        <v>0.1567553875451181</v>
+        <v>0.00904519830822847</v>
       </c>
       <c r="D68" t="n">
-        <v>6.128151948953192</v>
+        <v>5.857602528639801</v>
       </c>
       <c r="E68" t="n">
-        <v>0.9453469264739114</v>
+        <v>0.1013961473053678</v>
       </c>
       <c r="F68" t="n">
-        <v>6.128151948953192</v>
+        <v>5.857602528639801</v>
       </c>
       <c r="G68" t="n">
-        <v>1.307898538311516</v>
+        <v>0.9038746025419937</v>
       </c>
       <c r="H68" t="n">
-        <v>5.920406958315769</v>
+        <v>5.730457026559049</v>
       </c>
       <c r="I68" t="n">
-        <v>0.1743578430745858</v>
+        <v>0.01912122159600572</v>
       </c>
       <c r="J68" t="n">
-        <v>5.920406958315769</v>
+        <v>5.730457026559049</v>
       </c>
       <c r="K68" t="n">
-        <v>1.190667697499617</v>
+        <v>0.894749142958318</v>
       </c>
     </row>
     <row r="69">
@@ -2835,34 +2835,34 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.932871530051383</v>
+        <v>5.744355514289039</v>
       </c>
       <c r="C69" t="n">
-        <v>0.1762404900986579</v>
+        <v>0.01237889868118685</v>
       </c>
       <c r="D69" t="n">
-        <v>6.139054528277999</v>
+        <v>5.871211624768462</v>
       </c>
       <c r="E69" t="n">
-        <v>0.9919387078995283</v>
+        <v>0.1179380892457544</v>
       </c>
       <c r="F69" t="n">
-        <v>6.139054528277999</v>
+        <v>5.871211624768462</v>
       </c>
       <c r="G69" t="n">
-        <v>1.301081562746196</v>
+        <v>0.9351213079196129</v>
       </c>
       <c r="H69" t="n">
-        <v>5.932871530051383</v>
+        <v>5.744355514289039</v>
       </c>
       <c r="I69" t="n">
-        <v>0.2021939780816857</v>
+        <v>0.02409621713364279</v>
       </c>
       <c r="J69" t="n">
-        <v>5.932871530051383</v>
+        <v>5.744355514289039</v>
       </c>
       <c r="K69" t="n">
-        <v>1.208845451257563</v>
+        <v>0.9152742660711285</v>
       </c>
     </row>
     <row r="70">
@@ -2870,34 +2870,34 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>5.945336101786997</v>
+        <v>5.758254002019028</v>
       </c>
       <c r="C70" t="n">
-        <v>0.1974114340953438</v>
+        <v>0.01651033403519756</v>
       </c>
       <c r="D70" t="n">
-        <v>6.149957107602805</v>
+        <v>5.884820720897122</v>
       </c>
       <c r="E70" t="n">
-        <v>1.036475037716823</v>
+        <v>0.1363441712441765</v>
       </c>
       <c r="F70" t="n">
-        <v>6.149957107602805</v>
+        <v>5.884820720897122</v>
       </c>
       <c r="G70" t="n">
-        <v>1.292594760638643</v>
+        <v>0.9660514200194535</v>
       </c>
       <c r="H70" t="n">
-        <v>5.945336101786997</v>
+        <v>5.758254002019028</v>
       </c>
       <c r="I70" t="n">
-        <v>0.2331996217984556</v>
+        <v>0.03004589090914879</v>
       </c>
       <c r="J70" t="n">
-        <v>5.945336101786997</v>
+        <v>5.758254002019028</v>
       </c>
       <c r="K70" t="n">
-        <v>1.22350868502495</v>
+        <v>0.9340702722021872</v>
       </c>
     </row>
     <row r="71">
@@ -2905,34 +2905,34 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>5.957800673522611</v>
+        <v>5.772152489749018</v>
       </c>
       <c r="C71" t="n">
-        <v>0.2205881880511865</v>
+        <v>0.02170017033471599</v>
       </c>
       <c r="D71" t="n">
-        <v>6.160859686927611</v>
+        <v>5.898429817025782</v>
       </c>
       <c r="E71" t="n">
-        <v>1.078632359792273</v>
+        <v>0.1567035124696067</v>
       </c>
       <c r="F71" t="n">
-        <v>6.160859686927611</v>
+        <v>5.898429817025782</v>
       </c>
       <c r="G71" t="n">
-        <v>1.282626642094605</v>
+        <v>0.99651942159733</v>
       </c>
       <c r="H71" t="n">
-        <v>5.957800673522611</v>
+        <v>5.772152489749018</v>
       </c>
       <c r="I71" t="n">
-        <v>0.2677961895598885</v>
+        <v>0.03706523991755344</v>
       </c>
       <c r="J71" t="n">
-        <v>5.957800673522611</v>
+        <v>5.772152489749018</v>
       </c>
       <c r="K71" t="n">
-        <v>1.234575827597537</v>
+        <v>0.9511365878228338</v>
       </c>
     </row>
     <row r="72">
@@ -2940,34 +2940,34 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>5.970265245258225</v>
+        <v>5.786050977479007</v>
       </c>
       <c r="C72" t="n">
-        <v>0.2461719955100872</v>
+        <v>0.02794831733737634</v>
       </c>
       <c r="D72" t="n">
-        <v>6.171762266252417</v>
+        <v>5.912038913154443</v>
       </c>
       <c r="E72" t="n">
-        <v>1.117956160032537</v>
+        <v>0.1789833976332996</v>
       </c>
       <c r="F72" t="n">
-        <v>6.171762266252417</v>
+        <v>5.912038913154443</v>
       </c>
       <c r="G72" t="n">
-        <v>1.271400698794286</v>
+        <v>1.026261206998308</v>
       </c>
       <c r="H72" t="n">
-        <v>5.970265245258225</v>
+        <v>5.786050977479007</v>
       </c>
       <c r="I72" t="n">
-        <v>0.3059726796349734</v>
+        <v>0.0453319526094741</v>
       </c>
       <c r="J72" t="n">
-        <v>5.970265245258225</v>
+        <v>5.786050977479007</v>
       </c>
       <c r="K72" t="n">
-        <v>1.242044100548815</v>
+        <v>0.9665080699773352</v>
       </c>
     </row>
     <row r="73">
@@ -2975,34 +2975,34 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>5.982729816993839</v>
+        <v>5.799949465208997</v>
       </c>
       <c r="C73" t="n">
-        <v>0.2741909001718833</v>
+        <v>0.03534860920426266</v>
       </c>
       <c r="D73" t="n">
-        <v>6.182664845577223</v>
+        <v>5.925648009283103</v>
       </c>
       <c r="E73" t="n">
-        <v>1.154259536934423</v>
+        <v>0.2033895293507635</v>
       </c>
       <c r="F73" t="n">
-        <v>6.182664845577223</v>
+        <v>5.925648009283103</v>
       </c>
       <c r="G73" t="n">
-        <v>1.259152523616655</v>
+        <v>1.055018124204613</v>
       </c>
       <c r="H73" t="n">
-        <v>5.982729816993839</v>
+        <v>5.799949465208997</v>
       </c>
       <c r="I73" t="n">
-        <v>0.3479810602112741</v>
+        <v>0.05491641039667955</v>
       </c>
       <c r="J73" t="n">
-        <v>5.982729816993839</v>
+        <v>5.799949465208997</v>
       </c>
       <c r="K73" t="n">
-        <v>1.246069866617388</v>
+        <v>0.9802729481982099</v>
       </c>
     </row>
     <row r="74">
@@ -3010,34 +3010,34 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>5.995194388729453</v>
+        <v>5.813847952938987</v>
       </c>
       <c r="C74" t="n">
-        <v>0.3049036243780615</v>
+        <v>0.04407577289828312</v>
       </c>
       <c r="D74" t="n">
-        <v>6.19356742490203</v>
+        <v>5.939257105411763</v>
       </c>
       <c r="E74" t="n">
-        <v>1.187513189581456</v>
+        <v>0.2298204463412959</v>
       </c>
       <c r="F74" t="n">
-        <v>6.19356742490203</v>
+        <v>5.939257105411763</v>
       </c>
       <c r="G74" t="n">
-        <v>1.246162449339022</v>
+        <v>1.082359288986759</v>
       </c>
       <c r="H74" t="n">
-        <v>5.995194388729453</v>
+        <v>5.813847952938987</v>
       </c>
       <c r="I74" t="n">
-        <v>0.3937862290246329</v>
+        <v>0.06597367869561867</v>
       </c>
       <c r="J74" t="n">
-        <v>5.995194388729453</v>
+        <v>5.813847952938987</v>
       </c>
       <c r="K74" t="n">
-        <v>1.246777703974914</v>
+        <v>0.9925638433604211</v>
       </c>
     </row>
     <row r="75">
@@ -3045,34 +3045,34 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>6.007658960465067</v>
+        <v>5.827746440668977</v>
       </c>
       <c r="C75" t="n">
-        <v>0.3388351059604036</v>
+        <v>0.05399317421377117</v>
       </c>
       <c r="D75" t="n">
-        <v>6.204470004226835</v>
+        <v>5.952866201540424</v>
       </c>
       <c r="E75" t="n">
-        <v>1.217519958873457</v>
+        <v>0.2582970390031358</v>
       </c>
       <c r="F75" t="n">
-        <v>6.204470004226835</v>
+        <v>5.952866201540424</v>
       </c>
       <c r="G75" t="n">
-        <v>1.23265001715674</v>
+        <v>1.108091671478151</v>
       </c>
       <c r="H75" t="n">
-        <v>6.007658960465067</v>
+        <v>5.827746440668977</v>
       </c>
       <c r="I75" t="n">
-        <v>0.4432794071709552</v>
+        <v>0.078650002467841</v>
       </c>
       <c r="J75" t="n">
-        <v>6.007658960465067</v>
+        <v>5.827746440668977</v>
       </c>
       <c r="K75" t="n">
-        <v>1.244219526369486</v>
+        <v>1.003288451442995</v>
       </c>
     </row>
     <row r="76">
@@ -3080,34 +3080,34 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>6.020123532200681</v>
+        <v>5.841644928398967</v>
       </c>
       <c r="C76" t="n">
-        <v>0.3762711217042523</v>
+        <v>0.06535884667518059</v>
       </c>
       <c r="D76" t="n">
-        <v>6.215372583551642</v>
+        <v>5.966475297669083</v>
       </c>
       <c r="E76" t="n">
-        <v>1.244010278734506</v>
+        <v>0.2888210142074409</v>
       </c>
       <c r="F76" t="n">
-        <v>6.215372583551642</v>
+        <v>5.966475297669083</v>
       </c>
       <c r="G76" t="n">
-        <v>1.218842110617324</v>
+        <v>1.131683119303128</v>
       </c>
       <c r="H76" t="n">
-        <v>6.020123532200681</v>
+        <v>5.841644928398967</v>
       </c>
       <c r="I76" t="n">
-        <v>0.4963919125715178</v>
+        <v>0.09304277744276135</v>
       </c>
       <c r="J76" t="n">
-        <v>6.020123532200681</v>
+        <v>5.841644928398967</v>
       </c>
       <c r="K76" t="n">
-        <v>1.23867172458524</v>
+        <v>1.012570455387736</v>
       </c>
     </row>
     <row r="77">
@@ -3115,34 +3115,34 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>6.032588103936295</v>
+        <v>5.855543416128956</v>
       </c>
       <c r="C77" t="n">
-        <v>0.4171343346435253</v>
+        <v>0.07802130467200692</v>
       </c>
       <c r="D77" t="n">
-        <v>6.226275162876449</v>
+        <v>5.980084393797743</v>
       </c>
       <c r="E77" t="n">
-        <v>1.2670132599271</v>
+        <v>0.321264976451408</v>
       </c>
       <c r="F77" t="n">
-        <v>6.226275162876449</v>
+        <v>5.980084393797743</v>
       </c>
       <c r="G77" t="n">
-        <v>1.204928203105537</v>
+        <v>1.152859394738544</v>
       </c>
       <c r="H77" t="n">
-        <v>6.032588103936295</v>
+        <v>5.855543416128956</v>
       </c>
       <c r="I77" t="n">
-        <v>0.5526122104417663</v>
+        <v>0.1093334085876451</v>
       </c>
       <c r="J77" t="n">
-        <v>6.032588103936295</v>
+        <v>5.855543416128956</v>
       </c>
       <c r="K77" t="n">
-        <v>1.230447601336006</v>
+        <v>1.020387508023608</v>
       </c>
     </row>
     <row r="78">
@@ -3150,34 +3150,34 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>6.045052675671908</v>
+        <v>5.869441903858946</v>
       </c>
       <c r="C78" t="n">
-        <v>0.4615512566187712</v>
+        <v>0.09206464601204019</v>
       </c>
       <c r="D78" t="n">
-        <v>6.237177742201254</v>
+        <v>5.993693489926404</v>
       </c>
       <c r="E78" t="n">
-        <v>1.28666895527822</v>
+        <v>0.3555049543275399</v>
       </c>
       <c r="F78" t="n">
-        <v>6.237177742201254</v>
+        <v>5.993693489926404</v>
       </c>
       <c r="G78" t="n">
-        <v>1.191032209449559</v>
+        <v>1.171089302188022</v>
       </c>
       <c r="H78" t="n">
-        <v>6.045052675671908</v>
+        <v>5.869441903858946</v>
       </c>
       <c r="I78" t="n">
-        <v>0.6116408282829251</v>
+        <v>0.127611139404907</v>
       </c>
       <c r="J78" t="n">
-        <v>6.045052675671908</v>
+        <v>5.869441903858946</v>
       </c>
       <c r="K78" t="n">
-        <v>1.219837581975937</v>
+        <v>1.026662995564209</v>
       </c>
     </row>
     <row r="79">
@@ -3185,34 +3185,34 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>6.057517247407522</v>
+        <v>5.883340391588936</v>
       </c>
       <c r="C79" t="n">
-        <v>0.5099815267765616</v>
+        <v>0.107618683565899</v>
       </c>
       <c r="D79" t="n">
-        <v>6.248080321526061</v>
+        <v>6.007302586055064</v>
       </c>
       <c r="E79" t="n">
-        <v>1.302965797583131</v>
+        <v>0.3913580684414404</v>
       </c>
       <c r="F79" t="n">
-        <v>6.248080321526061</v>
+        <v>6.007302586055064</v>
       </c>
       <c r="G79" t="n">
-        <v>1.17726746011665</v>
+        <v>1.186311508391191</v>
       </c>
       <c r="H79" t="n">
-        <v>6.057517247407522</v>
+        <v>5.883340391588936</v>
       </c>
       <c r="I79" t="n">
-        <v>0.6728096290356679</v>
+        <v>0.1479792779729684</v>
       </c>
       <c r="J79" t="n">
-        <v>6.057517247407522</v>
+        <v>5.883340391588936</v>
       </c>
       <c r="K79" t="n">
-        <v>1.207185584822329</v>
+        <v>1.031425305822321</v>
       </c>
     </row>
     <row r="80">
@@ -3220,34 +3220,34 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>6.069981819143136</v>
+        <v>5.897238879318926</v>
       </c>
       <c r="C80" t="n">
-        <v>0.5621656604803413</v>
+        <v>0.1245640594016923</v>
       </c>
       <c r="D80" t="n">
-        <v>6.258982900850867</v>
+        <v>6.020911682183725</v>
       </c>
       <c r="E80" t="n">
-        <v>1.315902350659239</v>
+        <v>0.4287345118124962</v>
       </c>
       <c r="F80" t="n">
-        <v>6.258982900850867</v>
+        <v>6.020911682183725</v>
       </c>
       <c r="G80" t="n">
-        <v>1.16376207291809</v>
+        <v>1.197933964899846</v>
       </c>
       <c r="H80" t="n">
-        <v>6.069981819143136</v>
+        <v>5.897238879318926</v>
       </c>
       <c r="I80" t="n">
-        <v>0.735297124286162</v>
+        <v>0.1705744451479838</v>
       </c>
       <c r="J80" t="n">
-        <v>6.069981819143136</v>
+        <v>5.897238879318926</v>
       </c>
       <c r="K80" t="n">
-        <v>1.192952872264721</v>
+        <v>1.034699948181643</v>
       </c>
     </row>
     <row r="81">
@@ -3255,34 +3255,34 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>6.08244639087875</v>
+        <v>5.911137367048916</v>
       </c>
       <c r="C81" t="n">
-        <v>0.6177270468218853</v>
+        <v>0.1433169798033654</v>
       </c>
       <c r="D81" t="n">
-        <v>6.269885480175673</v>
+        <v>6.034520778312385</v>
       </c>
       <c r="E81" t="n">
-        <v>1.325843184819848</v>
+        <v>0.4672676305497278</v>
       </c>
       <c r="F81" t="n">
-        <v>6.269885480175673</v>
+        <v>6.034520778312385</v>
       </c>
       <c r="G81" t="n">
-        <v>1.150556673226773</v>
+        <v>1.206067065925476</v>
       </c>
       <c r="H81" t="n">
-        <v>6.08244639087875</v>
+        <v>5.911137367048916</v>
       </c>
       <c r="I81" t="n">
-        <v>0.7984824131309167</v>
+        <v>0.1953992021353741</v>
       </c>
       <c r="J81" t="n">
-        <v>6.08244639087875</v>
+        <v>5.911137367048916</v>
       </c>
       <c r="K81" t="n">
-        <v>1.177573654226437</v>
+        <v>1.036370936893146</v>
       </c>
     </row>
     <row r="82">
@@ -3290,34 +3290,34 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>6.094910962614364</v>
+        <v>5.925035854778905</v>
       </c>
       <c r="C82" t="n">
-        <v>0.6763938952121664</v>
+        <v>0.1637715066127284</v>
       </c>
       <c r="D82" t="n">
-        <v>6.280788059500479</v>
+        <v>6.048129874441045</v>
       </c>
       <c r="E82" t="n">
-        <v>1.332983943078303</v>
+        <v>0.5067821372604536</v>
       </c>
       <c r="F82" t="n">
-        <v>6.280788059500479</v>
+        <v>6.048129874441045</v>
       </c>
       <c r="G82" t="n">
-        <v>1.137674593736162</v>
+        <v>1.210336624005348</v>
       </c>
       <c r="H82" t="n">
-        <v>6.094910962614364</v>
+        <v>5.925035854778905</v>
       </c>
       <c r="I82" t="n">
-        <v>0.8612382711504533</v>
+        <v>0.222548382175351</v>
       </c>
       <c r="J82" t="n">
-        <v>6.094910962614364</v>
+        <v>5.925035854778905</v>
       </c>
       <c r="K82" t="n">
-        <v>1.161514797314357</v>
+        <v>1.036607264315707</v>
       </c>
     </row>
     <row r="83">
@@ -3325,34 +3325,34 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>6.107375534349978</v>
+        <v>5.938934342508895</v>
       </c>
       <c r="C83" t="n">
-        <v>0.7381040865603576</v>
+        <v>0.1862792568182453</v>
       </c>
       <c r="D83" t="n">
-        <v>6.291690638825285</v>
+        <v>6.061738970569706</v>
       </c>
       <c r="E83" t="n">
-        <v>1.337395249023056</v>
+        <v>0.5469923281866335</v>
       </c>
       <c r="F83" t="n">
-        <v>6.291690638825285</v>
+        <v>6.061738970569706</v>
       </c>
       <c r="G83" t="n">
-        <v>1.125001583711076</v>
+        <v>1.210856652086802</v>
       </c>
       <c r="H83" t="n">
-        <v>6.107375534349978</v>
+        <v>5.938934342508895</v>
       </c>
       <c r="I83" t="n">
-        <v>0.9226839155252635</v>
+        <v>0.2520149646524006</v>
       </c>
       <c r="J83" t="n">
-        <v>6.107375534349978</v>
+        <v>5.938934342508895</v>
       </c>
       <c r="K83" t="n">
-        <v>1.145273612266159</v>
+        <v>1.03536540281028</v>
       </c>
     </row>
     <row r="84">
@@ -3360,34 +3360,34 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>6.119840106085592</v>
+        <v>5.952832830238885</v>
       </c>
       <c r="C84" t="n">
-        <v>0.8019686384978394</v>
+        <v>0.2111899991909353</v>
       </c>
       <c r="D84" t="n">
-        <v>6.302593218150092</v>
+        <v>6.075348066698366</v>
       </c>
       <c r="E84" t="n">
-        <v>1.339429475443694</v>
+        <v>0.587581843824155</v>
       </c>
       <c r="F84" t="n">
-        <v>6.302593218150092</v>
+        <v>6.075348066698366</v>
       </c>
       <c r="G84" t="n">
-        <v>1.112473271220438</v>
+        <v>1.207664807338358</v>
       </c>
       <c r="H84" t="n">
-        <v>6.119840106085592</v>
+        <v>5.952832830238885</v>
       </c>
       <c r="I84" t="n">
-        <v>0.9818700287936419</v>
+        <v>0.2836667151440893</v>
       </c>
       <c r="J84" t="n">
-        <v>6.119840106085592</v>
+        <v>5.952832830238885</v>
       </c>
       <c r="K84" t="n">
-        <v>1.129240296429617</v>
+        <v>1.03279551580259</v>
       </c>
     </row>
     <row r="85">
@@ -3395,34 +3395,34 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>6.132304677821206</v>
+        <v>5.966731317968875</v>
       </c>
       <c r="C85" t="n">
-        <v>0.8672962624297388</v>
+        <v>0.2385361283784529</v>
       </c>
       <c r="D85" t="n">
-        <v>6.313495797474898</v>
+        <v>6.088957162827025</v>
       </c>
       <c r="E85" t="n">
-        <v>1.339306137011492</v>
+        <v>0.6283213303006803</v>
       </c>
       <c r="F85" t="n">
-        <v>6.313495797474898</v>
+        <v>6.088957162827025</v>
       </c>
       <c r="G85" t="n">
-        <v>1.100116334007759</v>
+        <v>1.201055841318404</v>
       </c>
       <c r="H85" t="n">
-        <v>6.132304677821206</v>
+        <v>5.966731317968875</v>
       </c>
       <c r="I85" t="n">
-        <v>1.037852767216932</v>
+        <v>0.3175997548868993</v>
       </c>
       <c r="J85" t="n">
-        <v>6.132304677821206</v>
+        <v>5.966731317968875</v>
       </c>
       <c r="K85" t="n">
-        <v>1.113818431782334</v>
+        <v>1.028820351540891</v>
       </c>
     </row>
     <row r="86">
@@ -3430,34 +3430,34 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>6.14476924955682</v>
+        <v>5.980629805698864</v>
       </c>
       <c r="C86" t="n">
-        <v>0.9333949900801486</v>
+        <v>0.2692846692680703</v>
       </c>
       <c r="D86" t="n">
-        <v>6.324398376799705</v>
+        <v>6.102566258955686</v>
       </c>
       <c r="E86" t="n">
-        <v>1.337307881166064</v>
+        <v>0.6688744461928212</v>
       </c>
       <c r="F86" t="n">
-        <v>6.324398376799705</v>
+        <v>6.102566258955686</v>
       </c>
       <c r="G86" t="n">
-        <v>1.087751822377714</v>
+        <v>1.191127607791527</v>
       </c>
       <c r="H86" t="n">
-        <v>6.14476924955682</v>
+        <v>5.980629805698864</v>
       </c>
       <c r="I86" t="n">
-        <v>1.089797336302765</v>
+        <v>0.353450405290734</v>
       </c>
       <c r="J86" t="n">
-        <v>6.14476924955682</v>
+        <v>5.980629805698864</v>
       </c>
       <c r="K86" t="n">
-        <v>1.099232897580712</v>
+        <v>1.023721883932715</v>
       </c>
     </row>
     <row r="87">
@@ -3465,34 +3465,34 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>6.157233821292434</v>
+        <v>5.994528293428854</v>
       </c>
       <c r="C87" t="n">
-        <v>0.9993763640689112</v>
+        <v>0.3032241023265392</v>
       </c>
       <c r="D87" t="n">
-        <v>6.33530095612451</v>
+        <v>6.116175355084346</v>
       </c>
       <c r="E87" t="n">
-        <v>1.333632316392217</v>
+        <v>0.7089600520804913</v>
       </c>
       <c r="F87" t="n">
-        <v>6.33530095612451</v>
+        <v>6.116175355084346</v>
       </c>
       <c r="G87" t="n">
-        <v>1.075315168642716</v>
+        <v>1.178224762105147</v>
       </c>
       <c r="H87" t="n">
-        <v>6.157233821292434</v>
+        <v>5.994528293428854</v>
       </c>
       <c r="I87" t="n">
-        <v>1.136982837315988</v>
+        <v>0.3912773996595528</v>
       </c>
       <c r="J87" t="n">
-        <v>6.157233821292434</v>
+        <v>5.994528293428854</v>
       </c>
       <c r="K87" t="n">
-        <v>1.085842482103984</v>
+        <v>1.017490367972634</v>
       </c>
     </row>
     <row r="88">
@@ -3500,34 +3500,34 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>6.169698393028048</v>
+        <v>6.008426781158843</v>
       </c>
       <c r="C88" t="n">
-        <v>1.064334456906937</v>
+        <v>0.3410882473508326</v>
       </c>
       <c r="D88" t="n">
-        <v>6.346203535449317</v>
+        <v>6.129784451213006</v>
       </c>
       <c r="E88" t="n">
-        <v>1.328545240802238</v>
+        <v>0.7484039910683508</v>
       </c>
       <c r="F88" t="n">
-        <v>6.346203535449317</v>
+        <v>6.129784451213006</v>
       </c>
       <c r="G88" t="n">
-        <v>1.06276974926513</v>
+        <v>1.162798269195986</v>
       </c>
       <c r="H88" t="n">
-        <v>6.169698393028048</v>
+        <v>6.008426781158843</v>
       </c>
       <c r="I88" t="n">
-        <v>1.178920264946294</v>
+        <v>0.430682372951303</v>
       </c>
       <c r="J88" t="n">
-        <v>6.169698393028048</v>
+        <v>6.008426781158843</v>
       </c>
       <c r="K88" t="n">
-        <v>1.073633807096181</v>
+        <v>1.010241736373509</v>
       </c>
     </row>
     <row r="89">
@@ -3535,34 +3535,34 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>6.182162964763661</v>
+        <v>6.022325268888833</v>
       </c>
       <c r="C89" t="n">
-        <v>1.127447489693102</v>
+        <v>0.3832249072904202</v>
       </c>
       <c r="D89" t="n">
-        <v>6.357106114774123</v>
+        <v>6.143393547341667</v>
       </c>
       <c r="E89" t="n">
-        <v>1.322154580422284</v>
+        <v>0.7869171514293706</v>
       </c>
       <c r="F89" t="n">
-        <v>6.357106114774123</v>
+        <v>6.143393547341667</v>
       </c>
       <c r="G89" t="n">
-        <v>1.050041464435049</v>
+        <v>1.145196776623668</v>
       </c>
       <c r="H89" t="n">
-        <v>6.182162964763661</v>
+        <v>6.022325268888833</v>
       </c>
       <c r="I89" t="n">
-        <v>1.215076849944517</v>
+        <v>0.4715161787341711</v>
       </c>
       <c r="J89" t="n">
-        <v>6.182162964763661</v>
+        <v>6.022325268888833</v>
       </c>
       <c r="K89" t="n">
-        <v>1.062689244348257</v>
+        <v>1.002144249305102</v>
       </c>
     </row>
     <row r="90">
@@ -3570,34 +3570,34 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>6.194627536499276</v>
+        <v>6.036223756618823</v>
       </c>
       <c r="C90" t="n">
-        <v>1.187806244563086</v>
+        <v>0.4295066554536078</v>
       </c>
       <c r="D90" t="n">
-        <v>6.368008694098929</v>
+        <v>6.157002643470327</v>
       </c>
       <c r="E90" t="n">
-        <v>1.314536450472549</v>
+        <v>0.8242782424465651</v>
       </c>
       <c r="F90" t="n">
-        <v>6.368008694098929</v>
+        <v>6.157002643470327</v>
       </c>
       <c r="G90" t="n">
-        <v>1.037100565052628</v>
+        <v>1.125800697401132</v>
       </c>
       <c r="H90" t="n">
-        <v>6.194627536499276</v>
+        <v>6.036223756618823</v>
       </c>
       <c r="I90" t="n">
-        <v>1.245514688242981</v>
+        <v>0.5134785603468706</v>
       </c>
       <c r="J90" t="n">
-        <v>6.194627536499276</v>
+        <v>6.036223756618823</v>
       </c>
       <c r="K90" t="n">
-        <v>1.052903282020405</v>
+        <v>0.9931919856469648</v>
       </c>
     </row>
     <row r="91">
@@ -3605,34 +3605,34 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>6.207092108234889</v>
+        <v>6.050122244348813</v>
       </c>
       <c r="C91" t="n">
-        <v>1.244101250771846</v>
+        <v>0.4809596153400051</v>
       </c>
       <c r="D91" t="n">
-        <v>6.378911273423736</v>
+        <v>6.170611739598987</v>
       </c>
       <c r="E91" t="n">
-        <v>1.305905088799314</v>
+        <v>0.8604441661475266</v>
       </c>
       <c r="F91" t="n">
-        <v>6.378911273423736</v>
+        <v>6.170611739598987</v>
       </c>
       <c r="G91" t="n">
-        <v>1.023914998805031</v>
+        <v>1.104917783383752</v>
       </c>
       <c r="H91" t="n">
-        <v>6.207092108234889</v>
+        <v>6.050122244348813</v>
       </c>
       <c r="I91" t="n">
-        <v>1.269909871093847</v>
+        <v>0.5562649827536963</v>
       </c>
       <c r="J91" t="n">
-        <v>6.207092108234889</v>
+        <v>6.050122244348813</v>
       </c>
       <c r="K91" t="n">
-        <v>1.044173541107906</v>
+        <v>0.9835541210942657</v>
       </c>
     </row>
     <row r="92">
@@ -3640,34 +3640,34 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>6.219556679970503</v>
+        <v>6.064020732078802</v>
       </c>
       <c r="C92" t="n">
-        <v>1.296052981372947</v>
+        <v>0.536694864977626</v>
       </c>
       <c r="D92" t="n">
-        <v>6.389813852748541</v>
+        <v>6.184220835727648</v>
       </c>
       <c r="E92" t="n">
-        <v>1.296332836644344</v>
+        <v>0.8952323980169798</v>
       </c>
       <c r="F92" t="n">
-        <v>6.389813852748541</v>
+        <v>6.184220835727648</v>
       </c>
       <c r="G92" t="n">
-        <v>1.01045987719595</v>
+        <v>1.082995730443227</v>
       </c>
       <c r="H92" t="n">
-        <v>6.219556679970503</v>
+        <v>6.064020732078802</v>
       </c>
       <c r="I92" t="n">
-        <v>1.288742997566168</v>
+        <v>0.5995947926059803</v>
       </c>
       <c r="J92" t="n">
-        <v>6.219556679970503</v>
+        <v>6.064020732078802</v>
       </c>
       <c r="K92" t="n">
-        <v>1.036258540641285</v>
+        <v>0.9733328578632925</v>
       </c>
     </row>
     <row r="93">
@@ -3675,34 +3675,34 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>6.232021251706117</v>
+        <v>6.077919219808792</v>
       </c>
       <c r="C93" t="n">
-        <v>1.34305660014946</v>
+        <v>0.5971044778271536</v>
       </c>
       <c r="D93" t="n">
-        <v>6.400716432073348</v>
+        <v>6.197829931856308</v>
       </c>
       <c r="E93" t="n">
-        <v>1.285851931645485</v>
+        <v>0.9285044370533849</v>
       </c>
       <c r="F93" t="n">
-        <v>6.400716432073348</v>
+        <v>6.197829931856308</v>
       </c>
       <c r="G93" t="n">
-        <v>0.9966990000721075</v>
+        <v>1.060337764217194</v>
       </c>
       <c r="H93" t="n">
-        <v>6.232021251706117</v>
+        <v>6.077919219808792</v>
       </c>
       <c r="I93" t="n">
-        <v>1.302140596244299</v>
+        <v>0.6431371379651174</v>
       </c>
       <c r="J93" t="n">
-        <v>6.232021251706117</v>
+        <v>6.077919219808792</v>
       </c>
       <c r="K93" t="n">
-        <v>1.028795448785644</v>
+        <v>0.962662440758885</v>
       </c>
     </row>
     <row r="94">
@@ -3710,34 +3710,34 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>6.244485823441731</v>
+        <v>6.091817707538782</v>
       </c>
       <c r="C94" t="n">
-        <v>1.384284466089005</v>
+        <v>0.6616854506902455</v>
       </c>
       <c r="D94" t="n">
-        <v>6.411619011398154</v>
+        <v>6.211439027984968</v>
       </c>
       <c r="E94" t="n">
-        <v>1.274437037719564</v>
+        <v>0.9603689446473999</v>
       </c>
       <c r="F94" t="n">
-        <v>6.411619011398154</v>
+        <v>6.211439027984968</v>
       </c>
       <c r="G94" t="n">
-        <v>0.9826422086811176</v>
+        <v>1.0372755923336</v>
       </c>
       <c r="H94" t="n">
-        <v>6.244485823441731</v>
+        <v>6.091817707538782</v>
       </c>
       <c r="I94" t="n">
-        <v>1.310719622996757</v>
+        <v>0.6866201138838743</v>
       </c>
       <c r="J94" t="n">
-        <v>6.244485823441731</v>
+        <v>6.091817707538782</v>
       </c>
       <c r="K94" t="n">
-        <v>1.021590726271598</v>
+        <v>0.9516272332256021</v>
       </c>
     </row>
     <row r="95">
@@ -3745,34 +3745,34 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>6.256950395177345</v>
+        <v>6.105716195268772</v>
       </c>
       <c r="C95" t="n">
-        <v>1.418970651535202</v>
+        <v>0.7296749892539645</v>
       </c>
       <c r="D95" t="n">
-        <v>6.42252159072296</v>
+        <v>6.225048124113628</v>
       </c>
       <c r="E95" t="n">
-        <v>1.262114045234828</v>
+        <v>0.9906878355142247</v>
       </c>
       <c r="F95" t="n">
-        <v>6.42252159072296</v>
+        <v>6.225048124113628</v>
       </c>
       <c r="G95" t="n">
-        <v>0.9682541174523358</v>
+        <v>1.014060389163968</v>
       </c>
       <c r="H95" t="n">
-        <v>6.256950395177345</v>
+        <v>6.105716195268772</v>
       </c>
       <c r="I95" t="n">
-        <v>1.314990057739115</v>
+        <v>0.7296973232323957</v>
       </c>
       <c r="J95" t="n">
-        <v>6.256950395177345</v>
+        <v>6.105716195268772</v>
       </c>
       <c r="K95" t="n">
-        <v>1.014292123226384</v>
+        <v>0.9402971893113676</v>
       </c>
     </row>
     <row r="96">
@@ -3780,34 +3780,34 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>6.269414966912959</v>
+        <v>6.119614682998762</v>
       </c>
       <c r="C96" t="n">
-        <v>1.447566785681462</v>
+        <v>0.8007979884411278</v>
       </c>
       <c r="D96" t="n">
-        <v>6.433424170047767</v>
+        <v>6.238657220242288</v>
       </c>
       <c r="E96" t="n">
-        <v>1.248896581341161</v>
+        <v>1.019479710642173</v>
       </c>
       <c r="F96" t="n">
-        <v>6.433424170047767</v>
+        <v>6.238657220242288</v>
       </c>
       <c r="G96" t="n">
-        <v>0.9535376064607789</v>
+        <v>0.9910420713587401</v>
       </c>
       <c r="H96" t="n">
-        <v>6.269414966912959</v>
+        <v>6.119614682998762</v>
       </c>
       <c r="I96" t="n">
-        <v>1.315378261811315</v>
+        <v>0.7721714640437737</v>
       </c>
       <c r="J96" t="n">
-        <v>6.269414966912959</v>
+        <v>6.119614682998762</v>
       </c>
       <c r="K96" t="n">
-        <v>1.006715005916664</v>
+        <v>0.9288564430086557</v>
       </c>
     </row>
     <row r="97">
@@ -3815,34 +3815,34 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>6.281879538648573</v>
+        <v>6.133513170728751</v>
       </c>
       <c r="C97" t="n">
-        <v>1.47002532947203</v>
+        <v>0.8736697338598727</v>
       </c>
       <c r="D97" t="n">
-        <v>6.444326749372573</v>
+        <v>6.252266316370949</v>
       </c>
       <c r="E97" t="n">
-        <v>1.234845609940131</v>
+        <v>1.046880085283323</v>
       </c>
       <c r="F97" t="n">
-        <v>6.444326749372573</v>
+        <v>6.252266316370949</v>
       </c>
       <c r="G97" t="n">
-        <v>0.9384432899189241</v>
+        <v>0.9685720406075909</v>
       </c>
       <c r="H97" t="n">
-        <v>6.281879538648573</v>
+        <v>6.133513170728751</v>
       </c>
       <c r="I97" t="n">
-        <v>1.312796175868787</v>
+        <v>0.8137196103482697</v>
       </c>
       <c r="J97" t="n">
-        <v>6.281879538648573</v>
+        <v>6.133513170728751</v>
       </c>
       <c r="K97" t="n">
-        <v>0.9985943057527317</v>
+        <v>0.9173631855844012</v>
       </c>
     </row>
     <row r="98">
@@ -3850,34 +3850,34 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>6.294344110384187</v>
+        <v>6.147411658458741</v>
       </c>
       <c r="C98" t="n">
-        <v>1.485945132314656</v>
+        <v>0.9474115495091092</v>
       </c>
       <c r="D98" t="n">
-        <v>6.455229328697379</v>
+        <v>6.265875412499609</v>
       </c>
       <c r="E98" t="n">
-        <v>1.219971233761589</v>
+        <v>1.072721447953419</v>
       </c>
       <c r="F98" t="n">
-        <v>6.455229328697379</v>
+        <v>6.265875412499609</v>
       </c>
       <c r="G98" t="n">
-        <v>0.9229177543799404</v>
+        <v>0.9469084005703166</v>
       </c>
       <c r="H98" t="n">
-        <v>6.294344110384187</v>
+        <v>6.147411658458741</v>
       </c>
       <c r="I98" t="n">
-        <v>1.307536434473431</v>
+        <v>0.8541355296823424</v>
       </c>
       <c r="J98" t="n">
-        <v>6.294344110384187</v>
+        <v>6.147411658458741</v>
       </c>
       <c r="K98" t="n">
-        <v>0.9898200652300693</v>
+        <v>0.905886058678484</v>
       </c>
     </row>
     <row r="99">
@@ -3885,34 +3885,34 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>6.306808682119801</v>
+        <v>6.161310146188731</v>
       </c>
       <c r="C99" t="n">
-        <v>1.495613986311184</v>
+        <v>1.020786375643594</v>
       </c>
       <c r="D99" t="n">
-        <v>6.466131908022185</v>
+        <v>6.279484508628269</v>
       </c>
       <c r="E99" t="n">
-        <v>1.204274889609225</v>
+        <v>1.097147764401601</v>
       </c>
       <c r="F99" t="n">
-        <v>6.466131908022185</v>
+        <v>6.279484508628269</v>
       </c>
       <c r="G99" t="n">
-        <v>0.906997918906303</v>
+        <v>0.9264057530658304</v>
       </c>
       <c r="H99" t="n">
-        <v>6.306808682119801</v>
+        <v>6.161310146188731</v>
       </c>
       <c r="I99" t="n">
-        <v>1.300300977279973</v>
+        <v>0.8932579612426376</v>
       </c>
       <c r="J99" t="n">
-        <v>6.306808682119801</v>
+        <v>6.161310146188731</v>
       </c>
       <c r="K99" t="n">
-        <v>0.9802138734738793</v>
+        <v>0.8944624112887271</v>
       </c>
     </row>
     <row r="100">
@@ -3920,34 +3920,34 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>6.319273253855414</v>
+        <v>6.175208633918721</v>
       </c>
       <c r="C100" t="n">
-        <v>1.499928672364465</v>
+        <v>1.09262006894834</v>
       </c>
       <c r="D100" t="n">
-        <v>6.477034487346991</v>
+        <v>6.29309360475693</v>
       </c>
       <c r="E100" t="n">
-        <v>1.187860653502404</v>
+        <v>1.120168663549595</v>
       </c>
       <c r="F100" t="n">
-        <v>6.477034487346991</v>
+        <v>6.29309360475693</v>
       </c>
       <c r="G100" t="n">
-        <v>0.8906823478133912</v>
+        <v>0.9071692427330991</v>
       </c>
       <c r="H100" t="n">
-        <v>6.319273253855414</v>
+        <v>6.175208633918721</v>
       </c>
       <c r="I100" t="n">
-        <v>1.291595478422933</v>
+        <v>0.930808236102849</v>
       </c>
       <c r="J100" t="n">
-        <v>6.319273253855414</v>
+        <v>6.175208633918721</v>
       </c>
       <c r="K100" t="n">
-        <v>0.9698463274988901</v>
+        <v>0.8831514767894307</v>
       </c>
     </row>
     <row r="101">
@@ -3955,34 +3955,34 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>6.331737825591029</v>
+        <v>6.189107121648711</v>
       </c>
       <c r="C101" t="n">
-        <v>1.499349898808869</v>
+        <v>1.161311883782948</v>
       </c>
       <c r="D101" t="n">
-        <v>6.487937066671797</v>
+        <v>6.306702700885589</v>
       </c>
       <c r="E101" t="n">
-        <v>1.170839096243812</v>
+        <v>1.141621889563674</v>
       </c>
       <c r="F101" t="n">
-        <v>6.487937066671797</v>
+        <v>6.306702700885589</v>
       </c>
       <c r="G101" t="n">
-        <v>0.8739461515591123</v>
+        <v>0.8896004071676208</v>
       </c>
       <c r="H101" t="n">
-        <v>6.331737825591029</v>
+        <v>6.189107121648711</v>
       </c>
       <c r="I101" t="n">
-        <v>1.281647287934781</v>
+        <v>0.966780155471771</v>
       </c>
       <c r="J101" t="n">
-        <v>6.331737825591029</v>
+        <v>6.189107121648711</v>
       </c>
       <c r="K101" t="n">
-        <v>0.9586750713731907</v>
+        <v>0.8718933281942941</v>
       </c>
     </row>
     <row r="102">
@@ -3990,34 +3990,34 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>6.344202397326642</v>
+        <v>6.2030056093787</v>
       </c>
       <c r="C102" t="n">
-        <v>1.493965404035939</v>
+        <v>1.226199356149205</v>
       </c>
       <c r="D102" t="n">
-        <v>6.498839645996604</v>
+        <v>6.32031179701425</v>
       </c>
       <c r="E102" t="n">
-        <v>1.153344852448846</v>
+        <v>1.161634327068196</v>
       </c>
       <c r="F102" t="n">
-        <v>6.498839645996604</v>
+        <v>6.32031179701425</v>
       </c>
       <c r="G102" t="n">
-        <v>0.8567944713532103</v>
+        <v>0.8736070583375416</v>
       </c>
       <c r="H102" t="n">
-        <v>6.344202397326642</v>
+        <v>6.2030056093787</v>
       </c>
       <c r="I102" t="n">
-        <v>1.270958625483904</v>
+        <v>1.000882191860085</v>
       </c>
       <c r="J102" t="n">
-        <v>6.344202397326642</v>
+        <v>6.2030056093787</v>
       </c>
       <c r="K102" t="n">
-        <v>0.9467516443519751</v>
+        <v>0.8605765586657906</v>
       </c>
     </row>
     <row r="103">
@@ -4025,34 +4025,34 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>6.356666969062256</v>
+        <v>6.21690409710869</v>
       </c>
       <c r="C103" t="n">
-        <v>1.484666836872403</v>
+        <v>1.285454702912295</v>
       </c>
       <c r="D103" t="n">
-        <v>6.509742225321411</v>
+        <v>6.33392089314291</v>
       </c>
       <c r="E103" t="n">
-        <v>1.135473061276681</v>
+        <v>1.179945755383031</v>
       </c>
       <c r="F103" t="n">
-        <v>6.509742225321411</v>
+        <v>6.33392089314291</v>
       </c>
       <c r="G103" t="n">
-        <v>0.8392655297349098</v>
+        <v>0.8593425260945303</v>
       </c>
       <c r="H103" t="n">
-        <v>6.356666969062256</v>
+        <v>6.21690409710869</v>
       </c>
       <c r="I103" t="n">
-        <v>1.259695225310998</v>
+        <v>1.033142536069213</v>
       </c>
       <c r="J103" t="n">
-        <v>6.356666969062256</v>
+        <v>6.21690409710869</v>
       </c>
       <c r="K103" t="n">
-        <v>0.9340730740685893</v>
+        <v>0.8491527464552561</v>
       </c>
     </row>
     <row r="104">
@@ -4060,34 +4060,34 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>6.36913154079787</v>
+        <v>6.230802584838679</v>
       </c>
       <c r="C104" t="n">
-        <v>1.472238581389474</v>
+        <v>1.338606181876518</v>
       </c>
       <c r="D104" t="n">
-        <v>6.520644804646216</v>
+        <v>6.34752998927157</v>
       </c>
       <c r="E104" t="n">
-        <v>1.117494744624497</v>
+        <v>1.196606312361539</v>
       </c>
       <c r="F104" t="n">
-        <v>6.520644804646216</v>
+        <v>6.34752998927157</v>
       </c>
       <c r="G104" t="n">
-        <v>0.8213727758761117</v>
+        <v>0.8465164783025773</v>
       </c>
       <c r="H104" t="n">
-        <v>6.36913154079787</v>
+        <v>6.230802584838679</v>
       </c>
       <c r="I104" t="n">
-        <v>1.24803929612961</v>
+        <v>1.063421154052471</v>
       </c>
       <c r="J104" t="n">
-        <v>6.36913154079787</v>
+        <v>6.230802584838679</v>
       </c>
       <c r="K104" t="n">
-        <v>0.9207634791647179</v>
+        <v>0.8374502418299281</v>
       </c>
     </row>
     <row r="105">
@@ -4095,34 +4095,34 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>6.381596112533484</v>
+        <v>6.244701072568669</v>
       </c>
       <c r="C105" t="n">
-        <v>1.457177414233732</v>
+        <v>1.384907560911047</v>
       </c>
       <c r="D105" t="n">
-        <v>6.531547383971023</v>
+        <v>6.361139085400231</v>
       </c>
       <c r="E105" t="n">
-        <v>1.099561206088602</v>
+        <v>1.211411600049193</v>
       </c>
       <c r="F105" t="n">
-        <v>6.531547383971023</v>
+        <v>6.361139085400231</v>
       </c>
       <c r="G105" t="n">
-        <v>0.8031488544022176</v>
+        <v>0.8350478820213584</v>
       </c>
       <c r="H105" t="n">
-        <v>6.381596112533484</v>
+        <v>6.244701072568669</v>
       </c>
       <c r="I105" t="n">
-        <v>1.236136416377481</v>
+        <v>1.091643589129875</v>
       </c>
       <c r="J105" t="n">
-        <v>6.381596112533484</v>
+        <v>6.244701072568669</v>
       </c>
       <c r="K105" t="n">
-        <v>0.9067809180669112</v>
+        <v>0.825340113582115</v>
       </c>
     </row>
     <row r="106">
@@ -4130,34 +4130,34 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>6.394060684269098</v>
+        <v>6.258599560298659</v>
       </c>
       <c r="C106" t="n">
-        <v>1.439657641458967</v>
+        <v>1.423078906816737</v>
       </c>
       <c r="D106" t="n">
-        <v>6.542449963295828</v>
+        <v>6.374748181528891</v>
       </c>
       <c r="E106" t="n">
-        <v>1.081842095513375</v>
+        <v>1.224198795815848</v>
       </c>
       <c r="F106" t="n">
-        <v>6.542449963295828</v>
+        <v>6.374748181528891</v>
       </c>
       <c r="G106" t="n">
-        <v>0.7846251264905921</v>
+        <v>0.8244315144462578</v>
       </c>
       <c r="H106" t="n">
-        <v>6.394060684269098</v>
+        <v>6.258599560298659</v>
       </c>
       <c r="I106" t="n">
-        <v>1.224042241786476</v>
+        <v>1.117813222328423</v>
       </c>
       <c r="J106" t="n">
-        <v>6.394060684269098</v>
+        <v>6.258599560298659</v>
       </c>
       <c r="K106" t="n">
-        <v>0.8921402275503436</v>
+        <v>0.8126067219563672</v>
       </c>
     </row>
     <row r="107">
@@ -4165,34 +4165,34 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>6.406525256004712</v>
+        <v>6.272498048028648</v>
       </c>
       <c r="C107" t="n">
-        <v>1.420314032647972</v>
+        <v>1.453987387086654</v>
       </c>
       <c r="D107" t="n">
-        <v>6.553352542620635</v>
+        <v>6.388357277657551</v>
       </c>
       <c r="E107" t="n">
-        <v>1.06456614109354</v>
+        <v>1.234932892657616</v>
       </c>
       <c r="F107" t="n">
-        <v>6.553352542620635</v>
+        <v>6.388357277657551</v>
       </c>
       <c r="G107" t="n">
-        <v>0.7657922883470084</v>
+        <v>0.8143244921648428</v>
       </c>
       <c r="H107" t="n">
-        <v>6.406525256004712</v>
+        <v>6.272498048028648</v>
       </c>
       <c r="I107" t="n">
-        <v>1.211732268074754</v>
+        <v>1.141831982314289</v>
       </c>
       <c r="J107" t="n">
-        <v>6.406525256004712</v>
+        <v>6.272498048028648</v>
       </c>
       <c r="K107" t="n">
-        <v>0.8768157345456429</v>
+        <v>0.7991572836236295</v>
       </c>
     </row>
     <row r="108">
@@ -4200,34 +4200,34 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>6.418989827740326</v>
+        <v>6.286396535758638</v>
       </c>
       <c r="C108" t="n">
-        <v>1.399444733595042</v>
+        <v>1.4763052449269</v>
       </c>
       <c r="D108" t="n">
-        <v>6.564255121945441</v>
+        <v>6.401966373786212</v>
       </c>
       <c r="E108" t="n">
-        <v>1.047934797432229</v>
+        <v>1.243310294249728</v>
       </c>
       <c r="F108" t="n">
-        <v>6.564255121945441</v>
+        <v>6.401966373786212</v>
       </c>
       <c r="G108" t="n">
-        <v>0.7466884928456008</v>
+        <v>0.8042721052434709</v>
       </c>
       <c r="H108" t="n">
-        <v>6.418989827740326</v>
+        <v>6.286396535758638</v>
       </c>
       <c r="I108" t="n">
-        <v>1.199325979033677</v>
+        <v>1.163711339595361</v>
       </c>
       <c r="J108" t="n">
-        <v>6.418989827740326</v>
+        <v>6.286396535758638</v>
       </c>
       <c r="K108" t="n">
-        <v>0.86076922366556</v>
+        <v>0.7848608546555803</v>
       </c>
     </row>
     <row r="109">
@@ -4235,34 +4235,34 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>6.43145439947594</v>
+        <v>6.300295023488628</v>
       </c>
       <c r="C109" t="n">
-        <v>1.377199723944861</v>
+        <v>1.49123565661982</v>
       </c>
       <c r="D109" t="n">
-        <v>6.575157701270248</v>
+        <v>6.415575469914872</v>
       </c>
       <c r="E109" t="n">
-        <v>1.032056858744298</v>
+        <v>1.249291430000098</v>
       </c>
       <c r="F109" t="n">
-        <v>6.575157701270248</v>
+        <v>6.415575469914872</v>
       </c>
       <c r="G109" t="n">
-        <v>0.727335164087786</v>
+        <v>0.7937597802979535</v>
       </c>
       <c r="H109" t="n">
-        <v>6.43145439947594</v>
+        <v>6.300295023488628</v>
       </c>
       <c r="I109" t="n">
-        <v>1.186664918578399</v>
+        <v>1.183467739714461</v>
       </c>
       <c r="J109" t="n">
-        <v>6.43145439947594</v>
+        <v>6.300295023488628</v>
       </c>
       <c r="K109" t="n">
-        <v>0.844050485206492</v>
+        <v>0.7696271539582077</v>
       </c>
     </row>
     <row r="110">
@@ -4270,34 +4270,34 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>6.443918971211554</v>
+        <v>6.314193511218618</v>
       </c>
       <c r="C110" t="n">
-        <v>1.353433144608206</v>
+        <v>1.4990108048814</v>
       </c>
       <c r="D110" t="n">
-        <v>6.586060280595054</v>
+        <v>6.429184566043531</v>
       </c>
       <c r="E110" t="n">
-        <v>1.017082597459608</v>
+        <v>1.252732774373783</v>
       </c>
       <c r="F110" t="n">
-        <v>6.586060280595054</v>
+        <v>6.429184566043531</v>
       </c>
       <c r="G110" t="n">
-        <v>0.7077057826813625</v>
+        <v>0.7823924250873766</v>
       </c>
       <c r="H110" t="n">
-        <v>6.443918971211554</v>
+        <v>6.314193511218618</v>
       </c>
       <c r="I110" t="n">
-        <v>1.173803090919112</v>
+        <v>1.201069542102484</v>
       </c>
       <c r="J110" t="n">
-        <v>6.443918971211554</v>
+        <v>6.314193511218618</v>
       </c>
       <c r="K110" t="n">
-        <v>0.8265322169292676</v>
+        <v>0.7534587103147751</v>
       </c>
     </row>
     <row r="111">
@@ -4305,34 +4305,34 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>6.456383542947168</v>
+        <v>6.328091998948608</v>
       </c>
       <c r="C111" t="n">
-        <v>1.328370081188142</v>
+        <v>1.499836286791298</v>
       </c>
       <c r="D111" t="n">
-        <v>6.59696285991986</v>
+        <v>6.442793662172193</v>
       </c>
       <c r="E111" t="n">
-        <v>1.003016363401323</v>
+        <v>1.253544838741238</v>
       </c>
       <c r="F111" t="n">
-        <v>6.59696285991986</v>
+        <v>6.442793662172193</v>
       </c>
       <c r="G111" t="n">
-        <v>0.687813765241215</v>
+        <v>0.7697979818953286</v>
       </c>
       <c r="H111" t="n">
-        <v>6.456383542947168</v>
+        <v>6.328091998948608</v>
       </c>
       <c r="I111" t="n">
-        <v>1.160810120956318</v>
+        <v>1.216524669153531</v>
       </c>
       <c r="J111" t="n">
-        <v>6.456383542947168</v>
+        <v>6.328091998948608</v>
       </c>
       <c r="K111" t="n">
-        <v>0.8082407059903221</v>
+        <v>0.7364393818278892</v>
       </c>
     </row>
     <row r="112">
@@ -4340,34 +4340,34 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>6.468848114682782</v>
+        <v>6.341990486678597</v>
       </c>
       <c r="C112" t="n">
-        <v>1.30197961236749</v>
+        <v>1.495319437058325</v>
       </c>
       <c r="D112" t="n">
-        <v>6.607865439244666</v>
+        <v>6.456402758300852</v>
       </c>
       <c r="E112" t="n">
-        <v>0.989873345197816</v>
+        <v>1.251625749371076</v>
       </c>
       <c r="F112" t="n">
-        <v>6.607865439244666</v>
+        <v>6.456402758300852</v>
       </c>
       <c r="G112" t="n">
-        <v>0.6676856744929517</v>
+        <v>0.7557197522634911</v>
       </c>
       <c r="H112" t="n">
-        <v>6.468848114682782</v>
+        <v>6.341990486678597</v>
       </c>
       <c r="I112" t="n">
-        <v>1.147508141806606</v>
+        <v>1.229910812751824</v>
       </c>
       <c r="J112" t="n">
-        <v>6.468848114682782</v>
+        <v>6.341990486678597</v>
       </c>
       <c r="K112" t="n">
-        <v>0.7891789732937988</v>
+        <v>0.7185969127527448</v>
       </c>
     </row>
     <row r="113">
@@ -4375,34 +4375,34 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>6.481312686418395</v>
+        <v>6.355888974408587</v>
       </c>
       <c r="C113" t="n">
-        <v>1.274186292453735</v>
+        <v>1.485360284488383</v>
       </c>
       <c r="D113" t="n">
-        <v>6.618768018569472</v>
+        <v>6.470011854429512</v>
       </c>
       <c r="E113" t="n">
-        <v>0.977777038277732</v>
+        <v>1.247104272778709</v>
       </c>
       <c r="F113" t="n">
-        <v>6.618768018569472</v>
+        <v>6.470011854429512</v>
       </c>
       <c r="G113" t="n">
-        <v>0.6473111574028618</v>
+        <v>0.740101223189233</v>
       </c>
       <c r="H113" t="n">
-        <v>6.481312686418395</v>
+        <v>6.355888974408587</v>
       </c>
       <c r="I113" t="n">
-        <v>1.134107091480952</v>
+        <v>1.241126077834403</v>
       </c>
       <c r="J113" t="n">
-        <v>6.481312686418395</v>
+        <v>6.355888974408587</v>
       </c>
       <c r="K113" t="n">
-        <v>0.7693683895258208</v>
+        <v>0.70012097440197</v>
       </c>
     </row>
     <row r="114">
@@ -4410,34 +4410,34 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>6.49377725815401</v>
+        <v>6.369787462138577</v>
       </c>
       <c r="C114" t="n">
-        <v>1.244816188055695</v>
+        <v>1.47152794391643</v>
       </c>
       <c r="D114" t="n">
-        <v>6.629670597894279</v>
+        <v>6.483620950558173</v>
       </c>
       <c r="E114" t="n">
-        <v>0.9665591081473774</v>
+        <v>1.239936049320972</v>
       </c>
       <c r="F114" t="n">
-        <v>6.629670597894279</v>
+        <v>6.483620950558173</v>
       </c>
       <c r="G114" t="n">
-        <v>0.626698272688243</v>
+        <v>0.7228483660620776</v>
       </c>
       <c r="H114" t="n">
-        <v>6.49377725815401</v>
+        <v>6.369787462138577</v>
       </c>
       <c r="I114" t="n">
-        <v>1.120585526619343</v>
+        <v>1.250243041578146</v>
       </c>
       <c r="J114" t="n">
-        <v>6.49377725815401</v>
+        <v>6.369787462138577</v>
       </c>
       <c r="K114" t="n">
-        <v>0.7489196666293018</v>
+        <v>0.6812096978977152</v>
       </c>
     </row>
     <row r="115">
@@ -4445,34 +4445,34 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>6.506241829889623</v>
+        <v>6.383685949868567</v>
       </c>
       <c r="C115" t="n">
-        <v>1.214109106887542</v>
+        <v>1.454335570750492</v>
       </c>
       <c r="D115" t="n">
-        <v>6.640573177219085</v>
+        <v>6.497230046686833</v>
       </c>
       <c r="E115" t="n">
-        <v>0.9560162973661072</v>
+        <v>1.230280637315799</v>
       </c>
       <c r="F115" t="n">
-        <v>6.640573177219085</v>
+        <v>6.497230046686833</v>
       </c>
       <c r="G115" t="n">
-        <v>0.6059039555709511</v>
+        <v>0.7040648473337864</v>
       </c>
       <c r="H115" t="n">
-        <v>6.506241829889623</v>
+        <v>6.383685949868567</v>
       </c>
       <c r="I115" t="n">
-        <v>1.106993898763433</v>
+        <v>1.257256015918562</v>
       </c>
       <c r="J115" t="n">
-        <v>6.506241829889623</v>
+        <v>6.383685949868567</v>
       </c>
       <c r="K115" t="n">
-        <v>0.7278651212257679</v>
+        <v>0.662028469173108</v>
       </c>
     </row>
     <row r="116">
@@ -4480,34 +4480,34 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>6.518706401625237</v>
+        <v>6.397584437598557</v>
       </c>
       <c r="C116" t="n">
-        <v>1.182169575530613</v>
+        <v>1.434331230457844</v>
       </c>
       <c r="D116" t="n">
-        <v>6.651475756543891</v>
+        <v>6.510839142815493</v>
       </c>
       <c r="E116" t="n">
-        <v>0.9459706021819001</v>
+        <v>1.218333514637261</v>
       </c>
       <c r="F116" t="n">
-        <v>6.651475756543891</v>
+        <v>6.510839142815493</v>
       </c>
       <c r="G116" t="n">
-        <v>0.5849820589033408</v>
+        <v>0.6838474285603816</v>
       </c>
       <c r="H116" t="n">
-        <v>6.518706401625237</v>
+        <v>6.397584437598557</v>
       </c>
       <c r="I116" t="n">
-        <v>1.09355698944193</v>
+        <v>1.262005398507452</v>
       </c>
       <c r="J116" t="n">
-        <v>6.518706401625237</v>
+        <v>6.397584437598557</v>
       </c>
       <c r="K116" t="n">
-        <v>0.7062423621786059</v>
+        <v>0.6428149663305608</v>
       </c>
     </row>
     <row r="117">
@@ -4515,34 +4515,34 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>6.531170973360851</v>
+        <v>6.411482925328546</v>
       </c>
       <c r="C117" t="n">
-        <v>1.149126678311168</v>
+        <v>1.41229137155279</v>
       </c>
       <c r="D117" t="n">
-        <v>6.662378335868697</v>
+        <v>6.524448238944154</v>
       </c>
       <c r="E117" t="n">
-        <v>0.9363155305245003</v>
+        <v>1.204171355413914</v>
       </c>
       <c r="F117" t="n">
-        <v>6.662378335868697</v>
+        <v>6.524448238944154</v>
       </c>
       <c r="G117" t="n">
-        <v>0.5640017084007074</v>
+        <v>0.6625068426151804</v>
       </c>
       <c r="H117" t="n">
-        <v>6.531170973360851</v>
+        <v>6.411482925328546</v>
       </c>
       <c r="I117" t="n">
-        <v>1.08029498975989</v>
+        <v>1.264637566393574</v>
       </c>
       <c r="J117" t="n">
-        <v>6.531170973360851</v>
+        <v>6.411482925328546</v>
       </c>
       <c r="K117" t="n">
-        <v>0.6841514362253511</v>
+        <v>0.6237701347309911</v>
       </c>
     </row>
     <row r="118">
@@ -4550,34 +4550,34 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>6.543635545096465</v>
+        <v>6.425381413058536</v>
       </c>
       <c r="C118" t="n">
-        <v>1.11523684248035</v>
+        <v>1.388150172744169</v>
       </c>
       <c r="D118" t="n">
-        <v>6.673280915193503</v>
+        <v>6.538057335072814</v>
       </c>
       <c r="E118" t="n">
-        <v>0.9267857702010955</v>
+        <v>1.188224451090433</v>
       </c>
       <c r="F118" t="n">
-        <v>6.673280915193503</v>
+        <v>6.538057335072814</v>
       </c>
       <c r="G118" t="n">
-        <v>0.5430401381620154</v>
+        <v>0.6401597219105594</v>
       </c>
       <c r="H118" t="n">
-        <v>6.543635545096465</v>
+        <v>6.425381413058536</v>
       </c>
       <c r="I118" t="n">
-        <v>1.067399565623453</v>
+        <v>1.26479273133516</v>
       </c>
       <c r="J118" t="n">
-        <v>6.543635545096465</v>
+        <v>6.425381413058536</v>
       </c>
       <c r="K118" t="n">
-        <v>0.6616919705730269</v>
+        <v>0.6049811712562977</v>
       </c>
     </row>
     <row r="119">
@@ -4585,34 +4585,34 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>6.556100116832079</v>
+        <v>6.439279900788526</v>
       </c>
       <c r="C119" t="n">
-        <v>1.080938488474104</v>
+        <v>1.362416627378492</v>
       </c>
       <c r="D119" t="n">
-        <v>6.68418349451831</v>
+        <v>6.551666431201474</v>
       </c>
       <c r="E119" t="n">
-        <v>0.9171419661089694</v>
+        <v>1.17063698640102</v>
       </c>
       <c r="F119" t="n">
-        <v>6.68418349451831</v>
+        <v>6.551666431201474</v>
       </c>
       <c r="G119" t="n">
-        <v>0.5221712646629457</v>
+        <v>0.6171100293064733</v>
       </c>
       <c r="H119" t="n">
-        <v>6.556100116832079</v>
+        <v>6.439279900788526</v>
       </c>
       <c r="I119" t="n">
-        <v>1.054962157215829</v>
+        <v>1.262727722313903</v>
       </c>
       <c r="J119" t="n">
-        <v>6.556100116832079</v>
+        <v>6.439279900788526</v>
       </c>
       <c r="K119" t="n">
-        <v>0.6388774674169836</v>
+        <v>0.5866569641614119</v>
       </c>
     </row>
     <row r="120">
@@ -4620,34 +4620,34 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>6.568564688567693</v>
+        <v>6.453178388518515</v>
       </c>
       <c r="C120" t="n">
-        <v>1.046591098548255</v>
+        <v>1.334978271949361</v>
       </c>
       <c r="D120" t="n">
-        <v>6.695086073843116</v>
+        <v>6.565275527330135</v>
       </c>
       <c r="E120" t="n">
-        <v>0.9070790107529614</v>
+        <v>1.15166966804684</v>
       </c>
       <c r="F120" t="n">
-        <v>6.695086073843116</v>
+        <v>6.565275527330135</v>
       </c>
       <c r="G120" t="n">
-        <v>0.5014760780522175</v>
+        <v>0.593453366444933</v>
       </c>
       <c r="H120" t="n">
-        <v>6.568564688567693</v>
+        <v>6.453178388518515</v>
       </c>
       <c r="I120" t="n">
-        <v>1.043052230370664</v>
+        <v>1.258049889803832</v>
       </c>
       <c r="J120" t="n">
-        <v>6.568564688567693</v>
+        <v>6.453178388518515</v>
       </c>
       <c r="K120" t="n">
-        <v>0.6157461516200148</v>
+        <v>0.5687366911225173</v>
       </c>
     </row>
     <row r="121">
@@ -4655,34 +4655,34 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>6.581029260303307</v>
+        <v>6.467076876248505</v>
       </c>
       <c r="C121" t="n">
-        <v>1.012629916405115</v>
+        <v>1.305789422013024</v>
       </c>
       <c r="D121" t="n">
-        <v>6.705988653167922</v>
+        <v>6.578884623458794</v>
       </c>
       <c r="E121" t="n">
-        <v>0.8964375729549092</v>
+        <v>1.131705388571764</v>
       </c>
       <c r="F121" t="n">
-        <v>6.705988653167922</v>
+        <v>6.578884623458794</v>
       </c>
       <c r="G121" t="n">
-        <v>0.4810490439788486</v>
+        <v>0.5694176419237091</v>
       </c>
       <c r="H121" t="n">
-        <v>6.581029260303307</v>
+        <v>6.467076876248505</v>
       </c>
       <c r="I121" t="n">
-        <v>1.031763097513732</v>
+        <v>1.251023179377487</v>
       </c>
       <c r="J121" t="n">
-        <v>6.581029260303307</v>
+        <v>6.467076876248505</v>
       </c>
       <c r="K121" t="n">
-        <v>0.592345166244946</v>
+        <v>0.5512886466268464</v>
       </c>
     </row>
     <row r="122">
@@ -4690,34 +4690,34 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>6.593493832038921</v>
+        <v>6.480975363978494</v>
       </c>
       <c r="C122" t="n">
-        <v>0.9794918556235983</v>
+        <v>1.27497323469768</v>
       </c>
       <c r="D122" t="n">
-        <v>6.716891232492729</v>
+        <v>6.592493719587455</v>
       </c>
       <c r="E122" t="n">
-        <v>0.8850386972649916</v>
+        <v>1.110791678803428</v>
       </c>
       <c r="F122" t="n">
-        <v>6.716891232492729</v>
+        <v>6.592493719587455</v>
       </c>
       <c r="G122" t="n">
-        <v>0.4609567313764067</v>
+        <v>0.5451441835265048</v>
       </c>
       <c r="H122" t="n">
-        <v>6.593493832038921</v>
+        <v>6.480975363978494</v>
       </c>
       <c r="I122" t="n">
-        <v>1.021011339382202</v>
+        <v>1.241412176418558</v>
       </c>
       <c r="J122" t="n">
-        <v>6.593493832038921</v>
+        <v>6.480975363978494</v>
       </c>
       <c r="K122" t="n">
-        <v>0.5687106174697558</v>
+        <v>0.5342535233567406</v>
       </c>
     </row>
     <row r="123">
@@ -4725,34 +4725,34 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>6.605958403774535</v>
+        <v>6.494873851708484</v>
       </c>
       <c r="C123" t="n">
-        <v>0.9474501420792405</v>
+        <v>1.242156342699947</v>
       </c>
       <c r="D123" t="n">
-        <v>6.727793811817534</v>
+        <v>6.606102815716115</v>
       </c>
       <c r="E123" t="n">
-        <v>0.8727070581745828</v>
+        <v>1.089271216123915</v>
       </c>
       <c r="F123" t="n">
-        <v>6.727793811817534</v>
+        <v>6.606102815716115</v>
       </c>
       <c r="G123" t="n">
-        <v>0.4412065291419281</v>
+        <v>0.5206839513459258</v>
       </c>
       <c r="H123" t="n">
-        <v>6.605958403774535</v>
+        <v>6.494873851708484</v>
       </c>
       <c r="I123" t="n">
-        <v>1.010764794162835</v>
+        <v>1.229417148060857</v>
       </c>
       <c r="J123" t="n">
-        <v>6.605958403774535</v>
+        <v>6.494873851708484</v>
       </c>
       <c r="K123" t="n">
-        <v>0.544853352509614</v>
+        <v>0.5175472755860505</v>
       </c>
     </row>
     <row r="124">
@@ -4760,34 +4760,34 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>6.618422975510148</v>
+        <v>6.508772339438474</v>
       </c>
       <c r="C124" t="n">
-        <v>0.9167481085401055</v>
+        <v>1.207754056116385</v>
       </c>
       <c r="D124" t="n">
-        <v>6.738696391142341</v>
+        <v>6.619711911844775</v>
       </c>
       <c r="E124" t="n">
-        <v>0.8592727905502308</v>
+        <v>1.067331622127455</v>
       </c>
       <c r="F124" t="n">
-        <v>6.738696391142341</v>
+        <v>6.619711911844775</v>
       </c>
       <c r="G124" t="n">
-        <v>0.4218822430779328</v>
+        <v>0.4961679762946059</v>
       </c>
       <c r="H124" t="n">
-        <v>6.618422975510148</v>
+        <v>6.508772339438474</v>
       </c>
       <c r="I124" t="n">
-        <v>1.00088101568072</v>
+        <v>1.215089518519063</v>
       </c>
       <c r="J124" t="n">
-        <v>6.618422975510148</v>
+        <v>6.508772339438474</v>
       </c>
       <c r="K124" t="n">
-        <v>0.5208138537243415</v>
+        <v>0.5010731965969414</v>
       </c>
     </row>
     <row r="125">
@@ -4795,34 +4795,34 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>6.630887547245763</v>
+        <v>6.522670827168464</v>
       </c>
       <c r="C125" t="n">
-        <v>0.8877296645064188</v>
+        <v>1.171752932984968</v>
       </c>
       <c r="D125" t="n">
-        <v>6.749598970467147</v>
+        <v>6.633321007973436</v>
       </c>
       <c r="E125" t="n">
-        <v>0.8447144683560204</v>
+        <v>1.04496435520874</v>
       </c>
       <c r="F125" t="n">
-        <v>6.749598970467147</v>
+        <v>6.633321007973436</v>
       </c>
       <c r="G125" t="n">
-        <v>0.4029688525220355</v>
+        <v>0.4716705397608436</v>
       </c>
       <c r="H125" t="n">
-        <v>6.630887547245763</v>
+        <v>6.522670827168464</v>
       </c>
       <c r="I125" t="n">
-        <v>0.9910413762443928</v>
+        <v>1.198567809262679</v>
       </c>
       <c r="J125" t="n">
-        <v>6.630887547245763</v>
+        <v>6.522670827168464</v>
       </c>
       <c r="K125" t="n">
-        <v>0.4966886185970392</v>
+        <v>0.4847389161670011</v>
       </c>
     </row>
     <row r="126">
@@ -4830,34 +4830,34 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>6.643352118981376</v>
+        <v>6.536569314898454</v>
       </c>
       <c r="C126" t="n">
-        <v>0.8603804555026578</v>
+        <v>1.134500632445967</v>
       </c>
       <c r="D126" t="n">
-        <v>6.760501549791954</v>
+        <v>6.646930104102096</v>
       </c>
       <c r="E126" t="n">
-        <v>0.8290376671865133</v>
+        <v>1.022415929908709</v>
       </c>
       <c r="F126" t="n">
-        <v>6.760501549791954</v>
+        <v>6.646930104102096</v>
       </c>
       <c r="G126" t="n">
-        <v>0.3844061782955634</v>
+        <v>0.447270326742571</v>
       </c>
       <c r="H126" t="n">
-        <v>6.643352118981376</v>
+        <v>6.536569314898454</v>
       </c>
       <c r="I126" t="n">
-        <v>0.9811415200584397</v>
+        <v>1.180076994337996</v>
       </c>
       <c r="J126" t="n">
-        <v>6.643352118981376</v>
+        <v>6.536569314898454</v>
       </c>
       <c r="K126" t="n">
-        <v>0.4724960169364542</v>
+        <v>0.4684200975467674</v>
       </c>
     </row>
     <row r="127">
@@ -4865,34 +4865,34 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>6.65581669071699</v>
+        <v>6.550467802628443</v>
       </c>
       <c r="C127" t="n">
-        <v>0.8345727034415049</v>
+        <v>1.09648084302947</v>
       </c>
       <c r="D127" t="n">
-        <v>6.771404129116759</v>
+        <v>6.660539200230756</v>
       </c>
       <c r="E127" t="n">
-        <v>0.8121058220923636</v>
+        <v>0.9996905183773001</v>
       </c>
       <c r="F127" t="n">
-        <v>6.771404129116759</v>
+        <v>6.660539200230756</v>
       </c>
       <c r="G127" t="n">
-        <v>0.3662271707627714</v>
+        <v>0.423035751242582</v>
       </c>
       <c r="H127" t="n">
-        <v>6.65581669071699</v>
+        <v>6.550467802628443</v>
       </c>
       <c r="I127" t="n">
-        <v>0.9706925140698974</v>
+        <v>1.159904349397907</v>
       </c>
       <c r="J127" t="n">
-        <v>6.65581669071699</v>
+        <v>6.550467802628443</v>
       </c>
       <c r="K127" t="n">
-        <v>0.4483618319339884</v>
+        <v>0.4520083006334397</v>
       </c>
     </row>
     <row r="128">
@@ -4900,34 +4900,34 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>6.668281262452604</v>
+        <v>6.564366290358434</v>
       </c>
       <c r="C128" t="n">
-        <v>0.810194906063842</v>
+        <v>1.058152215664542</v>
       </c>
       <c r="D128" t="n">
-        <v>6.782306708441566</v>
+        <v>6.674148296359416</v>
       </c>
       <c r="E128" t="n">
-        <v>0.7940619562297178</v>
+        <v>0.9767857699140974</v>
       </c>
       <c r="F128" t="n">
-        <v>6.782306708441566</v>
+        <v>6.674148296359416</v>
       </c>
       <c r="G128" t="n">
-        <v>0.348343298084918</v>
+        <v>0.3991665528340751</v>
       </c>
       <c r="H128" t="n">
-        <v>6.668281262452604</v>
+        <v>6.564366290358434</v>
       </c>
       <c r="I128" t="n">
-        <v>0.9594862381875249</v>
+        <v>1.138189483595756</v>
       </c>
       <c r="J128" t="n">
-        <v>6.668281262452604</v>
+        <v>6.564366290358434</v>
       </c>
       <c r="K128" t="n">
-        <v>0.424386604875079</v>
+        <v>0.4354260916364518</v>
       </c>
     </row>
     <row r="129">
@@ -4935,34 +4935,34 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>6.680745834188218</v>
+        <v>6.578264778088423</v>
       </c>
       <c r="C129" t="n">
-        <v>0.7872303695289108</v>
+        <v>1.020106502602195</v>
       </c>
       <c r="D129" t="n">
-        <v>6.793209287766372</v>
+        <v>6.687757392488076</v>
       </c>
       <c r="E129" t="n">
-        <v>0.7750136295433095</v>
+        <v>0.9537742059040033</v>
       </c>
       <c r="F129" t="n">
-        <v>6.793209287766372</v>
+        <v>6.687757392488076</v>
       </c>
       <c r="G129" t="n">
-        <v>0.330681452333891</v>
+        <v>0.3757171809667776</v>
       </c>
       <c r="H129" t="n">
-        <v>6.680745834188218</v>
+        <v>6.578264778088423</v>
       </c>
       <c r="I129" t="n">
-        <v>0.9471316823421914</v>
+        <v>1.115440209227799</v>
       </c>
       <c r="J129" t="n">
-        <v>6.680745834188218</v>
+        <v>6.578264778088423</v>
       </c>
       <c r="K129" t="n">
-        <v>0.4006925572730641</v>
+        <v>0.4186982676339392</v>
       </c>
     </row>
     <row r="130">
@@ -4970,34 +4970,34 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>6.693210405923832</v>
+        <v>6.592163265818413</v>
       </c>
       <c r="C130" t="n">
-        <v>0.7653004813349296</v>
+        <v>0.9829682322984157</v>
       </c>
       <c r="D130" t="n">
-        <v>6.804111867091178</v>
+        <v>6.701366488616737</v>
       </c>
       <c r="E130" t="n">
-        <v>0.7549372254973018</v>
+        <v>0.9306985217170188</v>
       </c>
       <c r="F130" t="n">
-        <v>6.804111867091178</v>
+        <v>6.701366488616737</v>
       </c>
       <c r="G130" t="n">
-        <v>0.3132465212716702</v>
+        <v>0.3528316640973226</v>
       </c>
       <c r="H130" t="n">
-        <v>6.693210405923832</v>
+        <v>6.592163265818413</v>
       </c>
       <c r="I130" t="n">
-        <v>0.9334297014783657</v>
+        <v>1.09168885306414</v>
       </c>
       <c r="J130" t="n">
-        <v>6.693210405923832</v>
+        <v>6.592163265818413</v>
       </c>
       <c r="K130" t="n">
-        <v>0.3774409488762971</v>
+        <v>0.401758893656692</v>
       </c>
     </row>
     <row r="131">
@@ -5005,34 +5005,34 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>6.705674977659446</v>
+        <v>6.606061753548403</v>
       </c>
       <c r="C131" t="n">
-        <v>0.7441584827123248</v>
+        <v>0.9471884083352891</v>
       </c>
       <c r="D131" t="n">
-        <v>6.815014446415985</v>
+        <v>6.714975584745397</v>
       </c>
       <c r="E131" t="n">
-        <v>0.7338062425109697</v>
+        <v>0.9074509199963293</v>
       </c>
       <c r="F131" t="n">
-        <v>6.815014446415985</v>
+        <v>6.714975584745397</v>
       </c>
       <c r="G131" t="n">
-        <v>0.2959569387073514</v>
+        <v>0.3306188700828732</v>
       </c>
       <c r="H131" t="n">
-        <v>6.705674977659446</v>
+        <v>6.606061753548403</v>
       </c>
       <c r="I131" t="n">
-        <v>0.9180357549326885</v>
+        <v>1.067431615138892</v>
       </c>
       <c r="J131" t="n">
-        <v>6.705674977659446</v>
+        <v>6.606061753548403</v>
       </c>
       <c r="K131" t="n">
-        <v>0.3546682039124947</v>
+        <v>0.3845810544075265</v>
       </c>
     </row>
     <row r="132">
@@ -5040,34 +5040,34 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>6.71813954939506</v>
+        <v>6.619960241278392</v>
       </c>
       <c r="C132" t="n">
-        <v>0.7236121954112248</v>
+        <v>0.9130694366248271</v>
       </c>
       <c r="D132" t="n">
-        <v>6.82591702574079</v>
+        <v>6.728584680874057</v>
       </c>
       <c r="E132" t="n">
-        <v>0.7117760872570948</v>
+        <v>0.8840814879101088</v>
       </c>
       <c r="F132" t="n">
-        <v>6.82591702574079</v>
+        <v>6.728584680874057</v>
       </c>
       <c r="G132" t="n">
-        <v>0.2787750043786749</v>
+        <v>0.3092389325412042</v>
       </c>
       <c r="H132" t="n">
-        <v>6.71813954939506</v>
+        <v>6.619960241278392</v>
       </c>
       <c r="I132" t="n">
-        <v>0.9009281554472367</v>
+        <v>1.042766722491663</v>
       </c>
       <c r="J132" t="n">
-        <v>6.71813954939506</v>
+        <v>6.619960241278392</v>
       </c>
       <c r="K132" t="n">
-        <v>0.3325407261414736</v>
+        <v>0.3672766286727759</v>
       </c>
     </row>
     <row r="133">
@@ -5075,34 +5075,34 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>6.730604121130674</v>
+        <v>6.633858729008383</v>
       </c>
       <c r="C133" t="n">
-        <v>0.7035630042677959</v>
+        <v>0.881103556658384</v>
       </c>
       <c r="D133" t="n">
-        <v>6.836819605065597</v>
+        <v>6.742193777002718</v>
       </c>
       <c r="E133" t="n">
-        <v>0.6889519207842805</v>
+        <v>0.8606644330983716</v>
       </c>
       <c r="F133" t="n">
-        <v>6.836819605065597</v>
+        <v>6.742193777002718</v>
       </c>
       <c r="G133" t="n">
-        <v>0.2617170377698874</v>
+        <v>0.288727406395333</v>
       </c>
       <c r="H133" t="n">
-        <v>6.730604121130674</v>
+        <v>6.633858729008383</v>
       </c>
       <c r="I133" t="n">
-        <v>0.8819621903177498</v>
+        <v>1.017987825447754</v>
       </c>
       <c r="J133" t="n">
-        <v>6.730604121130674</v>
+        <v>6.633858729008383</v>
       </c>
       <c r="K133" t="n">
-        <v>0.3110732476624571</v>
+        <v>0.3499226855556991</v>
       </c>
     </row>
     <row r="134">
@@ -5110,34 +5110,34 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>6.743068692866288</v>
+        <v>6.647757216738372</v>
       </c>
       <c r="C134" t="n">
-        <v>0.6838339429806984</v>
+        <v>0.85101719938386</v>
       </c>
       <c r="D134" t="n">
-        <v>6.847722184390403</v>
+        <v>6.755802873131378</v>
       </c>
       <c r="E134" t="n">
-        <v>0.6652983650933189</v>
+        <v>0.836980955186454</v>
       </c>
       <c r="F134" t="n">
-        <v>6.847722184390403</v>
+        <v>6.755802873131378</v>
       </c>
       <c r="G134" t="n">
-        <v>0.2447405150986472</v>
+        <v>0.2691772409568825</v>
       </c>
       <c r="H134" t="n">
-        <v>6.743068692866288</v>
+        <v>6.647757216738372</v>
       </c>
       <c r="I134" t="n">
-        <v>0.8612419289024743</v>
+        <v>0.993262618350628</v>
       </c>
       <c r="J134" t="n">
-        <v>6.743068692866288</v>
+        <v>6.647757216738372</v>
       </c>
       <c r="K134" t="n">
-        <v>0.2904706514585831</v>
+        <v>0.3325319325832674</v>
       </c>
     </row>
     <row r="135">
@@ -5145,34 +5145,34 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>6.755533264601901</v>
+        <v>6.661655704468362</v>
       </c>
       <c r="C135" t="n">
-        <v>0.6643989528389631</v>
+        <v>0.8230052672472882</v>
       </c>
       <c r="D135" t="n">
-        <v>6.858624763715209</v>
+        <v>6.769411969260038</v>
       </c>
       <c r="E135" t="n">
-        <v>0.6408803143000299</v>
+        <v>0.8132419190315177</v>
       </c>
       <c r="F135" t="n">
-        <v>6.858624763715209</v>
+        <v>6.769411969260038</v>
       </c>
       <c r="G135" t="n">
-        <v>0.2279255711534693</v>
+        <v>0.2506470986068271</v>
       </c>
       <c r="H135" t="n">
-        <v>6.755533264601901</v>
+        <v>6.661655704468362</v>
       </c>
       <c r="I135" t="n">
-        <v>0.8388515896575012</v>
+        <v>0.9687145413283322</v>
       </c>
       <c r="J135" t="n">
-        <v>6.755533264601901</v>
+        <v>6.661655704468362</v>
       </c>
       <c r="K135" t="n">
-        <v>0.270630216997702</v>
+        <v>0.3152810596331789</v>
       </c>
     </row>
     <row r="136">
@@ -5180,34 +5180,34 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>6.767997836337516</v>
+        <v>6.675554192198351</v>
       </c>
       <c r="C136" t="n">
-        <v>0.6453010805253304</v>
+        <v>0.7966928836440973</v>
       </c>
       <c r="D136" t="n">
-        <v>6.869527343040016</v>
+        <v>6.783021065388699</v>
       </c>
       <c r="E136" t="n">
-        <v>0.6156962039333366</v>
+        <v>0.789293926072634</v>
       </c>
       <c r="F136" t="n">
-        <v>6.869527343040016</v>
+        <v>6.783021065388699</v>
       </c>
       <c r="G136" t="n">
-        <v>0.2113494309264815</v>
+        <v>0.2330914289233268</v>
       </c>
       <c r="H136" t="n">
-        <v>6.767997836337516</v>
+        <v>6.675554192198351</v>
       </c>
       <c r="I136" t="n">
-        <v>0.8150058334167227</v>
+        <v>0.9444447502090552</v>
       </c>
       <c r="J136" t="n">
-        <v>6.767997836337516</v>
+        <v>6.675554192198351</v>
       </c>
       <c r="K136" t="n">
-        <v>0.2516474318056399</v>
+        <v>0.2981898753359848</v>
       </c>
     </row>
     <row r="137">
@@ -5215,34 +5215,34 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>6.780462408073129</v>
+        <v>6.689452679928341</v>
       </c>
       <c r="C137" t="n">
-        <v>0.6266907048167351</v>
+        <v>0.7717763722526788</v>
       </c>
       <c r="D137" t="n">
-        <v>6.880429922364822</v>
+        <v>6.796630161517358</v>
       </c>
       <c r="E137" t="n">
-        <v>0.5898706212201104</v>
+        <v>0.7651552443389309</v>
       </c>
       <c r="F137" t="n">
-        <v>6.880429922364822</v>
+        <v>6.796630161517358</v>
       </c>
       <c r="G137" t="n">
-        <v>0.1950392310420102</v>
+        <v>0.2165130850942463</v>
       </c>
       <c r="H137" t="n">
-        <v>6.780462408073129</v>
+        <v>6.689452679928341</v>
       </c>
       <c r="I137" t="n">
-        <v>0.7898809004972962</v>
+        <v>0.9204969308684454</v>
       </c>
       <c r="J137" t="n">
-        <v>6.780462408073129</v>
+        <v>6.689452679928341</v>
       </c>
       <c r="K137" t="n">
-        <v>0.2334469576879351</v>
+        <v>0.2814659876984155</v>
       </c>
     </row>
     <row r="138">
@@ -5250,34 +5250,34 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>6.792926979808743</v>
+        <v>6.703351167658331</v>
       </c>
       <c r="C138" t="n">
-        <v>0.6086473030628933</v>
+        <v>0.7480555251846086</v>
       </c>
       <c r="D138" t="n">
-        <v>6.891332501689628</v>
+        <v>6.810239257646018</v>
       </c>
       <c r="E138" t="n">
-        <v>0.5634601527029703</v>
+        <v>0.7408742166899919</v>
       </c>
       <c r="F138" t="n">
-        <v>6.891332501689628</v>
+        <v>6.810239257646018</v>
       </c>
       <c r="G138" t="n">
-        <v>0.1790861461770726</v>
+        <v>0.2009072049390903</v>
       </c>
       <c r="H138" t="n">
-        <v>6.792926979808743</v>
+        <v>6.703351167658331</v>
       </c>
       <c r="I138" t="n">
-        <v>0.7638019550892915</v>
+        <v>0.8968340189746381</v>
       </c>
       <c r="J138" t="n">
-        <v>6.792926979808743</v>
+        <v>6.703351167658331</v>
       </c>
       <c r="K138" t="n">
-        <v>0.216096898536176</v>
+        <v>0.2651211250583337</v>
       </c>
     </row>
     <row r="139">
@@ -5285,34 +5285,34 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>6.805391551544357</v>
+        <v>6.71724965538832</v>
       </c>
       <c r="C139" t="n">
-        <v>0.591312014080597</v>
+        <v>0.7250725125620524</v>
       </c>
       <c r="D139" t="n">
-        <v>6.902235081014434</v>
+        <v>6.823848353774679</v>
       </c>
       <c r="E139" t="n">
-        <v>0.5365929451540228</v>
+        <v>0.7163682543346482</v>
       </c>
       <c r="F139" t="n">
-        <v>6.902235081014434</v>
+        <v>6.823848353774679</v>
       </c>
       <c r="G139" t="n">
-        <v>0.1635954479136097</v>
+        <v>0.186218008480159</v>
       </c>
       <c r="H139" t="n">
-        <v>6.805391551544357</v>
+        <v>6.71724965538832</v>
       </c>
       <c r="I139" t="n">
-        <v>0.7369117824592266</v>
+        <v>0.8735083930284092</v>
       </c>
       <c r="J139" t="n">
-        <v>6.805391551544357</v>
+        <v>6.71724965538832</v>
       </c>
       <c r="K139" t="n">
-        <v>0.1994955528717289</v>
+        <v>0.249262289674665</v>
       </c>
     </row>
     <row r="140">
@@ -5320,34 +5320,34 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>6.817856123279971</v>
+        <v>6.73114814311831</v>
       </c>
       <c r="C140" t="n">
-        <v>0.574874195380308</v>
+        <v>0.7026976044421723</v>
       </c>
       <c r="D140" t="n">
-        <v>6.91313766033924</v>
+        <v>6.837457449903339</v>
       </c>
       <c r="E140" t="n">
-        <v>0.5093993541388823</v>
+        <v>0.6917200776768705</v>
       </c>
       <c r="F140" t="n">
-        <v>6.91313766033924</v>
+        <v>6.837457449903339</v>
       </c>
       <c r="G140" t="n">
-        <v>0.148694052194024</v>
+        <v>0.1723451042174129</v>
       </c>
       <c r="H140" t="n">
-        <v>6.817856123279971</v>
+        <v>6.73114814311831</v>
       </c>
       <c r="I140" t="n">
-        <v>0.7094805050613452</v>
+        <v>0.8502525856975464</v>
       </c>
       <c r="J140" t="n">
-        <v>6.817856123279971</v>
+        <v>6.73114814311831</v>
       </c>
       <c r="K140" t="n">
-        <v>0.183677326596661</v>
+        <v>0.2340126203318576</v>
       </c>
     </row>
     <row r="141">
@@ -5355,34 +5355,34 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>6.830320695015585</v>
+        <v>6.7450466308483</v>
       </c>
       <c r="C141" t="n">
-        <v>0.5595112985523377</v>
+        <v>0.6807258348286029</v>
       </c>
       <c r="D141" t="n">
-        <v>6.924040239664047</v>
+        <v>6.851066546031999</v>
       </c>
       <c r="E141" t="n">
-        <v>0.482028460593041</v>
+        <v>0.6669105510420952</v>
       </c>
       <c r="F141" t="n">
-        <v>6.924040239664047</v>
+        <v>6.851066546031999</v>
       </c>
       <c r="G141" t="n">
-        <v>0.1344384115701271</v>
+        <v>0.1592732782120275</v>
       </c>
       <c r="H141" t="n">
-        <v>6.830320695015585</v>
+        <v>6.7450466308483</v>
       </c>
       <c r="I141" t="n">
-        <v>0.6816120169370213</v>
+        <v>0.8271686547068337</v>
       </c>
       <c r="J141" t="n">
-        <v>6.830320695015585</v>
+        <v>6.7450466308483</v>
       </c>
       <c r="K141" t="n">
-        <v>0.1685300061598891</v>
+        <v>0.2193559821375518</v>
       </c>
     </row>
     <row r="142">
@@ -5390,34 +5390,34 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>6.842785266751199</v>
+        <v>6.75894511857829</v>
       </c>
       <c r="C142" t="n">
-        <v>0.5451679862403952</v>
+        <v>0.6591328284715394</v>
       </c>
       <c r="D142" t="n">
-        <v>6.934942818988853</v>
+        <v>6.86467564216066</v>
       </c>
       <c r="E142" t="n">
-        <v>0.4546638440717364</v>
+        <v>0.6420063163860023</v>
       </c>
       <c r="F142" t="n">
-        <v>6.934942818988853</v>
+        <v>6.86467564216066</v>
       </c>
       <c r="G142" t="n">
-        <v>0.1209032609816294</v>
+        <v>0.146946299204661</v>
       </c>
       <c r="H142" t="n">
-        <v>6.842785266751199</v>
+        <v>6.75894511857829</v>
       </c>
       <c r="I142" t="n">
-        <v>0.6534263962717795</v>
+        <v>0.8038971216687356</v>
       </c>
       <c r="J142" t="n">
-        <v>6.842785266751199</v>
+        <v>6.75894511857829</v>
       </c>
       <c r="K142" t="n">
-        <v>0.1541386644195797</v>
+        <v>0.2053336126024308</v>
       </c>
     </row>
     <row r="143">
@@ -5425,34 +5425,34 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>6.855249838486813</v>
+        <v>6.77284360630828</v>
       </c>
       <c r="C143" t="n">
-        <v>0.5318277609713402</v>
+        <v>0.6380254295673268</v>
       </c>
       <c r="D143" t="n">
-        <v>6.94584539831366</v>
+        <v>6.87828473828932</v>
       </c>
       <c r="E143" t="n">
-        <v>0.4275152618070334</v>
+        <v>0.617029417692012</v>
       </c>
       <c r="F143" t="n">
-        <v>6.94584539831366</v>
+        <v>6.87828473828932</v>
       </c>
       <c r="G143" t="n">
-        <v>0.1081820452780284</v>
+        <v>0.1352750921059259</v>
       </c>
       <c r="H143" t="n">
-        <v>6.855249838486813</v>
+        <v>6.77284360630828</v>
       </c>
       <c r="I143" t="n">
-        <v>0.6249811631674694</v>
+        <v>0.7804590149016114</v>
       </c>
       <c r="J143" t="n">
-        <v>6.855249838486813</v>
+        <v>6.77284360630828</v>
       </c>
       <c r="K143" t="n">
-        <v>0.1403538689428264</v>
+        <v>0.1919625103014754</v>
       </c>
     </row>
     <row r="144">
@@ -5460,34 +5460,34 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>6.867714410222427</v>
+        <v>6.786742094038269</v>
       </c>
       <c r="C144" t="n">
-        <v>0.5194700599997634</v>
+        <v>0.6174802743067881</v>
       </c>
       <c r="D144" t="n">
-        <v>6.956747977638465</v>
+        <v>6.891893834417981</v>
       </c>
       <c r="E144" t="n">
-        <v>0.4008219163844305</v>
+        <v>0.592051351587058</v>
       </c>
       <c r="F144" t="n">
-        <v>6.956747977638465</v>
+        <v>6.891893834417981</v>
       </c>
       <c r="G144" t="n">
-        <v>0.09633357746765298</v>
+        <v>0.1242517455987816</v>
       </c>
       <c r="H144" t="n">
-        <v>6.867714410222427</v>
+        <v>6.786742094038269</v>
       </c>
       <c r="I144" t="n">
-        <v>0.596241431954932</v>
+        <v>0.7566058287785772</v>
       </c>
       <c r="J144" t="n">
-        <v>6.867714410222427</v>
+        <v>6.786742094038269</v>
       </c>
       <c r="K144" t="n">
-        <v>0.1272889451722715</v>
+        <v>0.1791858965699316</v>
       </c>
     </row>
     <row r="145">
@@ -5495,34 +5495,34 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>6.880178981958041</v>
+        <v>6.800640581768259</v>
       </c>
       <c r="C145" t="n">
-        <v>0.5078934102729383</v>
+        <v>0.5978360041011813</v>
       </c>
       <c r="D145" t="n">
-        <v>6.967650556963272</v>
+        <v>6.905502930546641</v>
       </c>
       <c r="E145" t="n">
-        <v>0.3747495299083087</v>
+        <v>0.5671413505850227</v>
       </c>
       <c r="F145" t="n">
-        <v>6.967650556963272</v>
+        <v>6.905502930546641</v>
       </c>
       <c r="G145" t="n">
-        <v>0.08538025201253627</v>
+        <v>0.1138115127184168</v>
       </c>
       <c r="H145" t="n">
-        <v>6.880178981958041</v>
+        <v>6.800640581768259</v>
       </c>
       <c r="I145" t="n">
-        <v>0.5672377463021794</v>
+        <v>0.7322727160174494</v>
       </c>
       <c r="J145" t="n">
-        <v>6.880178981958041</v>
+        <v>6.800640581768259</v>
       </c>
       <c r="K145" t="n">
-        <v>0.1149007127947935</v>
+        <v>0.1669573943177559</v>
       </c>
     </row>
     <row r="146">
@@ -5530,34 +5530,34 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>6.892643553693654</v>
+        <v>6.814539069498249</v>
       </c>
       <c r="C146" t="n">
-        <v>0.4967825212970223</v>
+        <v>0.5791816976801313</v>
       </c>
       <c r="D146" t="n">
-        <v>6.978553136288077</v>
+        <v>6.9191120266753</v>
       </c>
       <c r="E146" t="n">
-        <v>0.3494322935585008</v>
+        <v>0.5423414545062876</v>
       </c>
       <c r="F146" t="n">
-        <v>6.978553136288077</v>
+        <v>6.9191120266753</v>
       </c>
       <c r="G146" t="n">
-        <v>0.07533797749135641</v>
+        <v>0.1039226530175845</v>
       </c>
       <c r="H146" t="n">
-        <v>6.892643553693654</v>
+        <v>6.814539069498249</v>
       </c>
       <c r="I146" t="n">
-        <v>0.5379240902068562</v>
+        <v>0.7073411635920385</v>
       </c>
       <c r="J146" t="n">
-        <v>6.892643553693654</v>
+        <v>6.814539069498249</v>
       </c>
       <c r="K146" t="n">
-        <v>0.1032206167464373</v>
+        <v>0.1552586495972875</v>
       </c>
     </row>
     <row r="147">
@@ -5565,34 +5565,34 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>6.905108125429269</v>
+        <v>6.828437557228238</v>
       </c>
       <c r="C147" t="n">
-        <v>0.4858530449980866</v>
+        <v>0.5617399715059781</v>
       </c>
       <c r="D147" t="n">
-        <v>6.989455715612884</v>
+        <v>6.932721122803961</v>
       </c>
       <c r="E147" t="n">
-        <v>0.3250223948800453</v>
+        <v>0.5177681166011404</v>
       </c>
       <c r="F147" t="n">
-        <v>6.989455715612884</v>
+        <v>6.932721122803961</v>
       </c>
       <c r="G147" t="n">
-        <v>0.06620141753101635</v>
+        <v>0.09454034789154087</v>
       </c>
       <c r="H147" t="n">
-        <v>6.905108125429269</v>
+        <v>6.828437557228238</v>
       </c>
       <c r="I147" t="n">
-        <v>0.5082872354279412</v>
+        <v>0.6817839340166213</v>
       </c>
       <c r="J147" t="n">
-        <v>6.905108125429269</v>
+        <v>6.828437557228238</v>
       </c>
       <c r="K147" t="n">
-        <v>0.09224431037178674</v>
+        <v>0.1439870184657724</v>
       </c>
     </row>
     <row r="148">
@@ -5600,34 +5600,34 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>6.917572697164882</v>
+        <v>6.842336044958229</v>
       </c>
       <c r="C148" t="n">
-        <v>0.4747378931392969</v>
+        <v>0.5456688464009006</v>
       </c>
       <c r="D148" t="n">
-        <v>7.000358294937691</v>
+        <v>6.946330218932621</v>
       </c>
       <c r="E148" t="n">
-        <v>0.3016992544943269</v>
+        <v>0.4934433692510218</v>
       </c>
       <c r="F148" t="n">
-        <v>7.000358294937691</v>
+        <v>6.946330218932621</v>
       </c>
       <c r="G148" t="n">
-        <v>0.05795113887385278</v>
+        <v>0.0856692577949057</v>
       </c>
       <c r="H148" t="n">
-        <v>6.917572697164882</v>
+        <v>6.842336044958229</v>
       </c>
       <c r="I148" t="n">
-        <v>0.4783930841643879</v>
+        <v>0.6556178647533399</v>
       </c>
       <c r="J148" t="n">
-        <v>6.917572697164882</v>
+        <v>6.842336044958229</v>
       </c>
       <c r="K148" t="n">
-        <v>0.08203534583671934</v>
+        <v>0.1331157299086642</v>
       </c>
     </row>
     <row r="149">
@@ -5635,34 +5635,34 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>6.930037268900496</v>
+        <v>6.856234532688218</v>
       </c>
       <c r="C149" t="n">
-        <v>0.4630645322214969</v>
+        <v>0.5307937447012855</v>
       </c>
       <c r="D149" t="n">
-        <v>7.011260874262496</v>
+        <v>6.959939315061281</v>
       </c>
       <c r="E149" t="n">
-        <v>0.2794382034088562</v>
+        <v>0.469389210070853</v>
       </c>
       <c r="F149" t="n">
-        <v>7.011260874262496</v>
+        <v>6.959939315061281</v>
       </c>
       <c r="G149" t="n">
-        <v>0.05057140227605408</v>
+        <v>0.07727708752175505</v>
       </c>
       <c r="H149" t="n">
-        <v>6.930037268900496</v>
+        <v>6.856234532688218</v>
       </c>
       <c r="I149" t="n">
-        <v>0.4482659772742894</v>
+        <v>0.6289051085747595</v>
       </c>
       <c r="J149" t="n">
-        <v>6.930037268900496</v>
+        <v>6.856234532688218</v>
       </c>
       <c r="K149" t="n">
-        <v>0.07261260499081992</v>
+        <v>0.1225722590932917</v>
       </c>
     </row>
     <row r="150">
@@ -5670,34 +5670,34 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>6.94250184063611</v>
+        <v>6.870133020418208</v>
       </c>
       <c r="C150" t="n">
-        <v>0.4505427670394427</v>
+        <v>0.5171954629232748</v>
       </c>
       <c r="D150" t="n">
-        <v>7.022163453587303</v>
+        <v>6.973548411189942</v>
       </c>
       <c r="E150" t="n">
-        <v>0.2582985358012951</v>
+        <v>0.44571766943991</v>
       </c>
       <c r="F150" t="n">
-        <v>7.022163453587303</v>
+        <v>6.973548411189942</v>
       </c>
       <c r="G150" t="n">
-        <v>0.04403877621868514</v>
+        <v>0.06933759451662681</v>
       </c>
       <c r="H150" t="n">
-        <v>6.94250184063611</v>
+        <v>6.870133020418208</v>
       </c>
       <c r="I150" t="n">
-        <v>0.4180621631125779</v>
+        <v>0.6017564743094493</v>
       </c>
       <c r="J150" t="n">
-        <v>6.94250184063611</v>
+        <v>6.870133020418208</v>
       </c>
       <c r="K150" t="n">
-        <v>0.06396964211593949</v>
+        <v>0.1123402813495358</v>
       </c>
     </row>
     <row r="151">
@@ -5705,34 +5705,34 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>6.954966412371724</v>
+        <v>6.884031508148198</v>
       </c>
       <c r="C151" t="n">
-        <v>0.4369089690993825</v>
+        <v>0.504414688099787</v>
       </c>
       <c r="D151" t="n">
-        <v>7.033066032912108</v>
+        <v>6.987157507318602</v>
       </c>
       <c r="E151" t="n">
-        <v>0.2382914308054127</v>
+        <v>0.4223774895897273</v>
       </c>
       <c r="F151" t="n">
-        <v>7.033066032912108</v>
+        <v>6.987157507318602</v>
       </c>
       <c r="G151" t="n">
-        <v>0.03824077307050317</v>
+        <v>0.06185411047535713</v>
       </c>
       <c r="H151" t="n">
-        <v>6.954966412371724</v>
+        <v>6.884031508148198</v>
       </c>
       <c r="I151" t="n">
-        <v>0.38793681778001</v>
+        <v>0.5743472683433338</v>
       </c>
       <c r="J151" t="n">
-        <v>6.954966412371724</v>
+        <v>6.884031508148198</v>
       </c>
       <c r="K151" t="n">
-        <v>0.05616904609618671</v>
+        <v>0.1024015682929791</v>
       </c>
     </row>
     <row r="152">
@@ -5740,34 +5740,34 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>6.967430984107338</v>
+        <v>6.897929995878187</v>
       </c>
       <c r="C152" t="n">
-        <v>0.4217428728036856</v>
+        <v>0.4921365578234013</v>
       </c>
       <c r="D152" t="n">
-        <v>7.043968612236915</v>
+        <v>7.000766603447262</v>
       </c>
       <c r="E152" t="n">
-        <v>0.2193401641247769</v>
+        <v>0.3994186840973697</v>
       </c>
       <c r="F152" t="n">
-        <v>7.043968612236915</v>
+        <v>7.000766603447262</v>
       </c>
       <c r="G152" t="n">
-        <v>0.03313807675559745</v>
+        <v>0.05483292454019706</v>
       </c>
       <c r="H152" t="n">
-        <v>6.967430984107338</v>
+        <v>6.897929995878187</v>
       </c>
       <c r="I152" t="n">
-        <v>0.3581049920510062</v>
+        <v>0.5468444720297841</v>
       </c>
       <c r="J152" t="n">
-        <v>6.967430984107338</v>
+        <v>6.897929995878187</v>
       </c>
       <c r="K152" t="n">
-        <v>0.04917752209587506</v>
+        <v>0.09274628881758719</v>
       </c>
     </row>
     <row r="153">
@@ -5775,34 +5775,34 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>6.979895555842952</v>
+        <v>6.911828483608177</v>
       </c>
       <c r="C153" t="n">
-        <v>0.405045782800353</v>
+        <v>0.4798941013721068</v>
       </c>
       <c r="D153" t="n">
-        <v>7.054871191561721</v>
+        <v>7.014375699575922</v>
       </c>
       <c r="E153" t="n">
-        <v>0.2013609382799321</v>
+        <v>0.3768454967325472</v>
       </c>
       <c r="F153" t="n">
-        <v>7.054871191561721</v>
+        <v>7.014375699575922</v>
       </c>
       <c r="G153" t="n">
-        <v>0.02869103875322863</v>
+        <v>0.04827594817968317</v>
       </c>
       <c r="H153" t="n">
-        <v>6.979895555842952</v>
+        <v>6.911828483608177</v>
       </c>
       <c r="I153" t="n">
-        <v>0.3287755443888066</v>
+        <v>0.5194586318936661</v>
       </c>
       <c r="J153" t="n">
-        <v>6.979895555842952</v>
+        <v>6.911828483608177</v>
       </c>
       <c r="K153" t="n">
-        <v>0.04296539887415739</v>
+        <v>0.08343480201748237</v>
       </c>
     </row>
     <row r="154">
@@ -5810,34 +5810,34 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>6.992360127578566</v>
+        <v>6.925726971338166</v>
       </c>
       <c r="C154" t="n">
-        <v>0.3868106765464358</v>
+        <v>0.4672386123883334</v>
       </c>
       <c r="D154" t="n">
-        <v>7.065773770886528</v>
+        <v>7.027984795704583</v>
       </c>
       <c r="E154" t="n">
-        <v>0.1843183339843167</v>
+        <v>0.3546748125306891</v>
       </c>
       <c r="F154" t="n">
-        <v>7.065773770886528</v>
+        <v>7.027984795704583</v>
       </c>
       <c r="G154" t="n">
-        <v>0.02480636438025692</v>
+        <v>0.04216951710730075</v>
       </c>
       <c r="H154" t="n">
-        <v>6.992360127578566</v>
+        <v>6.925726971338166</v>
       </c>
       <c r="I154" t="n">
-        <v>0.3002443165099697</v>
+        <v>0.4923903697517997</v>
       </c>
       <c r="J154" t="n">
-        <v>6.992360127578566</v>
+        <v>6.925726971338166</v>
       </c>
       <c r="K154" t="n">
-        <v>0.03753988131689651</v>
+        <v>0.07449267129130321</v>
       </c>
     </row>
     <row r="155">
@@ -5845,34 +5845,34 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>7.00482469931418</v>
+        <v>6.939625459068156</v>
       </c>
       <c r="C155" t="n">
-        <v>0.3670646650833513</v>
+        <v>0.4535162903471285</v>
       </c>
       <c r="D155" t="n">
-        <v>7.076676350211334</v>
+        <v>7.041593891833243</v>
       </c>
       <c r="E155" t="n">
-        <v>0.168225454099674</v>
+        <v>0.3329197596102461</v>
       </c>
       <c r="F155" t="n">
-        <v>7.076676350211334</v>
+        <v>7.041593891833243</v>
       </c>
       <c r="G155" t="n">
-        <v>0.0214265357582381</v>
+        <v>0.03654786440541423</v>
       </c>
       <c r="H155" t="n">
-        <v>7.00482469931418</v>
+        <v>6.939625459068156</v>
       </c>
       <c r="I155" t="n">
-        <v>0.272658261642799</v>
+        <v>0.4657948730818243</v>
       </c>
       <c r="J155" t="n">
-        <v>7.00482469931418</v>
+        <v>6.939625459068156</v>
       </c>
       <c r="K155" t="n">
-        <v>0.03283928781103195</v>
+        <v>0.06598215184607298</v>
       </c>
     </row>
     <row r="156">
@@ -5880,34 +5880,34 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>7.017289271049794</v>
+        <v>6.953523946798146</v>
       </c>
       <c r="C156" t="n">
-        <v>0.345690850458663</v>
+        <v>0.4385141441528551</v>
       </c>
       <c r="D156" t="n">
-        <v>7.08757892953614</v>
+        <v>7.055202987961904</v>
       </c>
       <c r="E156" t="n">
-        <v>0.1529146381338812</v>
+        <v>0.3115756506796299</v>
       </c>
       <c r="F156" t="n">
-        <v>7.08757892953614</v>
+        <v>7.055202987961904</v>
       </c>
       <c r="G156" t="n">
-        <v>0.0185211835683684</v>
+        <v>0.03140222048323931</v>
       </c>
       <c r="H156" t="n">
-        <v>7.017289271049794</v>
+        <v>6.953523946798146</v>
       </c>
       <c r="I156" t="n">
-        <v>0.2463372360431955</v>
+        <v>0.4398582136336007</v>
       </c>
       <c r="J156" t="n">
-        <v>7.017289271049794</v>
+        <v>6.953523946798146</v>
       </c>
       <c r="K156" t="n">
-        <v>0.02880729448004883</v>
+        <v>0.0579438674308227</v>
       </c>
     </row>
     <row r="157">
@@ -5915,34 +5915,34 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>7.029753842785408</v>
+        <v>6.967422434528135</v>
       </c>
       <c r="C157" t="n">
-        <v>0.3231275194821083</v>
+        <v>0.4217538074446393</v>
       </c>
       <c r="D157" t="n">
-        <v>7.098481508860946</v>
+        <v>7.068812084090563</v>
       </c>
       <c r="E157" t="n">
-        <v>0.1383441666732817</v>
+        <v>0.2907505539784879</v>
       </c>
       <c r="F157" t="n">
-        <v>7.098481508860946</v>
+        <v>7.068812084090563</v>
       </c>
       <c r="G157" t="n">
-        <v>0.01600977595926236</v>
+        <v>0.02673294031575453</v>
       </c>
       <c r="H157" t="n">
-        <v>7.029753842785408</v>
+        <v>6.967422434528135</v>
       </c>
       <c r="I157" t="n">
-        <v>0.221344131836685</v>
+        <v>0.4146571903128584</v>
       </c>
       <c r="J157" t="n">
-        <v>7.029753842785408</v>
+        <v>6.967422434528135</v>
       </c>
       <c r="K157" t="n">
-        <v>0.02537588008376864</v>
+        <v>0.05041641474589951</v>
       </c>
     </row>
     <row r="158">
@@ -5950,34 +5950,34 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>7.042218414521022</v>
+        <v>6.981320922258126</v>
       </c>
       <c r="C158" t="n">
-        <v>0.2996091787489064</v>
+        <v>0.4030459210808707</v>
       </c>
       <c r="D158" t="n">
-        <v>7.109384088185752</v>
+        <v>7.082421180219224</v>
       </c>
       <c r="E158" t="n">
-        <v>0.1244948965885402</v>
+        <v>0.2704398567645455</v>
       </c>
       <c r="F158" t="n">
-        <v>7.109384088185752</v>
+        <v>7.082421180219224</v>
       </c>
       <c r="G158" t="n">
-        <v>0.01382666891301738</v>
+        <v>0.02254142557724227</v>
       </c>
       <c r="H158" t="n">
-        <v>7.042218414521022</v>
+        <v>6.981320922258126</v>
       </c>
       <c r="I158" t="n">
-        <v>0.1979115316734998</v>
+        <v>0.3902656883161766</v>
       </c>
       <c r="J158" t="n">
-        <v>7.042218414521022</v>
+        <v>6.981320922258126</v>
       </c>
       <c r="K158" t="n">
-        <v>0.02247440691534427</v>
+        <v>0.04349349610451472</v>
       </c>
     </row>
     <row r="159">
@@ -5985,34 +5985,34 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>7.054682986256635</v>
+        <v>6.995219409988115</v>
       </c>
       <c r="C159" t="n">
-        <v>0.2754006436259399</v>
+        <v>0.3824788369422605</v>
       </c>
       <c r="D159" t="n">
-        <v>7.120286667510559</v>
+        <v>7.096030276347884</v>
       </c>
       <c r="E159" t="n">
-        <v>0.1113929112018417</v>
+        <v>0.2506794841209948</v>
       </c>
       <c r="F159" t="n">
-        <v>7.120286667510559</v>
+        <v>7.096030276347884</v>
       </c>
       <c r="G159" t="n">
-        <v>0.01194068314381195</v>
+        <v>0.01882750381941552</v>
       </c>
       <c r="H159" t="n">
-        <v>7.054682986256635</v>
+        <v>6.995219409988115</v>
       </c>
       <c r="I159" t="n">
-        <v>0.1760111617229974</v>
+        <v>0.3667242668085812</v>
       </c>
       <c r="J159" t="n">
-        <v>7.054682986256635</v>
+        <v>6.995219409988115</v>
       </c>
       <c r="K159" t="n">
-        <v>0.02003363198812471</v>
+        <v>0.03717262893395074</v>
       </c>
     </row>
     <row r="160">
@@ -6020,34 +6020,34 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>7.06714755799225</v>
+        <v>7.009117897718105</v>
       </c>
       <c r="C160" t="n">
-        <v>0.2508218106873888</v>
+        <v>0.3597768197488831</v>
       </c>
       <c r="D160" t="n">
-        <v>7.131189246835365</v>
+        <v>7.109639372476544</v>
       </c>
       <c r="E160" t="n">
-        <v>0.09902868917940595</v>
+        <v>0.2316111123081982</v>
       </c>
       <c r="F160" t="n">
-        <v>7.131189246835365</v>
+        <v>7.109639372476544</v>
       </c>
       <c r="G160" t="n">
-        <v>0.01030378796710479</v>
+        <v>0.01556401909172528</v>
       </c>
       <c r="H160" t="n">
-        <v>7.06714755799225</v>
+        <v>7.009117897718105</v>
       </c>
       <c r="I160" t="n">
-        <v>0.1557820336588376</v>
+        <v>0.3440020123702572</v>
       </c>
       <c r="J160" t="n">
-        <v>7.06714755799225</v>
+        <v>7.009117897718105</v>
       </c>
       <c r="K160" t="n">
-        <v>0.01795238087402978</v>
+        <v>0.03149252564438369</v>
       </c>
     </row>
     <row r="161">
@@ -6055,34 +6055,34 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>7.079612129727863</v>
+        <v>7.023016385448095</v>
       </c>
       <c r="C161" t="n">
-        <v>0.2262843192010465</v>
+        <v>0.3354914784889526</v>
       </c>
       <c r="D161" t="n">
-        <v>7.142091826160171</v>
+        <v>7.123248468605205</v>
       </c>
       <c r="E161" t="n">
-        <v>0.08738933080114197</v>
+        <v>0.2132458109054491</v>
       </c>
       <c r="F161" t="n">
-        <v>7.142091826160171</v>
+        <v>7.123248468605205</v>
       </c>
       <c r="G161" t="n">
-        <v>0.008879121895179021</v>
+        <v>0.01272625108820276</v>
       </c>
       <c r="H161" t="n">
-        <v>7.079612129727863</v>
+        <v>7.023016385448095</v>
       </c>
       <c r="I161" t="n">
-        <v>0.137169324127782</v>
+        <v>0.3220781825251856</v>
       </c>
       <c r="J161" t="n">
-        <v>7.079612129727863</v>
+        <v>7.023016385448095</v>
       </c>
       <c r="K161" t="n">
-        <v>0.01616149578212574</v>
+        <v>0.02645831751193868</v>
       </c>
     </row>
     <row r="162">
@@ -6090,34 +6090,34 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>7.092076701463477</v>
+        <v>7.036914873178085</v>
       </c>
       <c r="C162" t="n">
-        <v>0.2021155214092225</v>
+        <v>0.3097294889491347</v>
       </c>
       <c r="D162" t="n">
-        <v>7.152994405484978</v>
+        <v>7.136857564733864</v>
       </c>
       <c r="E162" t="n">
-        <v>0.0764951284598346</v>
+        <v>0.1956318741914536</v>
       </c>
       <c r="F162" t="n">
-        <v>7.152994405484978</v>
+        <v>7.136857564733864</v>
       </c>
       <c r="G162" t="n">
-        <v>0.007636443531234219</v>
+        <v>0.01030251971119415</v>
       </c>
       <c r="H162" t="n">
-        <v>7.092076701463477</v>
+        <v>7.036914873178085</v>
       </c>
       <c r="I162" t="n">
-        <v>0.1201342370527522</v>
+        <v>0.3009072612237986</v>
       </c>
       <c r="J162" t="n">
-        <v>7.092076701463477</v>
+        <v>7.036914873178085</v>
       </c>
       <c r="K162" t="n">
-        <v>0.014598531235101</v>
+        <v>0.02205765254780898</v>
       </c>
     </row>
     <row r="163">
@@ -6125,34 +6125,34 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>7.104541273199091</v>
+        <v>7.050813360908075</v>
       </c>
       <c r="C163" t="n">
-        <v>0.1786921130730629</v>
+        <v>0.2829495100003039</v>
       </c>
       <c r="D163" t="n">
-        <v>7.163896984809783</v>
+        <v>7.150466660862525</v>
       </c>
       <c r="E163" t="n">
-        <v>0.06638087007890209</v>
+        <v>0.1788672142510074</v>
       </c>
       <c r="F163" t="n">
-        <v>7.163896984809783</v>
+        <v>7.150466660862525</v>
       </c>
       <c r="G163" t="n">
-        <v>0.006551455304794962</v>
+        <v>0.008246873542527332</v>
       </c>
       <c r="H163" t="n">
-        <v>7.104541273199091</v>
+        <v>7.050813360908075</v>
       </c>
       <c r="I163" t="n">
-        <v>0.1046445379039662</v>
+        <v>0.2804009737856618</v>
       </c>
       <c r="J163" t="n">
-        <v>7.104541273199091</v>
+        <v>7.050813360908075</v>
       </c>
       <c r="K163" t="n">
-        <v>0.01322917828964891</v>
+        <v>0.01826115853100137</v>
       </c>
     </row>
     <row r="164">
@@ -6160,34 +6160,34 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>7.117005844934705</v>
+        <v>7.064711848638064</v>
       </c>
       <c r="C164" t="n">
-        <v>0.1564258777418617</v>
+        <v>0.2556324125768374</v>
       </c>
       <c r="D164" t="n">
-        <v>7.17479956413459</v>
+        <v>7.164075756991185</v>
       </c>
       <c r="E164" t="n">
-        <v>0.05709124355319302</v>
+        <v>0.1629621839390316</v>
       </c>
       <c r="F164" t="n">
-        <v>7.17479956413459</v>
+        <v>7.164075756991185</v>
       </c>
       <c r="G164" t="n">
-        <v>0.005603968057978784</v>
+        <v>0.006532864906120285</v>
       </c>
       <c r="H164" t="n">
-        <v>7.117005844934705</v>
+        <v>7.064711848638064</v>
       </c>
       <c r="I164" t="n">
-        <v>0.09059036898238652</v>
+        <v>0.2605626257545293</v>
       </c>
       <c r="J164" t="n">
-        <v>7.117005844934705</v>
+        <v>7.064711848638064</v>
       </c>
       <c r="K164" t="n">
-        <v>0.01197242994371132</v>
+        <v>0.01501844295608428</v>
       </c>
     </row>
     <row r="165">
@@ -6195,34 +6195,34 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>7.129470416670319</v>
+        <v>7.078610336368054</v>
       </c>
       <c r="C165" t="n">
-        <v>0.1354882424868228</v>
+        <v>0.2282483520099999</v>
       </c>
       <c r="D165" t="n">
-        <v>7.185702143459396</v>
+        <v>7.177684853119845</v>
       </c>
       <c r="E165" t="n">
-        <v>0.04863464623651795</v>
+        <v>0.1479740087552184</v>
       </c>
       <c r="F165" t="n">
-        <v>7.185702143459396</v>
+        <v>7.177684853119845</v>
       </c>
       <c r="G165" t="n">
-        <v>0.004809413152510347</v>
+        <v>0.005123710689775876</v>
       </c>
       <c r="H165" t="n">
-        <v>7.129470416670319</v>
+        <v>7.078610336368054</v>
       </c>
       <c r="I165" t="n">
-        <v>0.07791003361745787</v>
+        <v>0.2413216670743409</v>
       </c>
       <c r="J165" t="n">
-        <v>7.129470416670319</v>
+        <v>7.078610336368054</v>
       </c>
       <c r="K165" t="n">
-        <v>0.01079402787255508</v>
+        <v>0.01231292670033008</v>
       </c>
     </row>
     <row r="166">
@@ -6230,34 +6230,34 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>7.141934988405933</v>
+        <v>7.092508824098044</v>
       </c>
       <c r="C166" t="n">
-        <v>0.1160986471896552</v>
+        <v>0.2012825017191006</v>
       </c>
       <c r="D166" t="n">
-        <v>7.196604722784202</v>
+        <v>7.191293949248506</v>
       </c>
       <c r="E166" t="n">
-        <v>0.04100533415807341</v>
+        <v>0.1338631429735187</v>
       </c>
       <c r="F166" t="n">
-        <v>7.196604722784202</v>
+        <v>7.191293949248506</v>
       </c>
       <c r="G166" t="n">
-        <v>0.004129007038519402</v>
+        <v>0.003980262233611595</v>
       </c>
       <c r="H166" t="n">
-        <v>7.141934988405933</v>
+        <v>7.092508824098044</v>
       </c>
       <c r="I166" t="n">
-        <v>0.06653514404378325</v>
+        <v>0.2226645269974136</v>
       </c>
       <c r="J166" t="n">
-        <v>7.141934988405933</v>
+        <v>7.092508824098044</v>
       </c>
       <c r="K166" t="n">
-        <v>0.009679010669093066</v>
+        <v>0.01004241351684758</v>
       </c>
     </row>
     <row r="167">
@@ -6265,34 +6265,34 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>7.154399560141547</v>
+        <v>7.106407311828034</v>
       </c>
       <c r="C167" t="n">
-        <v>0.09858872509663298</v>
+        <v>0.1753160255258359</v>
       </c>
       <c r="D167" t="n">
-        <v>7.207507302109009</v>
+        <v>7.204903045377166</v>
       </c>
       <c r="E167" t="n">
-        <v>0.03418824974917912</v>
+        <v>0.1207115739510434</v>
       </c>
       <c r="F167" t="n">
-        <v>7.207507302109009</v>
+        <v>7.204903045377166</v>
       </c>
       <c r="G167" t="n">
-        <v>0.003544943122991238</v>
+        <v>0.003053404975900504</v>
       </c>
       <c r="H167" t="n">
-        <v>7.154399560141547</v>
+        <v>7.106407311828034</v>
       </c>
       <c r="I167" t="n">
-        <v>0.05635421986608696</v>
+        <v>0.2046404047923402</v>
       </c>
       <c r="J167" t="n">
-        <v>7.154399560141547</v>
+        <v>7.106407311828034</v>
       </c>
       <c r="K167" t="n">
-        <v>0.00861932797108728</v>
+        <v>0.008182716934420306</v>
       </c>
     </row>
     <row r="168">
@@ -6300,34 +6300,34 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>7.16686413187716</v>
+        <v>7.120305799558023</v>
       </c>
       <c r="C168" t="n">
-        <v>0.08309647678965421</v>
+        <v>0.1507291932790029</v>
       </c>
       <c r="D168" t="n">
-        <v>7.218409881433815</v>
+        <v>7.218512141505826</v>
       </c>
       <c r="E168" t="n">
-        <v>0.02821659202857211</v>
+        <v>0.1084403633414072</v>
       </c>
       <c r="F168" t="n">
-        <v>7.218409881433815</v>
+        <v>7.218512141505826</v>
       </c>
       <c r="G168" t="n">
-        <v>0.003034997728804289</v>
+        <v>0.00232056251387236</v>
       </c>
       <c r="H168" t="n">
-        <v>7.16686413187716</v>
+        <v>7.120305799558023</v>
       </c>
       <c r="I168" t="n">
-        <v>0.04733004156862023</v>
+        <v>0.187213800719005</v>
       </c>
       <c r="J168" t="n">
-        <v>7.16686413187716</v>
+        <v>7.120305799558023</v>
       </c>
       <c r="K168" t="n">
-        <v>0.007621979194329697</v>
+        <v>0.006675417382873954</v>
       </c>
     </row>
     <row r="169">
@@ -6335,34 +6335,34 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>7.179328703612775</v>
+        <v>7.134204287288012</v>
       </c>
       <c r="C169" t="n">
-        <v>0.06951899554586494</v>
+        <v>0.1278654552862423</v>
       </c>
       <c r="D169" t="n">
-        <v>7.229312460758621</v>
+        <v>7.232121237634487</v>
       </c>
       <c r="E169" t="n">
-        <v>0.02303027523848538</v>
+        <v>0.09704798319937606</v>
       </c>
       <c r="F169" t="n">
-        <v>7.229312460758621</v>
+        <v>7.232121237634487</v>
       </c>
       <c r="G169" t="n">
-        <v>0.002584834693181161</v>
+        <v>0.001762073496148643</v>
       </c>
       <c r="H169" t="n">
-        <v>7.179328703612775</v>
+        <v>7.134204287288012</v>
       </c>
       <c r="I169" t="n">
-        <v>0.0393752596672421</v>
+        <v>0.170479928636317</v>
       </c>
       <c r="J169" t="n">
-        <v>7.179328703612775</v>
+        <v>7.134204287288012</v>
       </c>
       <c r="K169" t="n">
-        <v>0.00669633558579078</v>
+        <v>0.005442849111166056</v>
       </c>
     </row>
     <row r="170">
@@ -6370,34 +6370,34 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>7.191793275348388</v>
+        <v>7.148102775018002</v>
       </c>
       <c r="C170" t="n">
-        <v>0.05785067846688129</v>
+        <v>0.1072796791720361</v>
       </c>
       <c r="D170" t="n">
-        <v>7.240215040083427</v>
+        <v>7.245730333763147</v>
       </c>
       <c r="E170" t="n">
-        <v>0.01855435995386555</v>
+        <v>0.08655457319631028</v>
       </c>
       <c r="F170" t="n">
-        <v>7.240215040083427</v>
+        <v>7.245730333763147</v>
       </c>
       <c r="G170" t="n">
-        <v>0.002190565102110202</v>
+        <v>0.001332827458663242</v>
       </c>
       <c r="H170" t="n">
-        <v>7.191793275348388</v>
+        <v>7.148102775018002</v>
       </c>
       <c r="I170" t="n">
-        <v>0.03241020232154334</v>
+        <v>0.1544794912357278</v>
       </c>
       <c r="J170" t="n">
-        <v>7.191793275348388</v>
+        <v>7.148102775018002</v>
       </c>
       <c r="K170" t="n">
-        <v>0.005823585727328029</v>
+        <v>0.004458165907503125</v>
       </c>
     </row>
     <row r="171">
@@ -6405,34 +6405,34 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>7.204257847084003</v>
+        <v>7.162001262747992</v>
       </c>
       <c r="C171" t="n">
-        <v>0.04823363589890088</v>
+        <v>0.08884162320571196</v>
       </c>
       <c r="D171" t="n">
-        <v>7.251117619408234</v>
+        <v>7.259339429891806</v>
       </c>
       <c r="E171" t="n">
-        <v>0.01475013400472288</v>
+        <v>0.07684778635458006</v>
       </c>
       <c r="F171" t="n">
-        <v>7.251117619408234</v>
+        <v>7.259339429891806</v>
       </c>
       <c r="G171" t="n">
-        <v>0.001848224724155055</v>
+        <v>0.001013298124089453</v>
       </c>
       <c r="H171" t="n">
-        <v>7.204257847084003</v>
+        <v>7.162001262747992</v>
       </c>
       <c r="I171" t="n">
-        <v>0.02639892653445265</v>
+        <v>0.1392114360917445</v>
       </c>
       <c r="J171" t="n">
-        <v>7.204257847084003</v>
+        <v>7.162001262747992</v>
       </c>
       <c r="K171" t="n">
-        <v>0.005006655620329639</v>
+        <v>0.003664267209057829</v>
       </c>
     </row>
     <row r="172">
@@ -6440,34 +6440,34 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>7.216722418819616</v>
+        <v>7.175899750477982</v>
       </c>
       <c r="C172" t="n">
-        <v>0.04043060174017064</v>
+        <v>0.07304229231718083</v>
       </c>
       <c r="D172" t="n">
-        <v>7.262020198733039</v>
+        <v>7.272948526020468</v>
       </c>
       <c r="E172" t="n">
-        <v>0.0116178313168893</v>
+        <v>0.06796814464585005</v>
       </c>
       <c r="F172" t="n">
-        <v>7.262020198733039</v>
+        <v>7.272948526020468</v>
       </c>
       <c r="G172" t="n">
-        <v>0.001554383706896726</v>
+        <v>0.0007801487385737551</v>
       </c>
       <c r="H172" t="n">
-        <v>7.216722418819616</v>
+        <v>7.175899750477982</v>
       </c>
       <c r="I172" t="n">
-        <v>0.02124458519738363</v>
+        <v>0.124845982994253</v>
       </c>
       <c r="J172" t="n">
-        <v>7.216722418819616</v>
+        <v>7.175899750477982</v>
       </c>
       <c r="K172" t="n">
-        <v>0.004253501153259075</v>
+        <v>0.003024617524644435</v>
       </c>
     </row>
     <row r="173">
@@ -6475,34 +6475,34 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>7.229186990555231</v>
+        <v>7.189798238207972</v>
       </c>
       <c r="C173" t="n">
-        <v>0.0341804180825647</v>
+        <v>0.05964869449329113</v>
       </c>
       <c r="D173" t="n">
-        <v>7.272922778057846</v>
+        <v>7.286557622149127</v>
       </c>
       <c r="E173" t="n">
-        <v>0.009028102849267704</v>
+        <v>0.05986337278238558</v>
       </c>
       <c r="F173" t="n">
-        <v>7.272922778057846</v>
+        <v>7.286557622149127</v>
       </c>
       <c r="G173" t="n">
-        <v>0.001307613108262189</v>
+        <v>0.0006067454649123932</v>
       </c>
       <c r="H173" t="n">
-        <v>7.229186990555231</v>
+        <v>7.189798238207972</v>
       </c>
       <c r="I173" t="n">
-        <v>0.01687464852117718</v>
+        <v>0.111277556177516</v>
       </c>
       <c r="J173" t="n">
-        <v>7.229186990555231</v>
+        <v>7.189798238207972</v>
       </c>
       <c r="K173" t="n">
-        <v>0.00357069056234791</v>
+        <v>0.002506198187011597</v>
       </c>
     </row>
     <row r="174">
@@ -6510,34 +6510,34 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>7.241651562290844</v>
+        <v>7.203696725937961</v>
       </c>
       <c r="C174" t="n">
-        <v>0.02929955409891722</v>
+        <v>0.04860572717101116</v>
       </c>
       <c r="D174" t="n">
-        <v>7.283825357382652</v>
+        <v>7.300166718277787</v>
       </c>
       <c r="E174" t="n">
-        <v>0.00691136022977055</v>
+        <v>0.05246439815081095</v>
       </c>
       <c r="F174" t="n">
-        <v>7.283825357382652</v>
+        <v>7.300166718277787</v>
       </c>
       <c r="G174" t="n">
-        <v>0.001099615713670008</v>
+        <v>0.0004762488072505856</v>
       </c>
       <c r="H174" t="n">
-        <v>7.241651562290844</v>
+        <v>7.203696725937961</v>
       </c>
       <c r="I174" t="n">
-        <v>0.01324632509132027</v>
+        <v>0.09868500411245464</v>
       </c>
       <c r="J174" t="n">
-        <v>7.241651562290844</v>
+        <v>7.203696725937961</v>
       </c>
       <c r="K174" t="n">
-        <v>0.002971012472387418</v>
+        <v>0.002096541517718346</v>
       </c>
     </row>
     <row r="175">
@@ -6545,34 +6545,34 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>7.254116134026458</v>
+        <v>7.217595213667951</v>
       </c>
       <c r="C175" t="n">
-        <v>0.02572164744064687</v>
+        <v>0.03994582970004593</v>
       </c>
       <c r="D175" t="n">
-        <v>7.294727936707458</v>
+        <v>7.313775814406448</v>
       </c>
       <c r="E175" t="n">
-        <v>0.005231235158195682</v>
+        <v>0.04576562261333169</v>
       </c>
       <c r="F175" t="n">
-        <v>7.294727936707458</v>
+        <v>7.313775814406448</v>
       </c>
       <c r="G175" t="n">
-        <v>0.0009262134008494835</v>
+        <v>0.0003795749110494396</v>
       </c>
       <c r="H175" t="n">
-        <v>7.254116134026458</v>
+        <v>7.217595213667951</v>
       </c>
       <c r="I175" t="n">
-        <v>0.01023959612495861</v>
+        <v>0.08697672914637154</v>
       </c>
       <c r="J175" t="n">
-        <v>7.254116134026458</v>
+        <v>7.217595213667951</v>
       </c>
       <c r="K175" t="n">
-        <v>0.002460088419180165</v>
+        <v>0.001795900202228856</v>
       </c>
     </row>
     <row r="176">
@@ -6580,34 +6580,34 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>7.266580705762072</v>
+        <v>7.231493701397941</v>
       </c>
       <c r="C176" t="n">
-        <v>0.02307126840143547</v>
+        <v>0.03312505789606362</v>
       </c>
       <c r="D176" t="n">
-        <v>7.305630516032265</v>
+        <v>7.327384910535108</v>
       </c>
       <c r="E176" t="n">
-        <v>0.003906604436580074</v>
+        <v>0.03972072808564293</v>
       </c>
       <c r="F176" t="n">
-        <v>7.305630516032265</v>
+        <v>7.327384910535108</v>
       </c>
       <c r="G176" t="n">
-        <v>0.0007833059082896943</v>
+        <v>0.0003134295403168594</v>
       </c>
       <c r="H176" t="n">
-        <v>7.266580705762072</v>
+        <v>7.231493701397941</v>
       </c>
       <c r="I176" t="n">
-        <v>0.007814510663756772</v>
+        <v>0.07619767735947876</v>
       </c>
       <c r="J176" t="n">
-        <v>7.266580705762072</v>
+        <v>7.231493701397941</v>
       </c>
       <c r="K176" t="n">
-        <v>0.002020455331836151</v>
+        <v>0.001538147955978224</v>
       </c>
     </row>
     <row r="177">
@@ -6615,34 +6615,34 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>7.279045277497686</v>
+        <v>7.245392189127931</v>
       </c>
       <c r="C177" t="n">
-        <v>0.02110937706664308</v>
+        <v>0.0281622892885475</v>
       </c>
       <c r="D177" t="n">
-        <v>7.316533095357071</v>
+        <v>7.340994006663768</v>
       </c>
       <c r="E177" t="n">
-        <v>0.002871981064164071</v>
+        <v>0.03427016804065561</v>
       </c>
       <c r="F177" t="n">
-        <v>7.316533095357071</v>
+        <v>7.340994006663768</v>
       </c>
       <c r="G177" t="n">
-        <v>0.0006669362837503607</v>
+        <v>0.0002855769136739056</v>
       </c>
       <c r="H177" t="n">
-        <v>7.279045277497686</v>
+        <v>7.245392189127931</v>
       </c>
       <c r="I177" t="n">
-        <v>0.005890383178811549</v>
+        <v>0.0663421146198863</v>
       </c>
       <c r="J177" t="n">
-        <v>7.279045277497686</v>
+        <v>7.245392189127931</v>
       </c>
       <c r="K177" t="n">
-        <v>0.001649163787848473</v>
+        <v>0.00131901061694938</v>
       </c>
     </row>
     <row r="178">
@@ -6650,34 +6650,34 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>7.2915098492333</v>
+        <v>7.259290676857921</v>
       </c>
       <c r="C178" t="n">
-        <v>0.01964279776936066</v>
+        <v>0.02452071931202663</v>
       </c>
       <c r="D178" t="n">
-        <v>7.327435674681877</v>
+        <v>7.354603102792428</v>
       </c>
       <c r="E178" t="n">
-        <v>0.002084298275285832</v>
+        <v>0.0294195225417112</v>
       </c>
       <c r="F178" t="n">
-        <v>7.327435674681877</v>
+        <v>7.354603102792428</v>
       </c>
       <c r="G178" t="n">
-        <v>0.0005733531247691141</v>
+        <v>0.0002733239182988772</v>
       </c>
       <c r="H178" t="n">
-        <v>7.2915098492333</v>
+        <v>7.259290676857921</v>
       </c>
       <c r="I178" t="n">
-        <v>0.004392794440057983</v>
+        <v>0.0573612808996438</v>
       </c>
       <c r="J178" t="n">
-        <v>7.2915098492333</v>
+        <v>7.259290676857921</v>
       </c>
       <c r="K178" t="n">
-        <v>0.001341460788594486</v>
+        <v>0.001150084079842156</v>
       </c>
     </row>
     <row r="179">
@@ -6685,34 +6685,34 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>7.303974420968914</v>
+        <v>7.27318916458791</v>
       </c>
       <c r="C179" t="n">
-        <v>0.0185287670366403</v>
+        <v>0.02193440349187442</v>
       </c>
       <c r="D179" t="n">
-        <v>7.338338254006683</v>
+        <v>7.368212198921089</v>
       </c>
       <c r="E179" t="n">
-        <v>0.001496806399186129</v>
+        <v>0.02509615829611838</v>
       </c>
       <c r="F179" t="n">
-        <v>7.338338254006683</v>
+        <v>7.368212198921089</v>
       </c>
       <c r="G179" t="n">
-        <v>0.0004990646098060158</v>
+        <v>0.0002733239182988772</v>
       </c>
       <c r="H179" t="n">
-        <v>7.303974420968914</v>
+        <v>7.27318916458791</v>
       </c>
       <c r="I179" t="n">
-        <v>0.003225866759405669</v>
+        <v>0.04924715172351576</v>
       </c>
       <c r="J179" t="n">
-        <v>7.303974420968914</v>
+        <v>7.27318916458791</v>
       </c>
       <c r="K179" t="n">
-        <v>0.001099118250695868</v>
+        <v>0.001019017270851558</v>
       </c>
     </row>
     <row r="180">
@@ -6720,34 +6720,34 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>7.316438992704528</v>
+        <v>7.2870876523179</v>
       </c>
       <c r="C180" t="n">
-        <v>0.01755588355225673</v>
+        <v>0.02013628369090637</v>
       </c>
       <c r="D180" t="n">
-        <v>7.349240833331489</v>
+        <v>7.381821295049749</v>
       </c>
       <c r="E180" t="n">
-        <v>0.001077530645078059</v>
+        <v>0.02125735860877291</v>
       </c>
       <c r="F180" t="n">
-        <v>7.349240833331489</v>
+        <v>7.381821295049749</v>
       </c>
       <c r="G180" t="n">
-        <v>0.0004412526066092643</v>
+        <v>0.0002733239182988772</v>
       </c>
       <c r="H180" t="n">
-        <v>7.316438992704528</v>
+        <v>7.2870876523179</v>
       </c>
       <c r="I180" t="n">
-        <v>0.002339854467450245</v>
+        <v>0.0419538937744448</v>
       </c>
       <c r="J180" t="n">
-        <v>7.316438992704528</v>
+        <v>7.2870876523179</v>
       </c>
       <c r="K180" t="n">
-        <v>0.0009056538596525677</v>
+        <v>0.0009012738671239402</v>
       </c>
     </row>
     <row r="181">
@@ -6755,34 +6755,34 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>7.328903564440141</v>
+        <v>7.30098614004789</v>
       </c>
       <c r="C181" t="n">
-        <v>0.01661839388051299</v>
+        <v>0.01877298767322401</v>
       </c>
       <c r="D181" t="n">
-        <v>7.360143412656296</v>
+        <v>7.39543039117841</v>
       </c>
       <c r="E181" t="n">
-        <v>0.0007940930814301295</v>
+        <v>0.01790100911597077</v>
       </c>
       <c r="F181" t="n">
-        <v>7.360143412656296</v>
+        <v>7.39543039117841</v>
       </c>
       <c r="G181" t="n">
-        <v>0.0003973432959548365</v>
+        <v>0.0002733239182988772</v>
       </c>
       <c r="H181" t="n">
-        <v>7.328903564440141</v>
+        <v>7.30098614004789</v>
       </c>
       <c r="I181" t="n">
-        <v>0.001677874996364545</v>
+        <v>0.03544174814549069</v>
       </c>
       <c r="J181" t="n">
-        <v>7.328903564440141</v>
+        <v>7.30098614004789</v>
       </c>
       <c r="K181" t="n">
-        <v>0.0007540107202314748</v>
+        <v>0.0007968355370893133</v>
       </c>
     </row>
     <row r="182">
@@ -6790,34 +6790,34 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>7.341368136175756</v>
+        <v>7.31488462777788</v>
       </c>
       <c r="C182" t="n">
-        <v>0.01563892647642926</v>
+        <v>0.01767265329356915</v>
       </c>
       <c r="D182" t="n">
-        <v>7.371045991981102</v>
+        <v>7.409039487307069</v>
       </c>
       <c r="E182" t="n">
-        <v>0.0005935789332575916</v>
+        <v>0.01494132283283677</v>
       </c>
       <c r="F182" t="n">
-        <v>7.371045991981102</v>
+        <v>7.409039487307069</v>
       </c>
       <c r="G182" t="n">
-        <v>0.000363769173004664</v>
+        <v>0.0002733239182988772</v>
       </c>
       <c r="H182" t="n">
-        <v>7.341368136175756</v>
+        <v>7.31488462777788</v>
       </c>
       <c r="I182" t="n">
-        <v>0.001191647394701417</v>
+        <v>0.02968029868523005</v>
       </c>
       <c r="J182" t="n">
-        <v>7.341368136175756</v>
+        <v>7.31488462777788</v>
       </c>
       <c r="K182" t="n">
-        <v>0.0006373548343322321</v>
+        <v>0.0007053986632778301</v>
       </c>
     </row>
     <row r="183">
@@ -6825,34 +6825,34 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>7.353832707911369</v>
+        <v>7.32878311550787</v>
       </c>
       <c r="C183" t="n">
-        <v>0.01455930532129108</v>
+        <v>0.01662745953628303</v>
       </c>
       <c r="D183" t="n">
-        <v>7.381948571305908</v>
+        <v>7.42264858343573</v>
       </c>
       <c r="E183" t="n">
-        <v>0.000448504288501201</v>
+        <v>0.012385951110759</v>
       </c>
       <c r="F183" t="n">
-        <v>7.381948571305908</v>
+        <v>7.42264858343573</v>
       </c>
       <c r="G183" t="n">
-        <v>0.0003384417832062574</v>
+        <v>0.0002733239182988772</v>
       </c>
       <c r="H183" t="n">
-        <v>7.353832707911369</v>
+        <v>7.32878311550787</v>
       </c>
       <c r="I183" t="n">
-        <v>0.00088097989043803</v>
+        <v>0.02460739409184174</v>
       </c>
       <c r="J183" t="n">
-        <v>7.353832707911369</v>
+        <v>7.32878311550787</v>
       </c>
       <c r="K183" t="n">
-        <v>0.0005510466178743316</v>
+        <v>0.0006263992859253903</v>
       </c>
     </row>
     <row r="184">
@@ -6860,34 +6860,34 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>7.366297279646984</v>
+        <v>7.342681603237859</v>
       </c>
       <c r="C184" t="n">
-        <v>0.01337791182091308</v>
+        <v>0.01552732617330958</v>
       </c>
       <c r="D184" t="n">
-        <v>7.392851150630714</v>
+        <v>7.43625767956439</v>
       </c>
       <c r="E184" t="n">
-        <v>0.0003585515192058658</v>
+        <v>0.010179081505339</v>
       </c>
       <c r="F184" t="n">
-        <v>7.392851150630714</v>
+        <v>7.43625767956439</v>
       </c>
       <c r="G184" t="n">
-        <v>0.0003195977238398304</v>
+        <v>0.0002733239182988772</v>
       </c>
       <c r="H184" t="n">
-        <v>7.366297279646984</v>
+        <v>7.342681603237859</v>
       </c>
       <c r="I184" t="n">
-        <v>0.0006561518920075702</v>
+        <v>0.02019515275345037</v>
       </c>
       <c r="J184" t="n">
-        <v>7.366297279646984</v>
+        <v>7.342681603237859</v>
       </c>
       <c r="K184" t="n">
-        <v>0.0004884420374773804</v>
+        <v>0.0005590548242867918</v>
       </c>
     </row>
     <row r="185">
@@ -6895,34 +6895,34 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>7.378761851382597</v>
+        <v>7.356580090967849</v>
       </c>
       <c r="C185" t="n">
-        <v>0.01210521730291268</v>
+        <v>0.01430708619118087</v>
       </c>
       <c r="D185" t="n">
-        <v>7.403753729955521</v>
+        <v>7.44986677569305</v>
       </c>
       <c r="E185" t="n">
-        <v>0.0003498589098012588</v>
+        <v>0.008273938401242775</v>
       </c>
       <c r="F185" t="n">
-        <v>7.403753729955521</v>
+        <v>7.44986677569305</v>
       </c>
       <c r="G185" t="n">
-        <v>0.0003130471419464456</v>
+        <v>0.0002733239182988772</v>
       </c>
       <c r="H185" t="n">
-        <v>7.378761851382597</v>
+        <v>7.356580090967849</v>
       </c>
       <c r="I185" t="n">
-        <v>0.0005267624337783606</v>
+        <v>0.0163793010773903</v>
       </c>
       <c r="J185" t="n">
-        <v>7.378761851382597</v>
+        <v>7.356580090967849</v>
       </c>
       <c r="K185" t="n">
-        <v>0.0004427220296917109</v>
+        <v>0.0005024159819579983</v>
       </c>
     </row>
     <row r="186">
@@ -6930,34 +6930,34 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>7.391226423118211</v>
+        <v>7.370478578697838</v>
       </c>
       <c r="C186" t="n">
-        <v>0.01076495441798282</v>
+        <v>0.01296627760756622</v>
       </c>
       <c r="D186" t="n">
-        <v>7.414656309280327</v>
+        <v>7.463475871821711</v>
       </c>
       <c r="E186" t="n">
-        <v>0.0003498589098012588</v>
+        <v>0.006685223041388987</v>
       </c>
       <c r="F186" t="n">
-        <v>7.414656309280327</v>
+        <v>7.463475871821711</v>
       </c>
       <c r="G186" t="n">
-        <v>0.0003130471419464456</v>
+        <v>0.0002733239182988772</v>
       </c>
       <c r="H186" t="n">
-        <v>7.391226423118211</v>
+        <v>7.370478578697838</v>
       </c>
       <c r="I186" t="n">
-        <v>0.0004526987165723395</v>
+        <v>0.0131334191449808</v>
       </c>
       <c r="J186" t="n">
-        <v>7.391226423118211</v>
+        <v>7.370478578697838</v>
       </c>
       <c r="K186" t="n">
-        <v>0.0004099558485056858</v>
+        <v>0.0004554226950182687</v>
       </c>
     </row>
     <row r="187">
@@ -6965,34 +6965,34 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>7.403690994853825</v>
+        <v>7.384377066427828</v>
       </c>
       <c r="C187" t="n">
-        <v>0.009397824532627781</v>
+        <v>0.01150584469388184</v>
       </c>
       <c r="D187" t="n">
-        <v>7.425558888605133</v>
+        <v>7.47708496795037</v>
       </c>
       <c r="E187" t="n">
-        <v>0.0003498589098012588</v>
+        <v>0.005341248989086105</v>
       </c>
       <c r="F187" t="n">
-        <v>7.425558888605133</v>
+        <v>7.47708496795037</v>
       </c>
       <c r="G187" t="n">
-        <v>0.0003130471419464456</v>
+        <v>0.0002733239182988772</v>
       </c>
       <c r="H187" t="n">
-        <v>7.403690994853825</v>
+        <v>7.384377066427828</v>
       </c>
       <c r="I187" t="n">
-        <v>0.0004084070301941723</v>
+        <v>0.01039019330520533</v>
       </c>
       <c r="J187" t="n">
-        <v>7.403690994853825</v>
+        <v>7.384377066427828</v>
       </c>
       <c r="K187" t="n">
-        <v>0.0003869314086184872</v>
+        <v>0.0004169589059987979</v>
       </c>
     </row>
     <row r="188">
@@ -7000,34 +7000,34 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>7.416155566589439</v>
+        <v>7.398275554157818</v>
       </c>
       <c r="C188" t="n">
-        <v>0.008049419717391674</v>
+        <v>0.009991072915103356</v>
       </c>
       <c r="D188" t="n">
-        <v>7.43646146792994</v>
+        <v>7.490694064079031</v>
       </c>
       <c r="E188" t="n">
-        <v>0.0003498589098012588</v>
+        <v>0.004226869789874035</v>
       </c>
       <c r="F188" t="n">
-        <v>7.43646146792994</v>
+        <v>7.490694064079031</v>
       </c>
       <c r="G188" t="n">
-        <v>0.0003130471419464456</v>
+        <v>0.0002733239182988772</v>
       </c>
       <c r="H188" t="n">
-        <v>7.416155566589439</v>
+        <v>7.398275554157818</v>
       </c>
       <c r="I188" t="n">
-        <v>0.0003784771296327259</v>
+        <v>0.008116074159578275</v>
       </c>
       <c r="J188" t="n">
-        <v>7.416155566589439</v>
+        <v>7.398275554157818</v>
       </c>
       <c r="K188" t="n">
-        <v>0.0003868887396311518</v>
+        <v>0.0003859021540761363</v>
       </c>
     </row>
     <row r="189">
@@ -7035,34 +7035,34 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>7.428620138325053</v>
+        <v>7.412174041887807</v>
       </c>
       <c r="C189" t="n">
-        <v>0.006756509072534011</v>
+        <v>0.00847487661382869</v>
       </c>
       <c r="D189" t="n">
-        <v>7.447364047254746</v>
+        <v>7.504303160207691</v>
       </c>
       <c r="E189" t="n">
-        <v>0.0003498589098012588</v>
+        <v>0.003323492433412546</v>
       </c>
       <c r="F189" t="n">
-        <v>7.447364047254746</v>
+        <v>7.504303160207691</v>
       </c>
       <c r="G189" t="n">
-        <v>0.0003130471419464456</v>
+        <v>0.0002733239182988772</v>
       </c>
       <c r="H189" t="n">
-        <v>7.428620138325053</v>
+        <v>7.412174041887807</v>
       </c>
       <c r="I189" t="n">
-        <v>0.000357776541852627</v>
+        <v>0.006245471645287162</v>
       </c>
       <c r="J189" t="n">
-        <v>7.428620138325053</v>
+        <v>7.412174041887807</v>
       </c>
       <c r="K189" t="n">
-        <v>0.0003868887396311518</v>
+        <v>0.0003611652822748584</v>
       </c>
     </row>
     <row r="190">
@@ -7070,34 +7070,34 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>7.441084710060667</v>
+        <v>7.426072529617798</v>
       </c>
       <c r="C190" t="n">
-        <v>0.005560333163186145</v>
+        <v>0.007017173141600339</v>
       </c>
       <c r="D190" t="n">
-        <v>7.458266626579552</v>
+        <v>7.517912256336352</v>
       </c>
       <c r="E190" t="n">
-        <v>0.0003498589098012588</v>
+        <v>0.002595969413562384</v>
       </c>
       <c r="F190" t="n">
-        <v>7.458266626579552</v>
+        <v>7.517912256336352</v>
       </c>
       <c r="G190" t="n">
-        <v>0.0003130471419464456</v>
+        <v>0.0002733239182988772</v>
       </c>
       <c r="H190" t="n">
-        <v>7.441084710060667</v>
+        <v>7.426072529617798</v>
       </c>
       <c r="I190" t="n">
-        <v>0.000357776541852627</v>
+        <v>0.004740758030614466</v>
       </c>
       <c r="J190" t="n">
-        <v>7.441084710060667</v>
+        <v>7.426072529617798</v>
       </c>
       <c r="K190" t="n">
-        <v>0.0003868887396311518</v>
+        <v>0.000341728823377193</v>
       </c>
     </row>
     <row r="191">
@@ -7105,34 +7105,34 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>7.453549281796281</v>
+        <v>7.439971017347787</v>
       </c>
       <c r="C191" t="n">
-        <v>0.004488663778933804</v>
+        <v>0.005658987963597963</v>
       </c>
       <c r="D191" t="n">
-        <v>7.469169205904358</v>
+        <v>7.531521352465012</v>
       </c>
       <c r="E191" t="n">
-        <v>0.0003498589098012588</v>
+        <v>0.002018934100943054</v>
       </c>
       <c r="F191" t="n">
-        <v>7.469169205904358</v>
+        <v>7.531521352465012</v>
       </c>
       <c r="G191" t="n">
-        <v>0.0003130471419464456</v>
+        <v>0.0002733239182988772</v>
       </c>
       <c r="H191" t="n">
-        <v>7.453549281796281</v>
+        <v>7.439971017347787</v>
       </c>
       <c r="I191" t="n">
-        <v>0.000357776541852627</v>
+        <v>0.003537411251813697</v>
       </c>
       <c r="J191" t="n">
-        <v>7.453549281796281</v>
+        <v>7.439971017347787</v>
       </c>
       <c r="K191" t="n">
-        <v>0.0003868887396311518</v>
+        <v>0.0003266947261254167</v>
       </c>
     </row>
     <row r="192">
@@ -7140,34 +7140,34 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>7.466013853531894</v>
+        <v>7.453869505077777</v>
       </c>
       <c r="C192" t="n">
-        <v>0.003546440851367633</v>
+        <v>0.004462987535446526</v>
       </c>
       <c r="D192" t="n">
-        <v>7.480071785229164</v>
+        <v>7.545130448593672</v>
       </c>
       <c r="E192" t="n">
-        <v>0.0003498589098012588</v>
+        <v>0.001573589543627036</v>
       </c>
       <c r="F192" t="n">
-        <v>7.480071785229164</v>
+        <v>7.545130448593672</v>
       </c>
       <c r="G192" t="n">
-        <v>0.0003130471419464456</v>
+        <v>0.0002733239182988772</v>
       </c>
       <c r="H192" t="n">
-        <v>7.466013853531894</v>
+        <v>7.453869505077777</v>
       </c>
       <c r="I192" t="n">
-        <v>0.000357776541852627</v>
+        <v>0.002631795567604818</v>
       </c>
       <c r="J192" t="n">
-        <v>7.466013853531894</v>
+        <v>7.453869505077777</v>
       </c>
       <c r="K192" t="n">
-        <v>0.0003868887396311518</v>
+        <v>0.0003152807354332924</v>
       </c>
     </row>
     <row r="193">
@@ -7175,34 +7175,34 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>7.478478425267509</v>
+        <v>7.467767992807767</v>
       </c>
       <c r="C193" t="n">
-        <v>0.002738692743031141</v>
+        <v>0.003421361378934711</v>
       </c>
       <c r="D193" t="n">
-        <v>7.490974364553971</v>
+        <v>7.558739544722332</v>
       </c>
       <c r="E193" t="n">
-        <v>0.0003498589098012588</v>
+        <v>0.001234673306476624</v>
       </c>
       <c r="F193" t="n">
-        <v>7.490974364553971</v>
+        <v>7.558739544722332</v>
       </c>
       <c r="G193" t="n">
-        <v>0.0003130471419464456</v>
+        <v>0.0002733239182988772</v>
       </c>
       <c r="H193" t="n">
-        <v>7.478478425267509</v>
+        <v>7.467767992807767</v>
       </c>
       <c r="I193" t="n">
-        <v>0.000357776541852627</v>
+        <v>0.001948714576221747</v>
       </c>
       <c r="J193" t="n">
-        <v>7.478478425267509</v>
+        <v>7.467767992807767</v>
       </c>
       <c r="K193" t="n">
-        <v>0.0003868887396311518</v>
+        <v>0.0003072552925733843</v>
       </c>
     </row>
     <row r="194">
@@ -7210,34 +7210,34 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>7.490942997003122</v>
+        <v>7.481666480537756</v>
       </c>
       <c r="C194" t="n">
-        <v>0.002077717878598035</v>
+        <v>0.002560384635459992</v>
       </c>
       <c r="D194" t="n">
-        <v>7.501876943878777</v>
+        <v>7.572348640850993</v>
       </c>
       <c r="E194" t="n">
-        <v>0.0003498589098012588</v>
+        <v>0.0009649678603997711</v>
       </c>
       <c r="F194" t="n">
-        <v>7.501876943878777</v>
+        <v>7.572348640850993</v>
       </c>
       <c r="G194" t="n">
-        <v>0.0003130471419464456</v>
+        <v>0.0002733239182988772</v>
       </c>
       <c r="H194" t="n">
-        <v>7.490942997003122</v>
+        <v>7.481666480537756</v>
       </c>
       <c r="I194" t="n">
-        <v>0.000357776541852627</v>
+        <v>0.001431609094861522</v>
       </c>
       <c r="J194" t="n">
-        <v>7.490942997003122</v>
+        <v>7.481666480537756</v>
       </c>
       <c r="K194" t="n">
-        <v>0.0003868887396311518</v>
+        <v>0.0003072552925733843</v>
       </c>
     </row>
     <row r="195">
@@ -7245,34 +7245,34 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>7.503407568738737</v>
+        <v>7.495564968267747</v>
       </c>
       <c r="C195" t="n">
-        <v>0.00154602543891413</v>
+        <v>0.001868423952710624</v>
       </c>
       <c r="D195" t="n">
-        <v>7.512779523203583</v>
+        <v>7.585957736979653</v>
       </c>
       <c r="E195" t="n">
-        <v>0.0003498589098012588</v>
+        <v>0.0007601961411599914</v>
       </c>
       <c r="F195" t="n">
-        <v>7.512779523203583</v>
+        <v>7.585957736979653</v>
       </c>
       <c r="G195" t="n">
-        <v>0.0003130471419464456</v>
+        <v>0.0002733239182988772</v>
       </c>
       <c r="H195" t="n">
-        <v>7.503407568738737</v>
+        <v>7.495564968267747</v>
       </c>
       <c r="I195" t="n">
-        <v>0.000357776541852627</v>
+        <v>0.00104515654382831</v>
       </c>
       <c r="J195" t="n">
-        <v>7.503407568738737</v>
+        <v>7.495564968267747</v>
       </c>
       <c r="K195" t="n">
-        <v>0.0003868887396311518</v>
+        <v>0.0003072552925733843</v>
       </c>
     </row>
     <row r="196">
@@ -7280,34 +7280,34 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>7.51587214047435</v>
+        <v>7.509463455997736</v>
       </c>
       <c r="C196" t="n">
-        <v>0.001123516203655384</v>
+        <v>0.001321123734061581</v>
       </c>
       <c r="D196" t="n">
-        <v>7.523682102528389</v>
+        <v>7.599566833108312</v>
       </c>
       <c r="E196" t="n">
-        <v>0.0003498589098012588</v>
+        <v>0.0006236271443267755</v>
       </c>
       <c r="F196" t="n">
-        <v>7.523682102528389</v>
+        <v>7.599566833108312</v>
       </c>
       <c r="G196" t="n">
-        <v>0.0003130471419464456</v>
+        <v>0.0002733239182988772</v>
       </c>
       <c r="H196" t="n">
-        <v>7.51587214047435</v>
+        <v>7.509463455997736</v>
       </c>
       <c r="I196" t="n">
-        <v>0.000357776541852627</v>
+        <v>0.0007753639991728776</v>
       </c>
       <c r="J196" t="n">
-        <v>7.51587214047435</v>
+        <v>7.509463455997736</v>
       </c>
       <c r="K196" t="n">
-        <v>0.0003868887396311518</v>
+        <v>0.0003072552925733843</v>
       </c>
     </row>
     <row r="197">
@@ -7315,34 +7315,34 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>7.528336712209964</v>
+        <v>7.523361943727726</v>
       </c>
       <c r="C197" t="n">
-        <v>0.0007957677866256591</v>
+        <v>0.0009193884767520706</v>
       </c>
       <c r="D197" t="n">
-        <v>7.534584681853195</v>
+        <v>7.613175929236974</v>
       </c>
       <c r="E197" t="n">
-        <v>0.0003498589098012588</v>
+        <v>0.0005307476832925149</v>
       </c>
       <c r="F197" t="n">
-        <v>7.534584681853195</v>
+        <v>7.613175929236974</v>
       </c>
       <c r="G197" t="n">
-        <v>0.0003130471419464456</v>
+        <v>0.0002733239182988772</v>
       </c>
       <c r="H197" t="n">
-        <v>7.528336712209964</v>
+        <v>7.523361943727726</v>
       </c>
       <c r="I197" t="n">
-        <v>0.000357776541852627</v>
+        <v>0.0005958711157253108</v>
       </c>
       <c r="J197" t="n">
-        <v>7.528336712209964</v>
+        <v>7.523361943727726</v>
       </c>
       <c r="K197" t="n">
-        <v>0.0003868887396311518</v>
+        <v>0.0003072552925733843</v>
       </c>
     </row>
     <row r="198">
@@ -7350,34 +7350,34 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>7.540801283945578</v>
+        <v>7.537260431457716</v>
       </c>
       <c r="C198" t="n">
-        <v>0.0005570290190967884</v>
+        <v>0.0006175936582372218</v>
       </c>
       <c r="D198" t="n">
-        <v>7.545487261178002</v>
+        <v>7.626785025365633</v>
       </c>
       <c r="E198" t="n">
-        <v>0.0003498589098012588</v>
+        <v>0.0004612536194300335</v>
       </c>
       <c r="F198" t="n">
-        <v>7.545487261178002</v>
+        <v>7.626785025365633</v>
       </c>
       <c r="G198" t="n">
-        <v>0.0003130471419464456</v>
+        <v>0.0002733239182988772</v>
       </c>
       <c r="H198" t="n">
-        <v>7.540801283945578</v>
+        <v>7.537260431457716</v>
       </c>
       <c r="I198" t="n">
-        <v>0.000357776541852627</v>
+        <v>0.0004801781348723424</v>
       </c>
       <c r="J198" t="n">
-        <v>7.540801283945578</v>
+        <v>7.537260431457716</v>
       </c>
       <c r="K198" t="n">
-        <v>0.0003868887396311518</v>
+        <v>0.0003072552925733843</v>
       </c>
     </row>
     <row r="199">
@@ -7385,34 +7385,34 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>7.553265855681192</v>
+        <v>7.551158919187705</v>
       </c>
       <c r="C199" t="n">
-        <v>0.0003817158619751611</v>
+        <v>0.0004067101919678993</v>
       </c>
       <c r="D199" t="n">
-        <v>7.556389840502808</v>
+        <v>7.640394121494294</v>
       </c>
       <c r="E199" t="n">
-        <v>0.0003498589098012588</v>
+        <v>0.0004119563185465774</v>
       </c>
       <c r="F199" t="n">
-        <v>7.556389840502808</v>
+        <v>7.640394121494294</v>
       </c>
       <c r="G199" t="n">
-        <v>0.0003130471419464456</v>
+        <v>0.0002733239182988772</v>
       </c>
       <c r="H199" t="n">
-        <v>7.553265855681192</v>
+        <v>7.551158919187705</v>
       </c>
       <c r="I199" t="n">
-        <v>0.000357776541852627</v>
+        <v>0.0004279287621152163</v>
       </c>
       <c r="J199" t="n">
-        <v>7.553265855681192</v>
+        <v>7.551158919187705</v>
       </c>
       <c r="K199" t="n">
-        <v>0.0003868887396311518</v>
+        <v>0.0003072552925733843</v>
       </c>
     </row>
     <row r="200">
@@ -7420,34 +7420,34 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>7.565730427416806</v>
+        <v>7.565057406917695</v>
       </c>
       <c r="C200" t="n">
-        <v>0.0002547951847799613</v>
+        <v>0.0002608499744311549</v>
       </c>
       <c r="D200" t="n">
-        <v>7.567292419827615</v>
+        <v>7.654003217622954</v>
       </c>
       <c r="E200" t="n">
-        <v>0.0003498589098012588</v>
+        <v>0.0003760108436659355</v>
       </c>
       <c r="F200" t="n">
-        <v>7.567292419827615</v>
+        <v>7.654003217622954</v>
       </c>
       <c r="G200" t="n">
-        <v>0.0003130471419464456</v>
+        <v>0.0002733239182988772</v>
       </c>
       <c r="H200" t="n">
-        <v>7.565730427416806</v>
+        <v>7.565057406917695</v>
       </c>
       <c r="I200" t="n">
-        <v>0.000357776541852627</v>
+        <v>0.0003915827698273069</v>
       </c>
       <c r="J200" t="n">
-        <v>7.565730427416806</v>
+        <v>7.565057406917695</v>
       </c>
       <c r="K200" t="n">
-        <v>0.0003868887396311518</v>
+        <v>0.0003072552925733843</v>
       </c>
     </row>
     <row r="201">
@@ -7455,34 +7455,34 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>7.57819499915242</v>
+        <v>7.578955894647684</v>
       </c>
       <c r="C201" t="n">
-        <v>0.0001651418332071662</v>
+        <v>0.0001651418266899786</v>
       </c>
       <c r="D201" t="n">
-        <v>7.57819499915242</v>
+        <v>7.667612313751614</v>
       </c>
       <c r="E201" t="n">
-        <v>0.0003498589098012588</v>
+        <v>0.0003503481937408967</v>
       </c>
       <c r="F201" t="n">
-        <v>7.57819499915242</v>
+        <v>7.667612313751614</v>
       </c>
       <c r="G201" t="n">
-        <v>0.0003130471419464456</v>
+        <v>0.0002733239182988772</v>
       </c>
       <c r="H201" t="n">
-        <v>7.57819499915242</v>
+        <v>7.578955894647684</v>
       </c>
       <c r="I201" t="n">
-        <v>0.000357776541852627</v>
+        <v>0.0003659807202707948</v>
       </c>
       <c r="J201" t="n">
-        <v>7.57819499915242</v>
+        <v>7.578955894647684</v>
       </c>
       <c r="K201" t="n">
-        <v>0.0003868887396311518</v>
+        <v>0.0003072552925733843</v>
       </c>
     </row>
   </sheetData>
